--- a/software/testing/CV/combined-UI/output.xlsx
+++ b/software/testing/CV/combined-UI/output.xlsx
@@ -1940,1504 +1940,1504 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-247.9586663249286</v>
+        <v>-78.9573332014479</v>
       </c>
       <c r="C2" t="n">
-        <v>-343.2704100990494</v>
+        <v>-108.3065502334485</v>
       </c>
       <c r="D2" t="n">
-        <v>-393.7416046483603</v>
+        <v>-123.7510371208838</v>
       </c>
       <c r="E2" t="n">
-        <v>-425.9905795681003</v>
+        <v>-133.778205058039</v>
       </c>
       <c r="F2" t="n">
-        <v>-442.7044908223345</v>
+        <v>-140.0576711278671</v>
       </c>
       <c r="G2" t="n">
-        <v>-465.5126746940466</v>
+        <v>-146.2522876948732</v>
       </c>
       <c r="H2" t="n">
-        <v>-480.098126663918</v>
+        <v>-150.548433363771</v>
       </c>
       <c r="I2" t="n">
-        <v>-489.3105248062423</v>
+        <v>-155.5195794933445</v>
       </c>
       <c r="J2" t="n">
-        <v>-494.7001443470441</v>
+        <v>-156.6714236080367</v>
       </c>
       <c r="K2" t="n">
-        <v>-500.2408148420829</v>
+        <v>-157.0079478265718</v>
       </c>
       <c r="L2" t="n">
-        <v>-504.1391489710853</v>
+        <v>-157.3940732362668</v>
       </c>
       <c r="M2" t="n">
-        <v>-506.1166855564628</v>
+        <v>-157.6447462769826</v>
       </c>
       <c r="N2" t="n">
-        <v>-507.6004055720005</v>
+        <v>-157.1746223921638</v>
       </c>
       <c r="O2" t="n">
-        <v>-507.8972888118687</v>
+        <v>-156.9573864272722</v>
       </c>
       <c r="P2" t="n">
-        <v>-507.6325085739037</v>
+        <v>-156.5919825097758</v>
       </c>
       <c r="Q2" t="n">
-        <v>-507.0474418531025</v>
+        <v>-156.1040113067542</v>
       </c>
       <c r="R2" t="n">
-        <v>-506.7221276263691</v>
+        <v>-155.9247152163055</v>
       </c>
       <c r="S2" t="n">
-        <v>-505.7565368236552</v>
+        <v>-155.4345507635361</v>
       </c>
       <c r="T2" t="n">
-        <v>-504.8905374231049</v>
+        <v>-155.2351905398891</v>
       </c>
       <c r="U2" t="n">
-        <v>-503.821818346632</v>
+        <v>-155.0642521464664</v>
       </c>
       <c r="V2" t="n">
-        <v>-503.3052612545367</v>
+        <v>-154.8503158538274</v>
       </c>
       <c r="W2" t="n">
-        <v>-502.3336352345705</v>
+        <v>-154.5062859985467</v>
       </c>
       <c r="X2" t="n">
-        <v>-501.3442079279172</v>
+        <v>-154.2885881093866</v>
       </c>
       <c r="Y2" t="n">
-        <v>-500.7350931423083</v>
+        <v>-153.9538081737336</v>
       </c>
       <c r="Z2" t="n">
-        <v>-499.602794340692</v>
+        <v>-153.3084753201824</v>
       </c>
       <c r="AA2" t="n">
-        <v>-498.6293747293999</v>
+        <v>-153.1384494303755</v>
       </c>
       <c r="AB2" t="n">
-        <v>-497.4374584766333</v>
+        <v>-152.7576723941504</v>
       </c>
       <c r="AC2" t="n">
-        <v>-496.4586967964051</v>
+        <v>-152.588856305643</v>
       </c>
       <c r="AD2" t="n">
-        <v>-495.5620201683138</v>
+        <v>-152.1747248894694</v>
       </c>
       <c r="AE2" t="n">
-        <v>-494.6143475075567</v>
+        <v>-151.8035346891599</v>
       </c>
       <c r="AF2" t="n">
-        <v>-493.7341889152942</v>
+        <v>-151.5019722779347</v>
       </c>
       <c r="AG2" t="n">
-        <v>-492.8267719449689</v>
+        <v>-151.1478073771468</v>
       </c>
       <c r="AH2" t="n">
-        <v>-491.8948959603568</v>
+        <v>-150.8673050656884</v>
       </c>
       <c r="AI2" t="n">
-        <v>-491.0893199492303</v>
+        <v>-150.6148561247435</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-490.2975314858529</v>
+        <v>-150.3720342509142</v>
       </c>
       <c r="AK2" t="n">
-        <v>-489.5156713616136</v>
+        <v>-150.1546594467467</v>
       </c>
       <c r="AL2" t="n">
-        <v>-488.6229868562101</v>
+        <v>-149.9195160351453</v>
       </c>
       <c r="AM2" t="n">
-        <v>-487.8616527450607</v>
+        <v>-149.6848382347089</v>
       </c>
       <c r="AN2" t="n">
-        <v>-487.0340237708739</v>
+        <v>-149.5173634899824</v>
       </c>
       <c r="AO2" t="n">
-        <v>-486.2342305090635</v>
+        <v>-149.362098279662</v>
       </c>
       <c r="AP2" t="n">
-        <v>-485.5064583943917</v>
+        <v>-149.1693994232704</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-484.8114478464989</v>
+        <v>-148.9541747903716</v>
       </c>
       <c r="AR2" t="n">
-        <v>-484.0738680976314</v>
+        <v>-148.7933643820948</v>
       </c>
       <c r="AS2" t="n">
-        <v>-483.4164445258318</v>
+        <v>-148.6238204996525</v>
       </c>
       <c r="AT2" t="n">
-        <v>-482.7109545787352</v>
+        <v>-148.4876555495639</v>
       </c>
       <c r="AU2" t="n">
-        <v>-482.0423035084848</v>
+        <v>-148.3680241780992</v>
       </c>
       <c r="AV2" t="n">
-        <v>-481.4221912574038</v>
+        <v>-148.214727985117</v>
       </c>
       <c r="AW2" t="n">
-        <v>-480.8170536518402</v>
+        <v>-148.0636166985467</v>
       </c>
       <c r="AX2" t="n">
-        <v>-480.2101584969756</v>
+        <v>-147.9400465980131</v>
       </c>
       <c r="AY2" t="n">
-        <v>-479.6582131265062</v>
+        <v>-147.7438840956294</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-479.0507393206003</v>
+        <v>-147.5465902751419</v>
       </c>
       <c r="BA2" t="n">
-        <v>-478.4292317341261</v>
+        <v>-147.4182766279737</v>
       </c>
       <c r="BB2" t="n">
-        <v>-477.8613712335782</v>
+        <v>-147.2983100711201</v>
       </c>
       <c r="BC2" t="n">
-        <v>-477.2968661286381</v>
+        <v>-147.1986928393819</v>
       </c>
       <c r="BD2" t="n">
-        <v>-476.8465648622198</v>
+        <v>-147.1157148333543</v>
       </c>
       <c r="BE2" t="n">
-        <v>-476.5581425419048</v>
+        <v>-147.0201179666624</v>
       </c>
       <c r="BF2" t="n">
-        <v>-476.1168704571799</v>
+        <v>-146.9013505505386</v>
       </c>
       <c r="BG2" t="n">
-        <v>-475.7123429595094</v>
+        <v>-146.7688619727178</v>
       </c>
       <c r="BH2" t="n">
-        <v>-475.1994104715098</v>
+        <v>-146.6440931273433</v>
       </c>
       <c r="BI2" t="n">
-        <v>-474.8398590794467</v>
+        <v>-146.5448948860682</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-474.2693458130808</v>
+        <v>-146.4737588064941</v>
       </c>
       <c r="BK2" t="n">
-        <v>-473.9053644636812</v>
+        <v>-146.3741582934625</v>
       </c>
       <c r="BL2" t="n">
-        <v>-473.6139188579783</v>
+        <v>-146.2854414140112</v>
       </c>
       <c r="BM2" t="n">
-        <v>-473.2336058436114</v>
+        <v>-146.2382378253826</v>
       </c>
       <c r="BN2" t="n">
-        <v>-472.7383485579933</v>
+        <v>-146.2036875876553</v>
       </c>
       <c r="BO2" t="n">
-        <v>-472.5204098192197</v>
+        <v>-146.198438988625</v>
       </c>
       <c r="BP2" t="n">
-        <v>-472.317336242052</v>
+        <v>-146.081428421451</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-472.1283131650872</v>
+        <v>-146.0514810902875</v>
       </c>
       <c r="BR2" t="n">
-        <v>-471.9558443784793</v>
+        <v>-146.0896901082099</v>
       </c>
       <c r="BS2" t="n">
-        <v>-471.7777195381429</v>
+        <v>-146.330081564685</v>
       </c>
       <c r="BT2" t="n">
-        <v>-471.6347547203072</v>
+        <v>-146.3099825005271</v>
       </c>
       <c r="BU2" t="n">
-        <v>-471.5050603790745</v>
+        <v>-146.4455616025142</v>
       </c>
       <c r="BV2" t="n">
-        <v>-471.3866492743615</v>
+        <v>-146.6026859573275</v>
       </c>
       <c r="BW2" t="n">
-        <v>-471.2395855122725</v>
+        <v>-147.2541043237084</v>
       </c>
       <c r="BX2" t="n">
-        <v>-471.1468678797731</v>
+        <v>-147.3024234286954</v>
       </c>
       <c r="BY2" t="n">
-        <v>-471.0278052324638</v>
+        <v>-147.8752911874461</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-470.9408352282323</v>
+        <v>-147.8176794021981</v>
       </c>
       <c r="CA2" t="n">
-        <v>-470.8623501544937</v>
+        <v>-147.7759742745735</v>
       </c>
       <c r="CB2" t="n">
-        <v>-470.9894243309945</v>
+        <v>-147.7771285199927</v>
       </c>
       <c r="CC2" t="n">
-        <v>-470.9230030720087</v>
+        <v>-147.8797418283551</v>
       </c>
       <c r="CD2" t="n">
-        <v>-470.7924041373242</v>
+        <v>-148.0532209350349</v>
       </c>
       <c r="CE2" t="n">
-        <v>-470.7100262313971</v>
+        <v>-148.2348331104693</v>
       </c>
       <c r="CF2" t="n">
-        <v>-470.6899715509068</v>
+        <v>-148.2106808134222</v>
       </c>
       <c r="CG2" t="n">
-        <v>-470.6590191182654</v>
+        <v>-148.6964750599217</v>
       </c>
       <c r="CH2" t="n">
-        <v>-470.8261873164306</v>
+        <v>-148.8128058823734</v>
       </c>
       <c r="CI2" t="n">
-        <v>-471.0555704709798</v>
+        <v>-148.9167322766664</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-471.1230180696637</v>
+        <v>-148.9768818032149</v>
       </c>
       <c r="CK2" t="n">
-        <v>-471.12315524722</v>
+        <v>-148.9249147220528</v>
       </c>
       <c r="CL2" t="n">
-        <v>-471.1078602305006</v>
+        <v>-148.8616871897441</v>
       </c>
       <c r="CM2" t="n">
-        <v>-471.0415959099697</v>
+        <v>-148.8499211242739</v>
       </c>
       <c r="CN2" t="n">
-        <v>-470.9598763667514</v>
+        <v>-148.937973224811</v>
       </c>
       <c r="CO2" t="n">
-        <v>-470.9412604921902</v>
+        <v>-148.9437998789841</v>
       </c>
       <c r="CP2" t="n">
-        <v>-470.9430776437665</v>
+        <v>-149.0993736032</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-470.85603831055</v>
+        <v>-149.1467260039643</v>
       </c>
       <c r="CR2" t="n">
-        <v>-470.69677843784</v>
+        <v>-149.6421142586169</v>
       </c>
       <c r="CS2" t="n">
-        <v>-470.577309066257</v>
+        <v>-149.6944319223507</v>
       </c>
       <c r="CT2" t="n">
-        <v>-470.4010040828306</v>
+        <v>-149.8127359769984</v>
       </c>
       <c r="CU2" t="n">
-        <v>-470.4101618330196</v>
+        <v>-149.6661877462241</v>
       </c>
       <c r="CV2" t="n">
-        <v>-470.3830789536308</v>
+        <v>-149.7725423632773</v>
       </c>
       <c r="CW2" t="n">
-        <v>-470.5795010115037</v>
+        <v>-149.7813000976707</v>
       </c>
       <c r="CX2" t="n">
-        <v>-470.6691950271185</v>
+        <v>-149.7643214010403</v>
       </c>
       <c r="CY2" t="n">
-        <v>-470.6188720201927</v>
+        <v>-149.5761996526799</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-470.5744966800468</v>
+        <v>-148.9638127509439</v>
       </c>
       <c r="DA2" t="n">
-        <v>-470.6239137287236</v>
+        <v>-148.9299384630601</v>
       </c>
       <c r="DB2" t="n">
-        <v>-470.6339961023556</v>
+        <v>-149.0395375740777</v>
       </c>
       <c r="DC2" t="n">
-        <v>-470.574434838252</v>
+        <v>-149.1069691717227</v>
       </c>
       <c r="DD2" t="n">
-        <v>-470.74813692954</v>
+        <v>-149.1702900589901</v>
       </c>
       <c r="DE2" t="n">
-        <v>-470.7828205747732</v>
+        <v>-149.2516759344322</v>
       </c>
       <c r="DF2" t="n">
-        <v>-470.8295989926045</v>
+        <v>-149.926254474057</v>
       </c>
       <c r="DG2" t="n">
-        <v>-470.8454568120247</v>
+        <v>-149.9877613027396</v>
       </c>
       <c r="DH2" t="n">
-        <v>-470.8904551288574</v>
+        <v>-149.9776957339332</v>
       </c>
       <c r="DI2" t="n">
-        <v>-470.9136613298795</v>
+        <v>-149.8758070545996</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-470.850014376506</v>
+        <v>-149.6766868739463</v>
       </c>
       <c r="DK2" t="n">
-        <v>-470.8764540874973</v>
+        <v>-152.217382046133</v>
       </c>
       <c r="DL2" t="n">
-        <v>-470.6860436817241</v>
+        <v>-151.8899359169709</v>
       </c>
       <c r="DM2" t="n">
-        <v>-470.5706801137079</v>
+        <v>-151.5403483196863</v>
       </c>
       <c r="DN2" t="n">
-        <v>-470.6341596771165</v>
+        <v>-151.4186792542971</v>
       </c>
       <c r="DO2" t="n">
-        <v>-471.0107345069515</v>
+        <v>-151.8769832920445</v>
       </c>
       <c r="DP2" t="n">
-        <v>-470.9682471260625</v>
+        <v>-151.5909632549099</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-470.9022694446766</v>
+        <v>-151.4511637612553</v>
       </c>
       <c r="DR2" t="n">
-        <v>-470.8775703840033</v>
+        <v>-151.218593303393</v>
       </c>
       <c r="DS2" t="n">
-        <v>-470.9955607347927</v>
+        <v>-150.9915572708256</v>
       </c>
       <c r="DT2" t="n">
-        <v>-470.7817355209648</v>
+        <v>-150.8681956024598</v>
       </c>
       <c r="DU2" t="n">
-        <v>-470.5799963750906</v>
+        <v>-150.5637307541661</v>
       </c>
       <c r="DV2" t="n">
-        <v>-470.5370538290605</v>
+        <v>-153.0653145451035</v>
       </c>
       <c r="DW2" t="n">
-        <v>-470.6206627727864</v>
+        <v>-152.7988893738068</v>
       </c>
       <c r="DX2" t="n">
-        <v>-470.5807006415212</v>
+        <v>-152.4927437328448</v>
       </c>
       <c r="DY2" t="n">
-        <v>-469.5414225076607</v>
+        <v>-152.1797879220227</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-469.6769044469539</v>
+        <v>-151.8900870975177</v>
       </c>
       <c r="EA2" t="n">
-        <v>-469.7993238560314</v>
+        <v>-154.366385045999</v>
       </c>
       <c r="EB2" t="n">
-        <v>-469.8985616094781</v>
+        <v>-153.9443646432077</v>
       </c>
       <c r="EC2" t="n">
-        <v>-469.8565286361218</v>
+        <v>-153.5437615767745</v>
       </c>
       <c r="ED2" t="n">
-        <v>-469.7299339612991</v>
+        <v>-153.096089581787</v>
       </c>
       <c r="EE2" t="n">
-        <v>-469.787431338681</v>
+        <v>-152.6608075925082</v>
       </c>
       <c r="EF2" t="n">
-        <v>-469.8994000792568</v>
+        <v>-152.206621405766</v>
       </c>
       <c r="EG2" t="n">
-        <v>-470.0057357927154</v>
+        <v>-151.7693214738813</v>
       </c>
       <c r="EH2" t="n">
-        <v>-469.9874219879837</v>
+        <v>-154.0198933419385</v>
       </c>
       <c r="EI2" t="n">
-        <v>-470.1241164476672</v>
+        <v>-153.4698874638187</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-470.1848352202682</v>
+        <v>-152.9651115015764</v>
       </c>
       <c r="EK2" t="n">
-        <v>-470.171601131772</v>
+        <v>-152.484063237824</v>
       </c>
       <c r="EL2" t="n">
-        <v>-470.1952638908953</v>
+        <v>-154.7946465312363</v>
       </c>
       <c r="EM2" t="n">
-        <v>-470.0520610638642</v>
+        <v>-154.248512767288</v>
       </c>
       <c r="EN2" t="n">
-        <v>-470.1040793170376</v>
+        <v>-153.7274166334659</v>
       </c>
       <c r="EO2" t="n">
-        <v>-470.1114911559863</v>
+        <v>-153.1473287670117</v>
       </c>
       <c r="EP2" t="n">
-        <v>-470.1254794139254</v>
+        <v>-155.1773611760107</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-470.331799305555</v>
+        <v>-154.5255495584973</v>
       </c>
       <c r="ER2" t="n">
-        <v>-470.3323878547308</v>
+        <v>-153.9130792333626</v>
       </c>
       <c r="ES2" t="n">
-        <v>-470.6436354075526</v>
+        <v>-153.2956720846327</v>
       </c>
       <c r="ET2" t="n">
-        <v>-470.6368484190953</v>
+        <v>-152.7467955610543</v>
       </c>
       <c r="EU2" t="n">
-        <v>-470.6407114868912</v>
+        <v>-152.1937191597615</v>
       </c>
       <c r="EV2" t="n">
-        <v>-470.6096575948499</v>
+        <v>-152.0401524856904</v>
       </c>
       <c r="EW2" t="n">
-        <v>-471.0315161647777</v>
+        <v>-151.4949731099523</v>
       </c>
       <c r="EX2" t="n">
-        <v>-471.0043745720191</v>
+        <v>-151.0522717271874</v>
       </c>
       <c r="EY2" t="n">
-        <v>-470.9999653213364</v>
+        <v>-150.8947808776228</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-471.7574196033479</v>
+        <v>-150.48285442618</v>
       </c>
       <c r="FA2" t="n">
-        <v>-471.6506965029368</v>
+        <v>-150.0657211767864</v>
       </c>
       <c r="FB2" t="n">
-        <v>-471.6964658690235</v>
+        <v>-149.6657931861592</v>
       </c>
       <c r="FC2" t="n">
-        <v>-471.6833061831992</v>
+        <v>-149.2693850104877</v>
       </c>
       <c r="FD2" t="n">
-        <v>-471.695381371137</v>
+        <v>-148.9065098383016</v>
       </c>
       <c r="FE2" t="n">
-        <v>-471.5872749500125</v>
+        <v>-148.5524860166528</v>
       </c>
       <c r="FF2" t="n">
-        <v>-471.4902789230288</v>
+        <v>-148.6065210806146</v>
       </c>
       <c r="FG2" t="n">
-        <v>-471.3610705276968</v>
+        <v>-148.3374620406692</v>
       </c>
       <c r="FH2" t="n">
-        <v>-471.2650189475332</v>
+        <v>-147.9887569531982</v>
       </c>
       <c r="FI2" t="n">
-        <v>-471.2697569103042</v>
+        <v>-147.685715410912</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-471.3918040920864</v>
+        <v>-147.3578205165526</v>
       </c>
       <c r="FK2" t="n">
-        <v>-471.4035237030837</v>
+        <v>-147.0911144125547</v>
       </c>
       <c r="FL2" t="n">
-        <v>-471.3386974637526</v>
+        <v>-146.8388503088151</v>
       </c>
       <c r="FM2" t="n">
-        <v>-471.2504922534708</v>
+        <v>-146.5885451237764</v>
       </c>
       <c r="FN2" t="n">
-        <v>-471.4452843150697</v>
+        <v>-146.4330862113138</v>
       </c>
       <c r="FO2" t="n">
-        <v>-471.677466714397</v>
+        <v>-146.5409610340359</v>
       </c>
       <c r="FP2" t="n">
-        <v>-471.5255628661952</v>
+        <v>-146.3223386062376</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-471.4124424268017</v>
+        <v>-146.0828892741877</v>
       </c>
       <c r="FR2" t="n">
-        <v>-471.3919464901875</v>
+        <v>-145.9074987045864</v>
       </c>
       <c r="FS2" t="n">
-        <v>-471.1415758134373</v>
+        <v>-146.01301181397</v>
       </c>
       <c r="FT2" t="n">
-        <v>-471.0446029156622</v>
+        <v>-145.7701933347059</v>
       </c>
       <c r="FU2" t="n">
-        <v>-470.8257512210898</v>
+        <v>-145.537437152005</v>
       </c>
       <c r="FV2" t="n">
-        <v>-470.7468764383937</v>
+        <v>-145.6237119311721</v>
       </c>
       <c r="FW2" t="n">
-        <v>-470.5907710320971</v>
+        <v>-145.4262913031002</v>
       </c>
       <c r="FX2" t="n">
-        <v>-470.6535359106886</v>
+        <v>-145.2207862327984</v>
       </c>
       <c r="FY2" t="n">
-        <v>-469.2930923790465</v>
+        <v>-145.0577597481207</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-469.1721607062784</v>
+        <v>-145.1256710937089</v>
       </c>
       <c r="GA2" t="n">
-        <v>-469.362291210577</v>
+        <v>-145.0430604751967</v>
       </c>
       <c r="GB2" t="n">
-        <v>-468.4262669035713</v>
+        <v>-144.9209923853758</v>
       </c>
       <c r="GC2" t="n">
-        <v>-468.4697629735303</v>
+        <v>-144.8079451129422</v>
       </c>
       <c r="GD2" t="n">
-        <v>-467.6411182364873</v>
+        <v>-144.7916285931361</v>
       </c>
       <c r="GE2" t="n">
-        <v>-466.5084174906464</v>
+        <v>-144.7504146451505</v>
       </c>
       <c r="GF2" t="n">
-        <v>-465.5127093081807</v>
+        <v>-144.7086473602433</v>
       </c>
       <c r="GG2" t="n">
-        <v>-464.5192894272764</v>
+        <v>-144.6186110511305</v>
       </c>
       <c r="GH2" t="n">
-        <v>-464.9793450417293</v>
+        <v>-144.7127042872433</v>
       </c>
       <c r="GI2" t="n">
-        <v>-465.4320311507675</v>
+        <v>-144.5813610451726</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-464.4891466275059</v>
+        <v>-144.5320828952274</v>
       </c>
       <c r="GK2" t="n">
-        <v>-465.0790685843348</v>
+        <v>-144.4365873332762</v>
       </c>
       <c r="GL2" t="n">
-        <v>-465.4192598629214</v>
+        <v>-144.5589504897992</v>
       </c>
       <c r="GM2" t="n">
-        <v>-465.8561679523189</v>
+        <v>-144.4538896874917</v>
       </c>
       <c r="GN2" t="n">
-        <v>-464.9996621089479</v>
+        <v>-144.3716606754608</v>
       </c>
       <c r="GO2" t="n">
-        <v>-465.4766097160286</v>
+        <v>-144.3178077831868</v>
       </c>
       <c r="GP2" t="n">
-        <v>-466.059580239553</v>
+        <v>-144.3521750195235</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-466.4794897015917</v>
+        <v>-144.3677458624011</v>
       </c>
       <c r="GR2" t="n">
-        <v>-465.541412595965</v>
+        <v>-144.3172382183222</v>
       </c>
       <c r="GS2" t="n">
-        <v>-464.6020293903768</v>
+        <v>-144.4654562473179</v>
       </c>
       <c r="GT2" t="n">
-        <v>-464.8590107000949</v>
+        <v>-144.3988880416014</v>
       </c>
       <c r="GU2" t="n">
-        <v>-464.2610614385711</v>
+        <v>-144.6268224674581</v>
       </c>
       <c r="GV2" t="n">
-        <v>-464.6790897328013</v>
+        <v>-144.5786853657218</v>
       </c>
       <c r="GW2" t="n">
-        <v>-464.9761486021179</v>
+        <v>-144.4767870369141</v>
       </c>
       <c r="GX2" t="n">
-        <v>-465.41748834455</v>
+        <v>-144.4226665728205</v>
       </c>
       <c r="GY2" t="n">
-        <v>-465.8602973272459</v>
+        <v>-144.4387689711218</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-465.2926200819604</v>
+        <v>-144.6490464096598</v>
       </c>
       <c r="HA2" t="n">
-        <v>-464.5508559673332</v>
+        <v>-144.6922457295882</v>
       </c>
       <c r="HB2" t="n">
-        <v>-465.0472461805859</v>
+        <v>-145.0362312593859</v>
       </c>
       <c r="HC2" t="n">
-        <v>-465.576671952398</v>
+        <v>-144.9389564458073</v>
       </c>
       <c r="HD2" t="n">
-        <v>-465.115785868747</v>
+        <v>-144.9877671840865</v>
       </c>
       <c r="HE2" t="n">
-        <v>-464.5817362968312</v>
+        <v>-145.0211151794801</v>
       </c>
       <c r="HF2" t="n">
-        <v>-465.0446128741881</v>
+        <v>-144.9319994138721</v>
       </c>
       <c r="HG2" t="n">
-        <v>-464.5091323655964</v>
+        <v>-144.9778070363549</v>
       </c>
       <c r="HH2" t="n">
-        <v>-463.757146882936</v>
+        <v>-145.0096585438722</v>
       </c>
       <c r="HI2" t="n">
-        <v>-463.3003259169997</v>
+        <v>-145.3006898984186</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-462.5494536057468</v>
+        <v>-145.2276292470793</v>
       </c>
       <c r="HK2" t="n">
-        <v>-461.9163248537001</v>
+        <v>-145.1685274006139</v>
       </c>
       <c r="HL2" t="n">
-        <v>-462.5804393022332</v>
+        <v>-145.0861494685005</v>
       </c>
       <c r="HM2" t="n">
-        <v>-463.390193534801</v>
+        <v>-145.3767776291984</v>
       </c>
       <c r="HN2" t="n">
-        <v>-463.0063473762845</v>
+        <v>-145.2943144458362</v>
       </c>
       <c r="HO2" t="n">
-        <v>-462.6547039479186</v>
+        <v>-145.2238493702561</v>
       </c>
       <c r="HP2" t="n">
-        <v>-463.3272037686895</v>
+        <v>-145.144541338683</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-463.0650412106304</v>
+        <v>-145.0565017213164</v>
       </c>
       <c r="HR2" t="n">
-        <v>-462.7247272158377</v>
+        <v>-144.9723563923102</v>
       </c>
       <c r="HS2" t="n">
-        <v>-463.4916090384951</v>
+        <v>-144.9006949736986</v>
       </c>
       <c r="HT2" t="n">
-        <v>-464.2748066815093</v>
+        <v>-144.9533087455954</v>
       </c>
       <c r="HU2" t="n">
-        <v>-464.6922381022729</v>
+        <v>-145.2539266663349</v>
       </c>
       <c r="HV2" t="n">
-        <v>-465.1244357979318</v>
+        <v>-145.2974453007537</v>
       </c>
       <c r="HW2" t="n">
-        <v>-464.3623165451862</v>
+        <v>-145.2755866222064</v>
       </c>
       <c r="HX2" t="n">
-        <v>-463.9307397305487</v>
+        <v>-145.3280447605392</v>
       </c>
       <c r="HY2" t="n">
-        <v>-463.5238040535215</v>
+        <v>-145.2431632711829</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-463.2143386700095</v>
+        <v>-145.1616503824202</v>
       </c>
       <c r="IA2" t="n">
-        <v>-462.8402499224661</v>
+        <v>-145.2176382289245</v>
       </c>
       <c r="IB2" t="n">
-        <v>-462.5944930746139</v>
+        <v>-145.1455407153371</v>
       </c>
       <c r="IC2" t="n">
-        <v>-462.3208951202287</v>
+        <v>-145.2404844926565</v>
       </c>
       <c r="ID2" t="n">
-        <v>-462.0467477839835</v>
+        <v>-145.2181306164632</v>
       </c>
       <c r="IE2" t="n">
-        <v>-462.8144138702089</v>
+        <v>-145.2869490237103</v>
       </c>
       <c r="IF2" t="n">
-        <v>-462.4487592515803</v>
+        <v>-145.2021835996758</v>
       </c>
       <c r="IG2" t="n">
-        <v>-462.1375956166302</v>
+        <v>-145.1207544673341</v>
       </c>
       <c r="IH2" t="n">
-        <v>-463.1370751254032</v>
+        <v>-145.1593309699344</v>
       </c>
       <c r="II2" t="n">
-        <v>-462.7352154279904</v>
+        <v>-145.1661414935069</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-462.1672128420153</v>
+        <v>-145.4391209657767</v>
       </c>
       <c r="IK2" t="n">
-        <v>-461.9765568044629</v>
+        <v>-145.3409254646</v>
       </c>
       <c r="IL2" t="n">
-        <v>-461.6522727464455</v>
+        <v>-145.368606186128</v>
       </c>
       <c r="IM2" t="n">
-        <v>-461.4400804411622</v>
+        <v>-145.3859439487627</v>
       </c>
       <c r="IN2" t="n">
-        <v>-462.2685829156073</v>
+        <v>-145.3043241759373</v>
       </c>
       <c r="IO2" t="n">
-        <v>-461.245096135144</v>
+        <v>-145.2257417558801</v>
       </c>
       <c r="IP2" t="n">
-        <v>-462.7505112515831</v>
+        <v>-145.1340048588989</v>
       </c>
       <c r="IQ2" t="n">
-        <v>-463.2710758050977</v>
+        <v>-145.173469953294</v>
       </c>
       <c r="IR2" t="n">
-        <v>-463.751322399181</v>
+        <v>-145.2514975927368</v>
       </c>
       <c r="IS2" t="n">
-        <v>-464.5101792918821</v>
+        <v>-145.1631479062846</v>
       </c>
       <c r="IT2" t="n">
-        <v>-463.4378956447513</v>
+        <v>-145.1095983765382</v>
       </c>
       <c r="IU2" t="n">
-        <v>-463.4348507988349</v>
+        <v>-145.2677940732612</v>
       </c>
       <c r="IV2" t="n">
-        <v>-465.0144351982253</v>
+        <v>-145.2027114249773</v>
       </c>
       <c r="IW2" t="n">
-        <v>-465.2380263222727</v>
+        <v>-145.1142929132154</v>
       </c>
       <c r="IX2" t="n">
-        <v>-467.8968716040053</v>
+        <v>-145.1829396786316</v>
       </c>
       <c r="IY2" t="n">
-        <v>-469.1547029440903</v>
+        <v>-145.1248486410126</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-466.9698887449306</v>
+        <v>-145.069102075601</v>
       </c>
       <c r="JA2" t="n">
-        <v>-467.8103691568353</v>
+        <v>-145.1376477590127</v>
       </c>
       <c r="JB2" t="n">
-        <v>-468.6615971027035</v>
+        <v>-145.3977374667258</v>
       </c>
       <c r="JC2" t="n">
-        <v>-473.8607663540461</v>
+        <v>-145.452722058984</v>
       </c>
       <c r="JD2" t="n">
-        <v>-476.0518113838829</v>
+        <v>-145.5047981025095</v>
       </c>
       <c r="JE2" t="n">
-        <v>-481.2852530612326</v>
+        <v>-145.547986977625</v>
       </c>
       <c r="JF2" t="n">
-        <v>-483.030477093598</v>
+        <v>-145.9224835045358</v>
       </c>
       <c r="JG2" t="n">
-        <v>-484.2446360892644</v>
+        <v>-145.9183524266749</v>
       </c>
       <c r="JH2" t="n">
-        <v>-489.6416654276456</v>
+        <v>-145.8221954392901</v>
       </c>
       <c r="JI2" t="n">
-        <v>-493.2981442862969</v>
+        <v>-145.7304622623871</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-499.837019246019</v>
+        <v>-146.0216118290694</v>
       </c>
       <c r="JK2" t="n">
-        <v>-501.0977733619772</v>
+        <v>-145.9193251752515</v>
       </c>
       <c r="JL2" t="n">
-        <v>-508.2573665565692</v>
+        <v>-145.9280345056584</v>
       </c>
       <c r="JM2" t="n">
-        <v>-512.1559718575296</v>
+        <v>-145.8236417713369</v>
       </c>
       <c r="JN2" t="n">
-        <v>-510.308959315505</v>
+        <v>-145.8771499976708</v>
       </c>
       <c r="JO2" t="n">
-        <v>-509.4599564427055</v>
+        <v>-145.7666637317661</v>
       </c>
       <c r="JP2" t="n">
-        <v>-510.8710797986774</v>
+        <v>-145.716311913405</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-510.9748960383836</v>
+        <v>-145.6272493454298</v>
       </c>
       <c r="JR2" t="n">
-        <v>-512.807610367875</v>
+        <v>-145.5405698774538</v>
       </c>
       <c r="JS2" t="n">
-        <v>-501.3150087172026</v>
+        <v>-145.5391202288889</v>
       </c>
       <c r="JT2" t="n">
-        <v>-499.7377746508234</v>
+        <v>-145.4348410328367</v>
       </c>
       <c r="JU2" t="n">
-        <v>-498.0333660612367</v>
+        <v>-145.4685298021889</v>
       </c>
       <c r="JV2" t="n">
-        <v>-497.6120212815729</v>
+        <v>-145.4158259678351</v>
       </c>
       <c r="JW2" t="n">
-        <v>-504.0426534848763</v>
+        <v>-145.3152957665854</v>
       </c>
       <c r="JX2" t="n">
-        <v>-506.0001971905846</v>
+        <v>-145.2266533006032</v>
       </c>
       <c r="JY2" t="n">
-        <v>-509.2469154390454</v>
+        <v>-145.1388767130117</v>
       </c>
       <c r="JZ2" t="n">
-        <v>-529.2613695393569</v>
+        <v>-145.2523785486208</v>
       </c>
       <c r="KA2" t="n">
-        <v>-527.7643218099711</v>
+        <v>-145.1655781108063</v>
       </c>
       <c r="KB2" t="n">
-        <v>-526.8046836072346</v>
+        <v>-145.0759982013183</v>
       </c>
       <c r="KC2" t="n">
-        <v>-525.5009960750531</v>
+        <v>-145.1518742373855</v>
       </c>
       <c r="KD2" t="n">
-        <v>-522.8955828603752</v>
+        <v>-145.1746055239477</v>
       </c>
       <c r="KE2" t="n">
-        <v>-521.4502577992024</v>
+        <v>-145.3900828669249</v>
       </c>
       <c r="KF2" t="n">
-        <v>-518.7904470697677</v>
+        <v>-145.3366631192929</v>
       </c>
       <c r="KG2" t="n">
-        <v>-516.5096287793025</v>
+        <v>-145.2526287598717</v>
       </c>
       <c r="KH2" t="n">
-        <v>-512.7541938916798</v>
+        <v>-145.1481426291962</v>
       </c>
       <c r="KI2" t="n">
-        <v>-508.7609833626504</v>
+        <v>-145.1452588494135</v>
       </c>
       <c r="KJ2" t="n">
-        <v>-508.230767240537</v>
+        <v>-145.1449502189041</v>
       </c>
       <c r="KK2" t="n">
-        <v>-507.1844817681642</v>
+        <v>-145.1671583047212</v>
       </c>
       <c r="KL2" t="n">
-        <v>-507.1568261834533</v>
+        <v>-145.1593216779023</v>
       </c>
       <c r="KM2" t="n">
-        <v>-504.6856301329371</v>
+        <v>-145.192074239464</v>
       </c>
       <c r="KN2" t="n">
-        <v>-503.3672815791275</v>
+        <v>-145.2238822522244</v>
       </c>
       <c r="KO2" t="n">
-        <v>-502.7290998899762</v>
+        <v>-145.2424663335364</v>
       </c>
       <c r="KP2" t="n">
-        <v>-500.8769577835772</v>
+        <v>-145.1355299414178</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-500.9781566633202</v>
+        <v>-147.5540697076218</v>
       </c>
       <c r="KR2" t="n">
-        <v>-500.661929202214</v>
+        <v>-147.3734133441478</v>
       </c>
       <c r="KS2" t="n">
-        <v>-498.4767276388917</v>
+        <v>-147.2171067609491</v>
       </c>
       <c r="KT2" t="n">
-        <v>-497.0836783037282</v>
+        <v>-147.0569392446809</v>
       </c>
       <c r="KU2" t="n">
-        <v>-497.2769878006701</v>
+        <v>-147.0353371273576</v>
       </c>
       <c r="KV2" t="n">
-        <v>-497.1073044095983</v>
+        <v>-146.9132822206439</v>
       </c>
       <c r="KW2" t="n">
-        <v>-501.3395052894286</v>
+        <v>-146.7643137969568</v>
       </c>
       <c r="KX2" t="n">
-        <v>-502.3666412581925</v>
+        <v>-146.7368227675796</v>
       </c>
       <c r="KY2" t="n">
-        <v>-505.4338818401062</v>
+        <v>-146.7007621386496</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-501.3471164471048</v>
+        <v>-146.9079111529097</v>
       </c>
       <c r="LA2" t="n">
-        <v>-500.4240736323501</v>
+        <v>-146.8380338992386</v>
       </c>
       <c r="LB2" t="n">
-        <v>-502.1275500382627</v>
+        <v>-146.8355194073715</v>
       </c>
       <c r="LC2" t="n">
-        <v>-501.7268995792816</v>
+        <v>-146.8167789736258</v>
       </c>
       <c r="LD2" t="n">
-        <v>-496.1551300501815</v>
+        <v>-146.7975328811227</v>
       </c>
       <c r="LE2" t="n">
-        <v>-478.9126846860024</v>
+        <v>-146.7605613038281</v>
       </c>
       <c r="LF2" t="n">
-        <v>-470.1175258667418</v>
+        <v>-146.6047688155002</v>
       </c>
       <c r="LG2" t="n">
-        <v>-451.2530183111819</v>
+        <v>-146.6101410321022</v>
       </c>
       <c r="LH2" t="n">
-        <v>-438.1098657025171</v>
+        <v>-146.4524211642463</v>
       </c>
       <c r="LI2" t="n">
-        <v>-420.5721824802996</v>
+        <v>-146.4019484719685</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-413.2476139561011</v>
+        <v>-146.2543730002313</v>
       </c>
       <c r="LK2" t="n">
-        <v>-411.1197311098942</v>
+        <v>-148.864016082113</v>
       </c>
       <c r="LL2" t="n">
-        <v>-417.0541164217395</v>
+        <v>-148.6216482104124</v>
       </c>
       <c r="LM2" t="n">
-        <v>-414.7969513892759</v>
+        <v>-148.4874857340622</v>
       </c>
       <c r="LN2" t="n">
-        <v>-422.288779083744</v>
+        <v>-148.3552054211792</v>
       </c>
       <c r="LO2" t="n">
-        <v>-424.4940280602372</v>
+        <v>-148.1054361718643</v>
       </c>
       <c r="LP2" t="n">
-        <v>-427.1629288287403</v>
+        <v>-147.8607482577443</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-433.9227014963373</v>
+        <v>-147.7516969091113</v>
       </c>
       <c r="LR2" t="n">
-        <v>-436.7542576463994</v>
+        <v>-147.8437497463222</v>
       </c>
       <c r="LS2" t="n">
-        <v>-439.2747158002085</v>
+        <v>-147.7510072600207</v>
       </c>
       <c r="LT2" t="n">
-        <v>-440.9888197284861</v>
+        <v>-147.9283771503646</v>
       </c>
       <c r="LU2" t="n">
-        <v>-444.9304486950358</v>
+        <v>-147.6852701817979</v>
       </c>
       <c r="LV2" t="n">
-        <v>-443.7810563038245</v>
+        <v>-147.5886869848937</v>
       </c>
       <c r="LW2" t="n">
-        <v>-446.867621984529</v>
+        <v>-147.6987726614772</v>
       </c>
       <c r="LX2" t="n">
-        <v>-450.7748869649297</v>
+        <v>-147.4854424473769</v>
       </c>
       <c r="LY2" t="n">
-        <v>-465.3911326430281</v>
+        <v>-147.2827003436897</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-470.7310373794683</v>
+        <v>-147.3314575018171</v>
       </c>
       <c r="MA2" t="n">
-        <v>-475.8939973693163</v>
+        <v>-147.2006994816714</v>
       </c>
       <c r="MB2" t="n">
-        <v>-477.4472260441234</v>
+        <v>-147.1094483562991</v>
       </c>
       <c r="MC2" t="n">
-        <v>-477.2192305124717</v>
+        <v>-147.0248051945408</v>
       </c>
       <c r="MD2" t="n">
-        <v>-478.280160494383</v>
+        <v>-146.9375317195734</v>
       </c>
       <c r="ME2" t="n">
-        <v>-482.6659227269095</v>
+        <v>-147.0862115998731</v>
       </c>
       <c r="MF2" t="n">
-        <v>-487.2094900262491</v>
+        <v>-146.8741879442566</v>
       </c>
       <c r="MG2" t="n">
-        <v>-494.0084673866132</v>
+        <v>-146.7918157428424</v>
       </c>
       <c r="MH2" t="n">
-        <v>-498.95725130122</v>
+        <v>-146.7153663525492</v>
       </c>
       <c r="MI2" t="n">
-        <v>-499.1187238130369</v>
+        <v>-146.5180736310027</v>
       </c>
       <c r="MJ2" t="n">
-        <v>-499.4279337742498</v>
+        <v>-146.6704744900511</v>
       </c>
       <c r="MK2" t="n">
-        <v>-501.0618862360568</v>
+        <v>-146.5013267553677</v>
       </c>
       <c r="ML2" t="n">
-        <v>-500.8172490602861</v>
+        <v>-146.4135978021067</v>
       </c>
       <c r="MM2" t="n">
-        <v>-502.8447123408117</v>
+        <v>-146.5401683211441</v>
       </c>
       <c r="MN2" t="n">
-        <v>-503.8441353098542</v>
+        <v>-146.3285843460274</v>
       </c>
       <c r="MO2" t="n">
-        <v>-437.7139073331928</v>
+        <v>-146.1601196278483</v>
       </c>
       <c r="MP2" t="n">
-        <v>-443.8890044125514</v>
+        <v>-145.9884799771516</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-443.7758964911346</v>
+        <v>-145.9895190002863</v>
       </c>
       <c r="MR2" t="n">
-        <v>-444.1606929528186</v>
+        <v>-145.9161742418678</v>
       </c>
       <c r="MS2" t="n">
-        <v>-448.8845397318461</v>
+        <v>-145.7458627349915</v>
       </c>
       <c r="MT2" t="n">
-        <v>-450.8131477003525</v>
+        <v>-145.7528360529399</v>
       </c>
       <c r="MU2" t="n">
-        <v>-456.9400700755015</v>
+        <v>-145.611675945956</v>
       </c>
       <c r="MV2" t="n">
-        <v>-461.0817952532316</v>
+        <v>-145.5162544957511</v>
       </c>
       <c r="MW2" t="n">
-        <v>-471.8450251530806</v>
+        <v>-145.3865852537081</v>
       </c>
       <c r="MX2" t="n">
-        <v>-476.1489639679154</v>
+        <v>-145.4616285143241</v>
       </c>
       <c r="MY2" t="n">
-        <v>-484.5516271322199</v>
+        <v>-145.3402103956711</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-487.599410347909</v>
+        <v>-145.2270187476926</v>
       </c>
       <c r="NA2" t="n">
-        <v>-488.9060934506795</v>
+        <v>-145.3387846597339</v>
       </c>
       <c r="NB2" t="n">
-        <v>-489.5569591269071</v>
+        <v>-145.2046993263447</v>
       </c>
       <c r="NC2" t="n">
-        <v>-489.0435128962894</v>
+        <v>-145.1876394935939</v>
       </c>
       <c r="ND2" t="n">
-        <v>-489.2793494677529</v>
+        <v>-145.569787050979</v>
       </c>
       <c r="NE2" t="n">
-        <v>-492.3079262274662</v>
+        <v>-145.5348134520208</v>
       </c>
       <c r="NF2" t="n">
-        <v>-493.214342022589</v>
+        <v>-145.4070799100971</v>
       </c>
       <c r="NG2" t="n">
-        <v>-496.477514070659</v>
+        <v>-145.3934858169425</v>
       </c>
       <c r="NH2" t="n">
-        <v>-496.2050681202691</v>
+        <v>-145.5767853538065</v>
       </c>
       <c r="NI2" t="n">
-        <v>-496.6616973782162</v>
+        <v>-145.4462077649857</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-498.5188838985368</v>
+        <v>-145.44342069757</v>
       </c>
       <c r="NK2" t="n">
-        <v>-499.2315877511641</v>
+        <v>-145.6428082852884</v>
       </c>
       <c r="NL2" t="n">
-        <v>-499.7660092854683</v>
+        <v>-145.6393115859566</v>
       </c>
       <c r="NM2" t="n">
-        <v>-503.7064447408007</v>
+        <v>-145.5374555908258</v>
       </c>
       <c r="NN2" t="n">
-        <v>-513.8710433093789</v>
+        <v>-145.7792742749548</v>
       </c>
       <c r="NO2" t="n">
-        <v>-520.0367782974528</v>
+        <v>-145.7740944675955</v>
       </c>
       <c r="NP2" t="n">
-        <v>-523.790412682891</v>
+        <v>-145.6279059353784</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-523.2031691869051</v>
+        <v>-145.6611390954637</v>
       </c>
       <c r="NR2" t="n">
-        <v>-519.1849218478541</v>
+        <v>-145.5496398123892</v>
       </c>
       <c r="NS2" t="n">
-        <v>-515.6840643987063</v>
+        <v>-145.4130971787965</v>
       </c>
       <c r="NT2" t="n">
-        <v>-511.3692896980057</v>
+        <v>-145.4080829105885</v>
       </c>
       <c r="NU2" t="n">
-        <v>-506.842438654181</v>
+        <v>-145.6088396666114</v>
       </c>
       <c r="NV2" t="n">
-        <v>-504.7878093987543</v>
+        <v>-145.510431029166</v>
       </c>
       <c r="NW2" t="n">
-        <v>-502.7381649243841</v>
+        <v>-145.3893486121245</v>
       </c>
       <c r="NX2" t="n">
-        <v>-500.683277537181</v>
+        <v>-145.4188352351495</v>
       </c>
       <c r="NY2" t="n">
-        <v>-503.5241287111191</v>
+        <v>-145.2974991448972</v>
       </c>
       <c r="NZ2" t="n">
-        <v>-499.4124056285947</v>
+        <v>-145.2340802309203</v>
       </c>
       <c r="OA2" t="n">
-        <v>-500.0738776575561</v>
+        <v>-145.3838890309926</v>
       </c>
       <c r="OB2" t="n">
-        <v>-497.999714347781</v>
+        <v>-145.3106979590763</v>
       </c>
       <c r="OC2" t="n">
-        <v>-494.8984692470305</v>
+        <v>-145.4181636755188</v>
       </c>
       <c r="OD2" t="n">
-        <v>-493.7764822209954</v>
+        <v>-145.5384826451033</v>
       </c>
       <c r="OE2" t="n">
-        <v>-491.0426918146626</v>
+        <v>-145.4168661683412</v>
       </c>
       <c r="OF2" t="n">
-        <v>-492.2351328924981</v>
+        <v>-145.3293199569248</v>
       </c>
       <c r="OG2" t="n">
-        <v>-494.4537930525306</v>
+        <v>-145.2345937357608</v>
       </c>
       <c r="OH2" t="n">
-        <v>-498.7705041546013</v>
+        <v>-145.1439388382471</v>
       </c>
       <c r="OI2" t="n">
-        <v>-502.9857126761063</v>
+        <v>-145.0706238520302</v>
       </c>
       <c r="OJ2" t="n">
-        <v>-502.8400216945967</v>
+        <v>-145.0822938354451</v>
       </c>
       <c r="OK2" t="n">
-        <v>-502.8997632301611</v>
+        <v>-147.5388104689679</v>
       </c>
       <c r="OL2" t="n">
-        <v>-501.7708873191536</v>
+        <v>-147.5049086942162</v>
       </c>
       <c r="OM2" t="n">
-        <v>-499.8145202492729</v>
+        <v>-147.6730626241958</v>
       </c>
       <c r="ON2" t="n">
-        <v>-496.3100242035616</v>
+        <v>-147.5208825297389</v>
       </c>
       <c r="OO2" t="n">
-        <v>-494.9206322511179</v>
+        <v>-147.3748844657068</v>
       </c>
       <c r="OP2" t="n">
-        <v>-491.0257330930735</v>
+        <v>-147.2070556891631</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-486.4361793259627</v>
+        <v>-147.4942731432557</v>
       </c>
       <c r="OR2" t="n">
-        <v>-484.5317986289846</v>
+        <v>-147.4003970501535</v>
       </c>
       <c r="OS2" t="n">
-        <v>-484.4505010360873</v>
+        <v>-147.3266180325269</v>
       </c>
       <c r="OT2" t="n">
-        <v>-485.9722082654617</v>
+        <v>-147.5060394513046</v>
       </c>
       <c r="OU2" t="n">
-        <v>-485.9143717382094</v>
+        <v>-147.3131231725034</v>
       </c>
       <c r="OV2" t="n">
-        <v>-488.2957301785291</v>
+        <v>-147.2583987712985</v>
       </c>
       <c r="OW2" t="n">
-        <v>-488.4601665237234</v>
+        <v>-147.2043017355751</v>
       </c>
       <c r="OX2" t="n">
-        <v>-489.641321154299</v>
+        <v>-147.1131961426969</v>
       </c>
       <c r="OY2" t="n">
-        <v>-489.5471883177275</v>
+        <v>-147.2582612694037</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-489.2620530796416</v>
+        <v>-147.0642002324804</v>
       </c>
       <c r="PA2" t="n">
-        <v>-488.1282056716092</v>
+        <v>-146.9748558105364</v>
       </c>
       <c r="PB2" t="n">
-        <v>-489.2863492635286</v>
+        <v>-146.8870306890986</v>
       </c>
       <c r="PC2" t="n">
-        <v>-490.3529185222649</v>
+        <v>-149.2437160953307</v>
       </c>
       <c r="PD2" t="n">
-        <v>-491.1816533026907</v>
+        <v>-148.997929830114</v>
       </c>
       <c r="PE2" t="n">
-        <v>-491.3824001012092</v>
+        <v>-148.7494571065369</v>
       </c>
       <c r="PF2" t="n">
-        <v>-492.9227235731569</v>
+        <v>-151.0399839174092</v>
       </c>
       <c r="PG2" t="n">
-        <v>-492.2206467102341</v>
+        <v>-150.7851003237134</v>
       </c>
       <c r="PH2" t="n">
-        <v>-490.9546644502565</v>
+        <v>-150.4209909289107</v>
       </c>
       <c r="PI2" t="n">
-        <v>-490.5340274912742</v>
+        <v>-150.0654190782603</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-489.5198278929741</v>
+        <v>-149.8503793205498</v>
       </c>
       <c r="PK2" t="n">
-        <v>-489.2464468727847</v>
+        <v>-149.9115876014644</v>
       </c>
       <c r="PL2" t="n">
-        <v>-488.9839354753776</v>
+        <v>-149.6160642909321</v>
       </c>
       <c r="PM2" t="n">
-        <v>-488.7987203827803</v>
+        <v>-149.2709125860735</v>
       </c>
       <c r="PN2" t="n">
-        <v>-487.9217171050599</v>
+        <v>-148.9358344562763</v>
       </c>
       <c r="PO2" t="n">
-        <v>-487.1529766698168</v>
+        <v>-148.6311699227403</v>
       </c>
       <c r="PP2" t="n">
-        <v>-486.9691429646012</v>
+        <v>-148.4632582563972</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-486.7851561829726</v>
+        <v>-148.1674385772216</v>
       </c>
       <c r="PR2" t="n">
-        <v>-486.5449651352304</v>
+        <v>-148.0405227190321</v>
       </c>
       <c r="PS2" t="n">
-        <v>-485.8431488455734</v>
+        <v>-148.1462532058527</v>
       </c>
       <c r="PT2" t="n">
-        <v>-485.7016146304429</v>
+        <v>-147.9783523103</v>
       </c>
       <c r="PU2" t="n">
-        <v>-485.7849783530718</v>
+        <v>-147.7488010578345</v>
       </c>
       <c r="PV2" t="n">
-        <v>-485.2661857224724</v>
+        <v>-150.0038599180076</v>
       </c>
       <c r="PW2" t="n">
-        <v>-484.6795220020616</v>
+        <v>-149.6411344641529</v>
       </c>
       <c r="PX2" t="n">
-        <v>-484.093827346623</v>
+        <v>-149.2857024294206</v>
       </c>
       <c r="PY2" t="n">
-        <v>-483.7096584110997</v>
+        <v>-149.1596658543434</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-483.3248543087916</v>
+        <v>-148.9869719920125</v>
       </c>
       <c r="QA2" t="n">
-        <v>-483.5001827825961</v>
+        <v>-148.7963031501866</v>
       </c>
       <c r="QB2" t="n">
-        <v>-483.0638132057808</v>
+        <v>-148.4678799937134</v>
       </c>
       <c r="QC2" t="n">
-        <v>-483.2202223139273</v>
+        <v>-148.368317761709</v>
       </c>
       <c r="QD2" t="n">
-        <v>-483.4393757534337</v>
+        <v>-148.1993016449536</v>
       </c>
       <c r="QE2" t="n">
-        <v>-483.1046901938676</v>
+        <v>-148.0168106740816</v>
       </c>
       <c r="QF2" t="n">
-        <v>-483.222568959239</v>
+        <v>-147.8409915325613</v>
       </c>
       <c r="QG2" t="n">
-        <v>-482.8444837730823</v>
+        <v>-147.57072437341</v>
       </c>
       <c r="QH2" t="n">
-        <v>-483.2105875174117</v>
+        <v>-147.3054675591699</v>
       </c>
       <c r="QI2" t="n">
-        <v>-483.5242930729997</v>
+        <v>-149.5889122183121</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-483.7880269618455</v>
+        <v>-149.3386444815743</v>
       </c>
       <c r="QK2" t="n">
-        <v>-483.9933808368172</v>
+        <v>-149.0047513599283</v>
       </c>
       <c r="QL2" t="n">
-        <v>-483.6918210481286</v>
+        <v>-148.8715902961943</v>
       </c>
       <c r="QM2" t="n">
-        <v>-483.3995397162008</v>
+        <v>-148.6664021701452</v>
       </c>
       <c r="QN2" t="n">
-        <v>-483.8299413121321</v>
+        <v>-148.5055637004259</v>
       </c>
       <c r="QO2" t="n">
-        <v>-484.4223732998557</v>
+        <v>-148.3260548300197</v>
       </c>
       <c r="QP2" t="n">
-        <v>-484.1010643395757</v>
+        <v>-150.5634699928654</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-483.8434498577636</v>
+        <v>-150.2979424572302</v>
       </c>
       <c r="QR2" t="n">
-        <v>-484.2364990251406</v>
+        <v>-150.0150552001313</v>
       </c>
       <c r="QS2" t="n">
-        <v>-483.9922709134623</v>
+        <v>-152.1863376987993</v>
       </c>
       <c r="QT2" t="n">
-        <v>-483.3619913023392</v>
+        <v>-151.8071971434438</v>
       </c>
       <c r="QU2" t="n">
-        <v>-483.7527196720118</v>
+        <v>-151.7013963923384</v>
       </c>
       <c r="QV2" t="n">
-        <v>-484.0392842285744</v>
+        <v>-151.2425096892765</v>
       </c>
       <c r="QW2" t="n">
-        <v>-484.4243565841298</v>
+        <v>-151.0125558031138</v>
       </c>
       <c r="QX2" t="n">
-        <v>-484.6684932421942</v>
+        <v>-150.6058999563682</v>
       </c>
       <c r="QY2" t="n">
-        <v>-484.0485282028719</v>
+        <v>-152.8110027377</v>
       </c>
       <c r="QZ2" t="n">
-        <v>-484.3820332999987</v>
+        <v>-152.3195493552852</v>
       </c>
       <c r="RA2" t="n">
-        <v>-484.5894817777188</v>
+        <v>-151.8550659349164</v>
       </c>
       <c r="RB2" t="n">
-        <v>-484.2965998801732</v>
+        <v>-151.6217711941474</v>
       </c>
       <c r="RC2" t="n">
-        <v>-484.0212187869685</v>
+        <v>-151.1928798478767</v>
       </c>
       <c r="RD2" t="n">
-        <v>-483.7857335907962</v>
+        <v>-150.8321708308228</v>
       </c>
       <c r="RE2" t="n">
-        <v>-483.5071519069363</v>
+        <v>-150.3879832174851</v>
       </c>
       <c r="RF2" t="n">
-        <v>-483.3172114020743</v>
+        <v>-150.1788305821303</v>
       </c>
       <c r="RG2" t="n">
-        <v>-483.7431086096713</v>
+        <v>-149.7481297299704</v>
       </c>
       <c r="RH2" t="n">
-        <v>-483.4790622543732</v>
+        <v>-149.4071061992987</v>
       </c>
       <c r="RI2" t="n">
-        <v>-483.6694836110253</v>
+        <v>-149.0786553942783</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-484.0248509639044</v>
+        <v>-148.8287154513049</v>
       </c>
       <c r="RK2" t="n">
-        <v>-484.2821917574777</v>
+        <v>-148.4611119589267</v>
       </c>
       <c r="RL2" t="n">
-        <v>-484.1158296996894</v>
+        <v>-148.3421292784896</v>
       </c>
       <c r="RM2" t="n">
-        <v>-483.8400448410462</v>
+        <v>-147.9839347756429</v>
       </c>
       <c r="RN2" t="n">
-        <v>-483.6814902240593</v>
+        <v>-147.6403147055278</v>
       </c>
       <c r="RO2" t="n">
-        <v>-483.5318649170113</v>
+        <v>-147.4107264642166</v>
       </c>
       <c r="RP2" t="n">
-        <v>-483.9049626058989</v>
+        <v>-149.5793585854929</v>
       </c>
       <c r="RQ2" t="n">
-        <v>-483.7105822938729</v>
+        <v>-149.1812567560268</v>
       </c>
       <c r="RR2" t="n">
-        <v>-483.084380656926</v>
+        <v>-148.7873650488147</v>
       </c>
       <c r="RS2" t="n">
-        <v>-482.8983380666779</v>
+        <v>-148.5613874639782</v>
       </c>
       <c r="RT2" t="n">
-        <v>-482.7689088078856</v>
+        <v>-148.3092611601585</v>
       </c>
       <c r="RU2" t="n">
-        <v>-482.5997128178117</v>
+        <v>-147.9834217589205</v>
       </c>
       <c r="RV2" t="n">
-        <v>-482.4617940335887</v>
+        <v>-150.18763784839</v>
       </c>
       <c r="RW2" t="n">
-        <v>-482.9150801588345</v>
+        <v>-149.8103984550258</v>
       </c>
       <c r="RX2" t="n">
-        <v>-482.6876922239539</v>
+        <v>-149.4364873582309</v>
       </c>
       <c r="RY2" t="n">
-        <v>-482.7434718710711</v>
+        <v>-149.090656442695</v>
       </c>
       <c r="RZ2" t="n">
-        <v>-483.082530164728</v>
+        <v>-148.757455361771</v>
       </c>
       <c r="SA2" t="n">
-        <v>-482.9977735277961</v>
+        <v>-148.3993385578538</v>
       </c>
       <c r="SB2" t="n">
-        <v>-482.8502263940068</v>
+        <v>-148.0570135973923</v>
       </c>
       <c r="SC2" t="n">
-        <v>-482.7628259853569</v>
+        <v>-147.948965072695</v>
       </c>
       <c r="SD2" t="n">
-        <v>-482.5501370072208</v>
+        <v>-147.5810690271975</v>
       </c>
       <c r="SE2" t="n">
-        <v>-482.469561450406</v>
+        <v>-147.2539917205213</v>
       </c>
       <c r="SF2" t="n">
-        <v>-482.3562337396451</v>
+        <v>-146.9895169076208</v>
       </c>
       <c r="SG2" t="n">
-        <v>-482.2599439447501</v>
+        <v>-149.2442540548313</v>
       </c>
     </row>
     <row r="3">
@@ -3445,1504 +3445,1504 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-62.01760484630574</v>
+        <v>-9.75242677262758</v>
       </c>
       <c r="C3" t="n">
-        <v>-83.63803325565353</v>
+        <v>-13.33423159159934</v>
       </c>
       <c r="D3" t="n">
-        <v>-96.31904353877439</v>
+        <v>-15.49842377628235</v>
       </c>
       <c r="E3" t="n">
-        <v>-104.8186315633823</v>
+        <v>-17.02424991160213</v>
       </c>
       <c r="F3" t="n">
-        <v>-108.2792727934062</v>
+        <v>-17.24034436212956</v>
       </c>
       <c r="G3" t="n">
-        <v>-112.9281054279505</v>
+        <v>-17.5008823898892</v>
       </c>
       <c r="H3" t="n">
-        <v>-116.2421904612226</v>
+        <v>-18.39080377231982</v>
       </c>
       <c r="I3" t="n">
-        <v>-117.7335204489421</v>
+        <v>-19.3255309206969</v>
       </c>
       <c r="J3" t="n">
-        <v>-117.3596980312479</v>
+        <v>-19.89941948404401</v>
       </c>
       <c r="K3" t="n">
-        <v>-119.0510900322297</v>
+        <v>-20.2836751658928</v>
       </c>
       <c r="L3" t="n">
-        <v>-119.8946018226914</v>
+        <v>-20.36459556624512</v>
       </c>
       <c r="M3" t="n">
-        <v>-120.7146731495015</v>
+        <v>-20.40167075011732</v>
       </c>
       <c r="N3" t="n">
-        <v>-120.9337589249178</v>
+        <v>-20.51385616833537</v>
       </c>
       <c r="O3" t="n">
-        <v>-121.3044629106918</v>
+        <v>-20.68818595231507</v>
       </c>
       <c r="P3" t="n">
-        <v>-121.5843969252192</v>
+        <v>-20.75319453604402</v>
       </c>
       <c r="Q3" t="n">
-        <v>-121.7430099596197</v>
+        <v>-20.98149639754842</v>
       </c>
       <c r="R3" t="n">
-        <v>-121.5112815583454</v>
+        <v>-20.94340712652249</v>
       </c>
       <c r="S3" t="n">
-        <v>-121.5729731649663</v>
+        <v>-20.94060086514532</v>
       </c>
       <c r="T3" t="n">
-        <v>-121.5104860557718</v>
+        <v>-20.94457807036306</v>
       </c>
       <c r="U3" t="n">
-        <v>-121.4808427507203</v>
+        <v>-21.11204134704558</v>
       </c>
       <c r="V3" t="n">
-        <v>-121.09561364544</v>
+        <v>-21.05129579924749</v>
       </c>
       <c r="W3" t="n">
-        <v>-121.0056961163107</v>
+        <v>-21.01940167928694</v>
       </c>
       <c r="X3" t="n">
-        <v>-120.8662527041648</v>
+        <v>-20.94185093823907</v>
       </c>
       <c r="Y3" t="n">
-        <v>-120.4816870725256</v>
+        <v>-20.85932984938868</v>
       </c>
       <c r="Z3" t="n">
-        <v>-120.4011378371363</v>
+        <v>-20.492353688376</v>
       </c>
       <c r="AA3" t="n">
-        <v>-120.2537742896931</v>
+        <v>-20.47627795543395</v>
       </c>
       <c r="AB3" t="n">
-        <v>-120.1836210236399</v>
+        <v>-20.43681104453471</v>
       </c>
       <c r="AC3" t="n">
-        <v>-120.075381869786</v>
+        <v>-20.44668291806515</v>
       </c>
       <c r="AD3" t="n">
-        <v>-119.9052786101151</v>
+        <v>-20.4479322762998</v>
       </c>
       <c r="AE3" t="n">
-        <v>-119.7672609279279</v>
+        <v>-20.52109877998011</v>
       </c>
       <c r="AF3" t="n">
-        <v>-119.5981196303354</v>
+        <v>-20.51924219668697</v>
       </c>
       <c r="AG3" t="n">
-        <v>-119.439511528083</v>
+        <v>-20.51219382605826</v>
       </c>
       <c r="AH3" t="n">
-        <v>-119.3130207023266</v>
+        <v>-20.47484483036282</v>
       </c>
       <c r="AI3" t="n">
-        <v>-119.1339974744946</v>
+        <v>-20.42746412146643</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-118.9606053347282</v>
+        <v>-20.39282471899881</v>
       </c>
       <c r="AK3" t="n">
-        <v>-118.7871196334339</v>
+        <v>-20.33343970031992</v>
       </c>
       <c r="AL3" t="n">
-        <v>-118.6514491005313</v>
+        <v>-20.2841727741224</v>
       </c>
       <c r="AM3" t="n">
-        <v>-118.4905620423442</v>
+        <v>-20.27675944543542</v>
       </c>
       <c r="AN3" t="n">
-        <v>-118.3747153203829</v>
+        <v>-20.2847647660495</v>
       </c>
       <c r="AO3" t="n">
-        <v>-118.2106959061375</v>
+        <v>-20.24412884037493</v>
       </c>
       <c r="AP3" t="n">
-        <v>-117.9761975585701</v>
+        <v>-20.20537920878569</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-117.8024053901914</v>
+        <v>-20.23404864988742</v>
       </c>
       <c r="AR3" t="n">
-        <v>-117.6411241989526</v>
+        <v>-20.23268013700222</v>
       </c>
       <c r="AS3" t="n">
-        <v>-117.4591513488634</v>
+        <v>-20.20396079348341</v>
       </c>
       <c r="AT3" t="n">
-        <v>-117.3251584985608</v>
+        <v>-20.21368486261538</v>
       </c>
       <c r="AU3" t="n">
-        <v>-117.1694678100724</v>
+        <v>-20.20048192179333</v>
       </c>
       <c r="AV3" t="n">
-        <v>-117.0080802776416</v>
+        <v>-20.20898973803182</v>
       </c>
       <c r="AW3" t="n">
-        <v>-116.8333422871456</v>
+        <v>-20.25107018179811</v>
       </c>
       <c r="AX3" t="n">
-        <v>-116.6802753404015</v>
+        <v>-20.27640615987983</v>
       </c>
       <c r="AY3" t="n">
-        <v>-116.5088934838574</v>
+        <v>-20.24485031120969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-116.352198813038</v>
+        <v>-20.22094582074222</v>
       </c>
       <c r="BA3" t="n">
-        <v>-116.2331535623437</v>
+        <v>-20.19044372007424</v>
       </c>
       <c r="BB3" t="n">
-        <v>-116.1227216796339</v>
+        <v>-20.18503061944028</v>
       </c>
       <c r="BC3" t="n">
-        <v>-116.0045419954509</v>
+        <v>-20.21121395047076</v>
       </c>
       <c r="BD3" t="n">
-        <v>-115.8373057141333</v>
+        <v>-20.17760036939909</v>
       </c>
       <c r="BE3" t="n">
-        <v>-115.6049939168676</v>
+        <v>-20.20198068655873</v>
       </c>
       <c r="BF3" t="n">
-        <v>-115.4466948673879</v>
+        <v>-20.22825745135266</v>
       </c>
       <c r="BG3" t="n">
-        <v>-115.3205365544415</v>
+        <v>-20.22790192069284</v>
       </c>
       <c r="BH3" t="n">
-        <v>-115.2589825902404</v>
+        <v>-20.20729151137784</v>
       </c>
       <c r="BI3" t="n">
-        <v>-115.1424033011225</v>
+        <v>-20.16308990384327</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-114.9967523461649</v>
+        <v>-20.14261046145735</v>
       </c>
       <c r="BK3" t="n">
-        <v>-114.8887274890069</v>
+        <v>-20.11641628234801</v>
       </c>
       <c r="BL3" t="n">
-        <v>-114.7916656087935</v>
+        <v>-20.0677387450214</v>
       </c>
       <c r="BM3" t="n">
-        <v>-114.7632545409742</v>
+        <v>-20.04346265298756</v>
       </c>
       <c r="BN3" t="n">
-        <v>-114.6495693137704</v>
+        <v>-20.08874456002865</v>
       </c>
       <c r="BO3" t="n">
-        <v>-114.5723744514421</v>
+        <v>-20.06091061335523</v>
       </c>
       <c r="BP3" t="n">
-        <v>-114.4998786773134</v>
+        <v>-20.11342590396012</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-114.4283063153222</v>
+        <v>-20.12217403388341</v>
       </c>
       <c r="BR3" t="n">
-        <v>-114.3624296727522</v>
+        <v>-20.20866874807577</v>
       </c>
       <c r="BS3" t="n">
-        <v>-114.3229852769657</v>
+        <v>-20.39916860736095</v>
       </c>
       <c r="BT3" t="n">
-        <v>-114.2657471857074</v>
+        <v>-20.54029924258371</v>
       </c>
       <c r="BU3" t="n">
-        <v>-114.2131263195898</v>
+        <v>-20.74590334783784</v>
       </c>
       <c r="BV3" t="n">
-        <v>-114.1644115482636</v>
+        <v>-21.12233096985067</v>
       </c>
       <c r="BW3" t="n">
-        <v>-114.1530821852863</v>
+        <v>-21.56561257253815</v>
       </c>
       <c r="BX3" t="n">
-        <v>-114.094567309451</v>
+        <v>-21.93066869217022</v>
       </c>
       <c r="BY3" t="n">
-        <v>-114.0789291558391</v>
+        <v>-22.37012460870808</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-113.993475028974</v>
+        <v>-22.87442981186171</v>
       </c>
       <c r="CA3" t="n">
-        <v>-113.986841360771</v>
+        <v>-23.40104781003754</v>
       </c>
       <c r="CB3" t="n">
-        <v>-113.8130840669017</v>
+        <v>-24.01365374387703</v>
       </c>
       <c r="CC3" t="n">
-        <v>-113.7982637107527</v>
+        <v>-24.78291108705044</v>
       </c>
       <c r="CD3" t="n">
-        <v>-113.8226798999404</v>
+        <v>-25.52743263217562</v>
       </c>
       <c r="CE3" t="n">
-        <v>-113.8365676859256</v>
+        <v>-24.25298668208686</v>
       </c>
       <c r="CF3" t="n">
-        <v>-113.8261674345416</v>
+        <v>-23.29670315046715</v>
       </c>
       <c r="CG3" t="n">
-        <v>-113.8182552474129</v>
+        <v>-22.52558736533914</v>
       </c>
       <c r="CH3" t="n">
-        <v>-113.6770116323278</v>
+        <v>-21.72448519003343</v>
       </c>
       <c r="CI3" t="n">
-        <v>-113.5196226712858</v>
+        <v>-21.0568542496947</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-113.4447576191928</v>
+        <v>-20.37640559181913</v>
       </c>
       <c r="CK3" t="n">
-        <v>-113.437882254374</v>
+        <v>-19.90598916294567</v>
       </c>
       <c r="CL3" t="n">
-        <v>-113.4641217856731</v>
+        <v>-19.19428314105731</v>
       </c>
       <c r="CM3" t="n">
-        <v>-113.5159633186814</v>
+        <v>-18.86685945081749</v>
       </c>
       <c r="CN3" t="n">
-        <v>-113.5843898187163</v>
+        <v>-18.87732795095745</v>
       </c>
       <c r="CO3" t="n">
-        <v>-113.6043405324441</v>
+        <v>-18.81613247805611</v>
       </c>
       <c r="CP3" t="n">
-        <v>-113.6244408850344</v>
+        <v>-19.00143684443495</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-113.6465318289813</v>
+        <v>-19.30486649829038</v>
       </c>
       <c r="CR3" t="n">
-        <v>-113.726254059718</v>
+        <v>-19.71542015750226</v>
       </c>
       <c r="CS3" t="n">
-        <v>-113.7596465681987</v>
+        <v>-20.213353703656</v>
       </c>
       <c r="CT3" t="n">
-        <v>-113.8406224826735</v>
+        <v>-20.76238355744562</v>
       </c>
       <c r="CU3" t="n">
-        <v>-113.8783845044592</v>
+        <v>-21.06802289169601</v>
       </c>
       <c r="CV3" t="n">
-        <v>-113.9200707804821</v>
+        <v>-21.70614076806771</v>
       </c>
       <c r="CW3" t="n">
-        <v>-113.803547598594</v>
+        <v>-22.35878082519071</v>
       </c>
       <c r="CX3" t="n">
-        <v>-113.9371149506993</v>
+        <v>-23.18103970872184</v>
       </c>
       <c r="CY3" t="n">
-        <v>-113.9823928799986</v>
+        <v>-23.64691468731543</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-114.0095223255375</v>
+        <v>-24.15327776580143</v>
       </c>
       <c r="DA3" t="n">
-        <v>-113.9986658905178</v>
+        <v>-22.95257632941227</v>
       </c>
       <c r="DB3" t="n">
-        <v>-113.9916982257738</v>
+        <v>-21.84202580815794</v>
       </c>
       <c r="DC3" t="n">
-        <v>-114.0397588255886</v>
+        <v>-21.01478337844566</v>
       </c>
       <c r="DD3" t="n">
-        <v>-113.9408716892376</v>
+        <v>-20.21734388766546</v>
       </c>
       <c r="DE3" t="n">
-        <v>-113.9588035246617</v>
+        <v>-19.61637964883476</v>
       </c>
       <c r="DF3" t="n">
-        <v>-113.9705895599134</v>
+        <v>-21.23720725027455</v>
       </c>
       <c r="DG3" t="n">
-        <v>-114.000286996706</v>
+        <v>-20.76910570616796</v>
       </c>
       <c r="DH3" t="n">
-        <v>-114.0063588315</v>
+        <v>-20.35414227350729</v>
       </c>
       <c r="DI3" t="n">
-        <v>-114.0335231290646</v>
+        <v>-20.13235024891259</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-114.0746391917456</v>
+        <v>-19.91794779110014</v>
       </c>
       <c r="DK3" t="n">
-        <v>-114.0980539049061</v>
+        <v>-19.89031336929007</v>
       </c>
       <c r="DL3" t="n">
-        <v>-114.0035975307572</v>
+        <v>-19.83978533853375</v>
       </c>
       <c r="DM3" t="n">
-        <v>-114.0676347610415</v>
+        <v>-19.86999487786336</v>
       </c>
       <c r="DN3" t="n">
-        <v>-114.0695050128173</v>
+        <v>-19.89222969416301</v>
       </c>
       <c r="DO3" t="n">
-        <v>-113.8083061673373</v>
+        <v>-19.97058641064443</v>
       </c>
       <c r="DP3" t="n">
-        <v>-113.8524570830245</v>
+        <v>-20.01385514883962</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-113.9069562566616</v>
+        <v>-20.01172849700203</v>
       </c>
       <c r="DR3" t="n">
-        <v>-113.9646138129558</v>
+        <v>-20.04462308860184</v>
       </c>
       <c r="DS3" t="n">
-        <v>-113.8286469650095</v>
+        <v>-20.07717550169858</v>
       </c>
       <c r="DT3" t="n">
-        <v>-113.6985316196558</v>
+        <v>-20.07767344090682</v>
       </c>
       <c r="DU3" t="n">
-        <v>-113.6130740001679</v>
+        <v>-20.05142096844342</v>
       </c>
       <c r="DV3" t="n">
-        <v>-113.6823989766471</v>
+        <v>-20.20839401026694</v>
       </c>
       <c r="DW3" t="n">
-        <v>-113.4176031229007</v>
+        <v>-20.23727197682149</v>
       </c>
       <c r="DX3" t="n">
-        <v>-113.4775121160213</v>
+        <v>-20.32180402720592</v>
       </c>
       <c r="DY3" t="n">
-        <v>-113.3354130407524</v>
+        <v>-20.38313179664338</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-113.4014554089996</v>
+        <v>-20.39701136184561</v>
       </c>
       <c r="EA3" t="n">
-        <v>-113.4151714327662</v>
+        <v>-20.55984978108915</v>
       </c>
       <c r="EB3" t="n">
-        <v>-113.4249426328104</v>
+        <v>-20.54141132131212</v>
       </c>
       <c r="EC3" t="n">
-        <v>-113.4963936017897</v>
+        <v>-20.57147452703354</v>
       </c>
       <c r="ED3" t="n">
-        <v>-113.4874284047262</v>
+        <v>-20.56180486757379</v>
       </c>
       <c r="EE3" t="n">
-        <v>-113.5657734960313</v>
+        <v>-20.5524553806069</v>
       </c>
       <c r="EF3" t="n">
-        <v>-113.5937140452003</v>
+        <v>-20.54354001767177</v>
       </c>
       <c r="EG3" t="n">
-        <v>-113.6328784080941</v>
+        <v>-20.49812051763111</v>
       </c>
       <c r="EH3" t="n">
-        <v>-113.6635067299014</v>
+        <v>-20.48807876791739</v>
       </c>
       <c r="EI3" t="n">
-        <v>-113.4452327035813</v>
+        <v>-20.42595016842655</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-113.5514939342867</v>
+        <v>-20.38954825234875</v>
       </c>
       <c r="EK3" t="n">
-        <v>-113.6360881491191</v>
+        <v>-20.38768234885269</v>
       </c>
       <c r="EL3" t="n">
-        <v>-113.7107871761661</v>
+        <v>-20.56043269539595</v>
       </c>
       <c r="EM3" t="n">
-        <v>-113.6377163215601</v>
+        <v>-20.55826817534747</v>
       </c>
       <c r="EN3" t="n">
-        <v>-113.7020308561971</v>
+        <v>-20.55834832127753</v>
       </c>
       <c r="EO3" t="n">
-        <v>-113.7602934031337</v>
+        <v>-20.56932333399764</v>
       </c>
       <c r="EP3" t="n">
-        <v>-113.8295503408312</v>
+        <v>-20.72832288543981</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-113.7660895309344</v>
+        <v>-20.71901054908079</v>
       </c>
       <c r="ER3" t="n">
-        <v>-113.8557191510447</v>
+        <v>-20.70403317526874</v>
       </c>
       <c r="ES3" t="n">
-        <v>-113.7388752032842</v>
+        <v>-20.61512791364378</v>
       </c>
       <c r="ET3" t="n">
-        <v>-113.7788578863242</v>
+        <v>-20.62370938455458</v>
       </c>
       <c r="EU3" t="n">
-        <v>-113.8294228649179</v>
+        <v>-20.62776808543434</v>
       </c>
       <c r="EV3" t="n">
-        <v>-113.9095421027958</v>
+        <v>-20.66528931375831</v>
       </c>
       <c r="EW3" t="n">
-        <v>-113.6816969029262</v>
+        <v>-20.69045359190645</v>
       </c>
       <c r="EX3" t="n">
-        <v>-113.8220086105767</v>
+        <v>-20.69864323627779</v>
       </c>
       <c r="EY3" t="n">
-        <v>-113.9294727377234</v>
+        <v>-20.7314400900651</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-114.1053214121721</v>
+        <v>-20.77813655206661</v>
       </c>
       <c r="FA3" t="n">
-        <v>-114.1346710818699</v>
+        <v>-20.80727996557388</v>
       </c>
       <c r="FB3" t="n">
-        <v>-113.8898725242063</v>
+        <v>-20.83507895182781</v>
       </c>
       <c r="FC3" t="n">
-        <v>-113.8817603665006</v>
+        <v>-20.80965056929338</v>
       </c>
       <c r="FD3" t="n">
-        <v>-113.6464788053353</v>
+        <v>-20.86123795967679</v>
       </c>
       <c r="FE3" t="n">
-        <v>-113.6872734404111</v>
+        <v>-20.86389949502842</v>
       </c>
       <c r="FF3" t="n">
-        <v>-113.7505410992384</v>
+        <v>-20.91491473023001</v>
       </c>
       <c r="FG3" t="n">
-        <v>-113.5988921186302</v>
+        <v>-20.91088697803707</v>
       </c>
       <c r="FH3" t="n">
-        <v>-113.6771871162473</v>
+        <v>-20.88591750848662</v>
       </c>
       <c r="FI3" t="n">
-        <v>-113.7127556070461</v>
+        <v>-20.85697734495054</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-113.5982954726018</v>
+        <v>-20.83233129100982</v>
       </c>
       <c r="FK3" t="n">
-        <v>-113.6404794359705</v>
+        <v>-20.84485890315513</v>
       </c>
       <c r="FL3" t="n">
-        <v>-113.7071439974535</v>
+        <v>-20.85670467868171</v>
       </c>
       <c r="FM3" t="n">
-        <v>-113.807787428831</v>
+        <v>-20.83141246427422</v>
       </c>
       <c r="FN3" t="n">
-        <v>-113.6604543203532</v>
+        <v>-20.84519350252582</v>
       </c>
       <c r="FO3" t="n">
-        <v>-113.7049807942315</v>
+        <v>-20.88521892776986</v>
       </c>
       <c r="FP3" t="n">
-        <v>-113.7524775383998</v>
+        <v>-20.84664514212867</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-113.8250488016842</v>
+        <v>-20.7917949383932</v>
       </c>
       <c r="FR3" t="n">
-        <v>-113.8224063417303</v>
+        <v>-20.79456977817459</v>
       </c>
       <c r="FS3" t="n">
-        <v>-113.7877219644974</v>
+        <v>-20.83264038624841</v>
       </c>
       <c r="FT3" t="n">
-        <v>-113.8575096147492</v>
+        <v>-20.82555635514503</v>
       </c>
       <c r="FU3" t="n">
-        <v>-113.8096656801881</v>
+        <v>-20.83599274776565</v>
       </c>
       <c r="FV3" t="n">
-        <v>-113.8784784573138</v>
+        <v>-20.97858840618347</v>
       </c>
       <c r="FW3" t="n">
-        <v>-113.7384035649439</v>
+        <v>-20.96864533092725</v>
       </c>
       <c r="FX3" t="n">
-        <v>-113.4885653010773</v>
+        <v>-20.93709237280347</v>
       </c>
       <c r="FY3" t="n">
-        <v>-113.4805122045373</v>
+        <v>-20.9128641196373</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-113.473387450473</v>
+        <v>-20.9066842891414</v>
       </c>
       <c r="GA3" t="n">
-        <v>-113.2621598491306</v>
+        <v>-20.89717781512613</v>
       </c>
       <c r="GB3" t="n">
-        <v>-113.1192773493158</v>
+        <v>-20.87081892404355</v>
       </c>
       <c r="GC3" t="n">
-        <v>-113.1279274529778</v>
+        <v>-20.84526960337594</v>
       </c>
       <c r="GD3" t="n">
-        <v>-112.9991021064697</v>
+        <v>-20.8448628083626</v>
       </c>
       <c r="GE3" t="n">
-        <v>-113.0033714447301</v>
+        <v>-20.88404505694093</v>
       </c>
       <c r="GF3" t="n">
-        <v>-113.016910412527</v>
+        <v>-20.87449021377746</v>
       </c>
       <c r="GG3" t="n">
-        <v>-113.1048461801659</v>
+        <v>-20.9009145510203</v>
       </c>
       <c r="GH3" t="n">
-        <v>-113.1548514231315</v>
+        <v>-20.95643694867291</v>
       </c>
       <c r="GI3" t="n">
-        <v>-113.225752099952</v>
+        <v>-20.94409855948448</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-113.4722551124261</v>
+        <v>-20.96423284963982</v>
       </c>
       <c r="GK3" t="n">
-        <v>-113.4264967593708</v>
+        <v>-20.93114857484039</v>
       </c>
       <c r="GL3" t="n">
-        <v>-113.492811085299</v>
+        <v>-20.92398732074525</v>
       </c>
       <c r="GM3" t="n">
-        <v>-113.297836477391</v>
+        <v>-20.93479930964009</v>
       </c>
       <c r="GN3" t="n">
-        <v>-113.5131840669485</v>
+        <v>-20.89475519786949</v>
       </c>
       <c r="GO3" t="n">
-        <v>-113.337015265993</v>
+        <v>-20.91030462774689</v>
       </c>
       <c r="GP3" t="n">
-        <v>-113.2989172396032</v>
+        <v>-20.89100703473131</v>
       </c>
       <c r="GQ3" t="n">
-        <v>-113.3873656499576</v>
+        <v>-20.91070888096819</v>
       </c>
       <c r="GR3" t="n">
-        <v>-113.4795913027447</v>
+        <v>-20.89727710552515</v>
       </c>
       <c r="GS3" t="n">
-        <v>-113.5224795696357</v>
+        <v>-20.90407082844503</v>
       </c>
       <c r="GT3" t="n">
-        <v>-113.5332122675883</v>
+        <v>-20.87995524707027</v>
       </c>
       <c r="GU3" t="n">
-        <v>-113.4407885369867</v>
+        <v>-20.92841288561993</v>
       </c>
       <c r="GV3" t="n">
-        <v>-113.5718244163812</v>
+        <v>-20.89059600348395</v>
       </c>
       <c r="GW3" t="n">
-        <v>-113.5527970015906</v>
+        <v>-20.86146963896807</v>
       </c>
       <c r="GX3" t="n">
-        <v>-113.6840237103322</v>
+        <v>-20.83780119330247</v>
       </c>
       <c r="GY3" t="n">
-        <v>-113.8138096400264</v>
+        <v>-20.84644684103758</v>
       </c>
       <c r="GZ3" t="n">
-        <v>-113.6597384750433</v>
+        <v>-20.89188122421735</v>
       </c>
       <c r="HA3" t="n">
-        <v>-113.842478617669</v>
+        <v>-20.88293303264116</v>
       </c>
       <c r="HB3" t="n">
-        <v>-113.9025230640959</v>
+        <v>-20.94447783650425</v>
       </c>
       <c r="HC3" t="n">
-        <v>-113.7185225500653</v>
+        <v>-20.9202173399735</v>
       </c>
       <c r="HD3" t="n">
-        <v>-113.444861760782</v>
+        <v>-20.92882915321573</v>
       </c>
       <c r="HE3" t="n">
-        <v>-113.3707447532013</v>
+        <v>-20.93990356934793</v>
       </c>
       <c r="HF3" t="n">
-        <v>-113.4993360477289</v>
+        <v>-20.92053686381536</v>
       </c>
       <c r="HG3" t="n">
-        <v>-113.4219509350956</v>
+        <v>-20.94457724093471</v>
       </c>
       <c r="HH3" t="n">
-        <v>-113.6343396353095</v>
+        <v>-20.94278605361499</v>
       </c>
       <c r="HI3" t="n">
-        <v>-113.5531921055273</v>
+        <v>-20.96533295216558</v>
       </c>
       <c r="HJ3" t="n">
-        <v>-113.6013876549583</v>
+        <v>-20.92424417928888</v>
       </c>
       <c r="HK3" t="n">
-        <v>-113.6229964602731</v>
+        <v>-20.87565434917482</v>
       </c>
       <c r="HL3" t="n">
-        <v>-113.6376953221141</v>
+        <v>-20.85198452504908</v>
       </c>
       <c r="HM3" t="n">
-        <v>-113.4083354847581</v>
+        <v>-20.87479476281817</v>
       </c>
       <c r="HN3" t="n">
-        <v>-113.2539536166245</v>
+        <v>-20.82448924884886</v>
       </c>
       <c r="HO3" t="n">
-        <v>-113.1184379409915</v>
+        <v>-20.79758551128159</v>
       </c>
       <c r="HP3" t="n">
-        <v>-113.1618151784465</v>
+        <v>-20.78927996241102</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-113.135118658652</v>
+        <v>-20.77574759503465</v>
       </c>
       <c r="HR3" t="n">
-        <v>-113.0165614218132</v>
+        <v>-20.76282087576448</v>
       </c>
       <c r="HS3" t="n">
-        <v>-112.8346714828127</v>
+        <v>-20.7594255202752</v>
       </c>
       <c r="HT3" t="n">
-        <v>-112.6684967112407</v>
+        <v>-20.76315639358473</v>
       </c>
       <c r="HU3" t="n">
-        <v>-112.6757897911534</v>
+        <v>-20.7886043759302</v>
       </c>
       <c r="HV3" t="n">
-        <v>-112.6911376521472</v>
+        <v>-20.81009519102405</v>
       </c>
       <c r="HW3" t="n">
-        <v>-112.7441399903807</v>
+        <v>-20.80890042538435</v>
       </c>
       <c r="HX3" t="n">
-        <v>-112.6265168696312</v>
+        <v>-20.79222947127116</v>
       </c>
       <c r="HY3" t="n">
-        <v>-112.5547972649938</v>
+        <v>-20.78192608707816</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-112.4973816012493</v>
+        <v>-20.772075612342</v>
       </c>
       <c r="IA3" t="n">
-        <v>-112.4187741492431</v>
+        <v>-20.78475136565435</v>
       </c>
       <c r="IB3" t="n">
-        <v>-112.3454216752957</v>
+        <v>-20.74322115797019</v>
       </c>
       <c r="IC3" t="n">
-        <v>-112.2720313885096</v>
+        <v>-20.64506081253382</v>
       </c>
       <c r="ID3" t="n">
-        <v>-112.2178650549385</v>
+        <v>-20.6935976403935</v>
       </c>
       <c r="IE3" t="n">
-        <v>-112.1201024997264</v>
+        <v>-20.71735732616681</v>
       </c>
       <c r="IF3" t="n">
-        <v>-112.1115734723799</v>
+        <v>-20.72706947833198</v>
       </c>
       <c r="IG3" t="n">
-        <v>-112.0477790249867</v>
+        <v>-20.73655427433234</v>
       </c>
       <c r="IH3" t="n">
-        <v>-111.8807306945465</v>
+        <v>-20.77824718211129</v>
       </c>
       <c r="II3" t="n">
-        <v>-111.9407344751727</v>
+        <v>-20.79284081247662</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-112.0838327090054</v>
+        <v>-20.86242676953898</v>
       </c>
       <c r="IK3" t="n">
-        <v>-112.071096072507</v>
+        <v>-20.84428006994451</v>
       </c>
       <c r="IL3" t="n">
-        <v>-112.1366336506787</v>
+        <v>-20.83774421211843</v>
       </c>
       <c r="IM3" t="n">
-        <v>-112.1032598624594</v>
+        <v>-20.88847649641141</v>
       </c>
       <c r="IN3" t="n">
-        <v>-112.3518736817504</v>
+        <v>-20.8903146973726</v>
       </c>
       <c r="IO3" t="n">
-        <v>-112.6925557478101</v>
+        <v>-20.89198802385173</v>
       </c>
       <c r="IP3" t="n">
-        <v>-112.4598307608133</v>
+        <v>-20.8609393517389</v>
       </c>
       <c r="IQ3" t="n">
-        <v>-112.2944005542431</v>
+        <v>-20.88415771761432</v>
       </c>
       <c r="IR3" t="n">
-        <v>-112.0621318635349</v>
+        <v>-20.84427337576673</v>
       </c>
       <c r="IS3" t="n">
-        <v>-112.1241019551309</v>
+        <v>-20.80851715288955</v>
       </c>
       <c r="IT3" t="n">
-        <v>-112.1311916172551</v>
+        <v>-20.7811243940106</v>
       </c>
       <c r="IU3" t="n">
-        <v>-111.9501978657228</v>
+        <v>-20.77553762030593</v>
       </c>
       <c r="IV3" t="n">
-        <v>-112.1772174282542</v>
+        <v>-20.78994649605267</v>
       </c>
       <c r="IW3" t="n">
-        <v>-112.451780682283</v>
+        <v>-20.76751916202371</v>
       </c>
       <c r="IX3" t="n">
-        <v>-112.8620104714512</v>
+        <v>-20.76241702203919</v>
       </c>
       <c r="IY3" t="n">
-        <v>-113.0148735572093</v>
+        <v>-20.76835396805204</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-112.6754325937068</v>
+        <v>-20.77414275778975</v>
       </c>
       <c r="JA3" t="n">
-        <v>-112.1293120470491</v>
+        <v>-20.78862525865785</v>
       </c>
       <c r="JB3" t="n">
-        <v>-110.512881117201</v>
+        <v>-20.82313794437251</v>
       </c>
       <c r="JC3" t="n">
-        <v>-109.3795201557741</v>
+        <v>-20.8244016303396</v>
       </c>
       <c r="JD3" t="n">
-        <v>-107.5826662681432</v>
+        <v>-20.85511624128217</v>
       </c>
       <c r="JE3" t="n">
-        <v>-104.8175796831587</v>
+        <v>-20.89736896203385</v>
       </c>
       <c r="JF3" t="n">
-        <v>-102.3378968790587</v>
+        <v>-21.02437950001372</v>
       </c>
       <c r="JG3" t="n">
-        <v>-103.1262700870853</v>
+        <v>-21.0352535244621</v>
       </c>
       <c r="JH3" t="n">
-        <v>-104.1690524044223</v>
+        <v>-21.02129653416883</v>
       </c>
       <c r="JI3" t="n">
-        <v>-104.6270230456492</v>
+        <v>-21.00104238893688</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-104.5770942599066</v>
+        <v>-21.05679902181972</v>
       </c>
       <c r="JK3" t="n">
-        <v>-103.469799759905</v>
+        <v>-21.03884087391175</v>
       </c>
       <c r="JL3" t="n">
-        <v>-103.5277866474665</v>
+        <v>-21.01034735995731</v>
       </c>
       <c r="JM3" t="n">
-        <v>-103.9075356131947</v>
+        <v>-20.9860092330555</v>
       </c>
       <c r="JN3" t="n">
-        <v>-102.7119287024059</v>
+        <v>-20.90837374698786</v>
       </c>
       <c r="JO3" t="n">
-        <v>-101.3310101860227</v>
+        <v>-20.91442069664382</v>
       </c>
       <c r="JP3" t="n">
-        <v>-102.3895592514573</v>
+        <v>-20.92937660807307</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-103.2970109341137</v>
+        <v>-20.88456276557286</v>
       </c>
       <c r="JR3" t="n">
-        <v>-104.5190352620177</v>
+        <v>-20.86355428508215</v>
       </c>
       <c r="JS3" t="n">
-        <v>-103.1884618851195</v>
+        <v>-20.86192078104378</v>
       </c>
       <c r="JT3" t="n">
-        <v>-104.3604332348552</v>
+        <v>-20.81521698066728</v>
       </c>
       <c r="JU3" t="n">
-        <v>-103.5603523608548</v>
+        <v>-20.70491003154962</v>
       </c>
       <c r="JV3" t="n">
-        <v>-102.9971963710882</v>
+        <v>-20.68961909614242</v>
       </c>
       <c r="JW3" t="n">
-        <v>-105.8510865645958</v>
+        <v>-20.70137140603288</v>
       </c>
       <c r="JX3" t="n">
-        <v>-108.5459765863197</v>
+        <v>-20.68564728073146</v>
       </c>
       <c r="JY3" t="n">
-        <v>-110.357199786244</v>
+        <v>-20.67936064403655</v>
       </c>
       <c r="JZ3" t="n">
-        <v>-110.8359695920498</v>
+        <v>-20.69700447270953</v>
       </c>
       <c r="KA3" t="n">
-        <v>-113.2997340208974</v>
+        <v>-20.68062471060818</v>
       </c>
       <c r="KB3" t="n">
-        <v>-116.0952693610813</v>
+        <v>-20.66221426265962</v>
       </c>
       <c r="KC3" t="n">
-        <v>-118.7101367601876</v>
+        <v>-20.67059770153099</v>
       </c>
       <c r="KD3" t="n">
-        <v>-120.7313963056653</v>
+        <v>-20.70453980547906</v>
       </c>
       <c r="KE3" t="n">
-        <v>-122.5539918792735</v>
+        <v>-20.7663220025634</v>
       </c>
       <c r="KF3" t="n">
-        <v>-124.1609113853386</v>
+        <v>-20.73830771519058</v>
       </c>
       <c r="KG3" t="n">
-        <v>-125.7086071130326</v>
+        <v>-20.72413199684479</v>
       </c>
       <c r="KH3" t="n">
-        <v>-127.2407334132537</v>
+        <v>-20.72972809786521</v>
       </c>
       <c r="KI3" t="n">
-        <v>-128.7385474928824</v>
+        <v>-20.67175506865686</v>
       </c>
       <c r="KJ3" t="n">
-        <v>-129.6999619538337</v>
+        <v>-20.69241321199351</v>
       </c>
       <c r="KK3" t="n">
-        <v>-130.4162346902688</v>
+        <v>-20.68810060376509</v>
       </c>
       <c r="KL3" t="n">
-        <v>-129.2993679050295</v>
+        <v>-20.7105604020871</v>
       </c>
       <c r="KM3" t="n">
-        <v>-128.2420296512697</v>
+        <v>-20.72951804905268</v>
       </c>
       <c r="KN3" t="n">
-        <v>-127.111663948892</v>
+        <v>-20.74787336200699</v>
       </c>
       <c r="KO3" t="n">
-        <v>-125.6331942748718</v>
+        <v>-20.79854299839426</v>
       </c>
       <c r="KP3" t="n">
-        <v>-125.721878437144</v>
+        <v>-20.77723719358278</v>
       </c>
       <c r="KQ3" t="n">
-        <v>-125.541688764037</v>
+        <v>-20.90411075851359</v>
       </c>
       <c r="KR3" t="n">
-        <v>-125.3753070063911</v>
+        <v>-20.8632302735092</v>
       </c>
       <c r="KS3" t="n">
-        <v>-125.3828651977703</v>
+        <v>-20.82316125512553</v>
       </c>
       <c r="KT3" t="n">
-        <v>-125.8331216541608</v>
+        <v>-20.83441444304785</v>
       </c>
       <c r="KU3" t="n">
-        <v>-125.8280828879132</v>
+        <v>-20.85780259530343</v>
       </c>
       <c r="KV3" t="n">
-        <v>-123.6211430085821</v>
+        <v>-20.81563731572199</v>
       </c>
       <c r="KW3" t="n">
-        <v>-122.1475042601032</v>
+        <v>-20.77136405079451</v>
       </c>
       <c r="KX3" t="n">
-        <v>-120.7930708763988</v>
+        <v>-20.6681511649077</v>
       </c>
       <c r="KY3" t="n">
-        <v>-119.6690294974441</v>
+        <v>-20.66076154681858</v>
       </c>
       <c r="KZ3" t="n">
-        <v>-117.7616965791151</v>
+        <v>-20.64576001680722</v>
       </c>
       <c r="LA3" t="n">
-        <v>-117.986645137326</v>
+        <v>-20.66142232607161</v>
       </c>
       <c r="LB3" t="n">
-        <v>-117.3350304565041</v>
+        <v>-20.65192624049801</v>
       </c>
       <c r="LC3" t="n">
-        <v>-114.2055476411273</v>
+        <v>-20.66969661283203</v>
       </c>
       <c r="LD3" t="n">
-        <v>-111.2356672678821</v>
+        <v>-20.6869667127585</v>
       </c>
       <c r="LE3" t="n">
-        <v>-115.7834442177105</v>
+        <v>-20.71372826851578</v>
       </c>
       <c r="LF3" t="n">
-        <v>-113.5488140537248</v>
+        <v>-20.70719366811015</v>
       </c>
       <c r="LG3" t="n">
-        <v>-119.6427728158976</v>
+        <v>-20.71704683630028</v>
       </c>
       <c r="LH3" t="n">
-        <v>-116.7331820747339</v>
+        <v>-20.6962143684742</v>
       </c>
       <c r="LI3" t="n">
-        <v>-117.9466306555533</v>
+        <v>-20.7003915992157</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-114.4321124516377</v>
+        <v>-20.6806176748797</v>
       </c>
       <c r="LK3" t="n">
-        <v>-110.6495037458496</v>
+        <v>-20.83249499543988</v>
       </c>
       <c r="LL3" t="n">
-        <v>-109.578379900535</v>
+        <v>-20.83663221344877</v>
       </c>
       <c r="LM3" t="n">
-        <v>-109.6084425808906</v>
+        <v>-20.86989163925766</v>
       </c>
       <c r="LN3" t="n">
-        <v>-107.389612970582</v>
+        <v>-20.90180821743606</v>
       </c>
       <c r="LO3" t="n">
-        <v>-104.8511746071421</v>
+        <v>-20.86243719262127</v>
       </c>
       <c r="LP3" t="n">
-        <v>-102.8995543317884</v>
+        <v>-20.82586884573463</v>
       </c>
       <c r="LQ3" t="n">
-        <v>-100.9639847768828</v>
+        <v>-20.86065281797062</v>
       </c>
       <c r="LR3" t="n">
-        <v>-98.31791014123158</v>
+        <v>-20.9232529750403</v>
       </c>
       <c r="LS3" t="n">
-        <v>-95.97132617765416</v>
+        <v>-20.91278886856082</v>
       </c>
       <c r="LT3" t="n">
-        <v>-93.47376986724187</v>
+        <v>-20.93935516704596</v>
       </c>
       <c r="LU3" t="n">
-        <v>-91.90062032096566</v>
+        <v>-20.91056815355947</v>
       </c>
       <c r="LV3" t="n">
-        <v>-90.20480415394748</v>
+        <v>-20.94305727216578</v>
       </c>
       <c r="LW3" t="n">
-        <v>-88.25555780253973</v>
+        <v>-20.99967198072607</v>
       </c>
       <c r="LX3" t="n">
-        <v>-86.90462489205352</v>
+        <v>-20.93652815147705</v>
       </c>
       <c r="LY3" t="n">
-        <v>-88.98358423541399</v>
+        <v>-20.90760983764457</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-90.11698955757277</v>
+        <v>-20.98516570200865</v>
       </c>
       <c r="MA3" t="n">
-        <v>-91.17780167000983</v>
+        <v>-20.9698507532135</v>
       </c>
       <c r="MB3" t="n">
-        <v>-91.31226875813603</v>
+        <v>-20.98537367452613</v>
       </c>
       <c r="MC3" t="n">
-        <v>-89.9249185506668</v>
+        <v>-21.00153173553414</v>
       </c>
       <c r="MD3" t="n">
-        <v>-89.49564183609849</v>
+        <v>-20.99576074461933</v>
       </c>
       <c r="ME3" t="n">
-        <v>-90.73898917304865</v>
+        <v>-21.01219312302394</v>
       </c>
       <c r="MF3" t="n">
-        <v>-91.67077280137768</v>
+        <v>-20.96330295267461</v>
       </c>
       <c r="MG3" t="n">
-        <v>-92.5316133764497</v>
+        <v>-20.96049518438629</v>
       </c>
       <c r="MH3" t="n">
-        <v>-93.41676871396346</v>
+        <v>-20.96176499602678</v>
       </c>
       <c r="MI3" t="n">
-        <v>-92.35097745562233</v>
+        <v>-20.91991664658062</v>
       </c>
       <c r="MJ3" t="n">
-        <v>-91.884200413625</v>
+        <v>-20.92421729242097</v>
       </c>
       <c r="MK3" t="n">
-        <v>-94.43233570490526</v>
+        <v>-20.93060452608212</v>
       </c>
       <c r="ML3" t="n">
-        <v>-96.39213091976114</v>
+        <v>-20.9072188958759</v>
       </c>
       <c r="MM3" t="n">
-        <v>-98.8528775737058</v>
+        <v>-20.90721158470787</v>
       </c>
       <c r="MN3" t="n">
-        <v>-100.9843155206986</v>
+        <v>-20.88418007810652</v>
       </c>
       <c r="MO3" t="n">
-        <v>-91.10975454067263</v>
+        <v>-20.85866442565065</v>
       </c>
       <c r="MP3" t="n">
-        <v>-91.60987327197793</v>
+        <v>-20.8190162911567</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-92.86674348495275</v>
+        <v>-20.78967891549538</v>
       </c>
       <c r="MR3" t="n">
-        <v>-96.80664695420424</v>
+        <v>-20.79140452562723</v>
       </c>
       <c r="MS3" t="n">
-        <v>-100.6691807893766</v>
+        <v>-20.75175344253434</v>
       </c>
       <c r="MT3" t="n">
-        <v>-104.7240991211777</v>
+        <v>-20.72908840976704</v>
       </c>
       <c r="MU3" t="n">
-        <v>-107.5475216668568</v>
+        <v>-20.71193613039108</v>
       </c>
       <c r="MV3" t="n">
-        <v>-110.3569584145518</v>
+        <v>-20.70262420395842</v>
       </c>
       <c r="MW3" t="n">
-        <v>-111.8847277255475</v>
+        <v>-20.68134616174029</v>
       </c>
       <c r="MX3" t="n">
-        <v>-114.2216477457276</v>
+        <v>-20.67722068570806</v>
       </c>
       <c r="MY3" t="n">
-        <v>-116.2950494221008</v>
+        <v>-20.67882676732027</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-117.80704468721</v>
+        <v>-20.65175450992946</v>
       </c>
       <c r="NA3" t="n">
-        <v>-118.6163967033185</v>
+        <v>-20.69442418630303</v>
       </c>
       <c r="NB3" t="n">
-        <v>-117.8611833042441</v>
+        <v>-20.69742626105815</v>
       </c>
       <c r="NC3" t="n">
-        <v>-117.6672210410182</v>
+        <v>-20.68741883760309</v>
       </c>
       <c r="ND3" t="n">
-        <v>-116.9640334869326</v>
+        <v>-20.75371440259691</v>
       </c>
       <c r="NE3" t="n">
-        <v>-116.8211973665798</v>
+        <v>-20.75310250198178</v>
       </c>
       <c r="NF3" t="n">
-        <v>-117.6484086173846</v>
+        <v>-20.74808592395083</v>
       </c>
       <c r="NG3" t="n">
-        <v>-118.1044123299609</v>
+        <v>-20.77506450994241</v>
       </c>
       <c r="NH3" t="n">
-        <v>-119.516313896125</v>
+        <v>-20.82858316765846</v>
       </c>
       <c r="NI3" t="n">
-        <v>-119.9360836949957</v>
+        <v>-20.82150143586642</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-117.3925577567782</v>
+        <v>-20.85723791796557</v>
       </c>
       <c r="NK3" t="n">
-        <v>-116.3574604545547</v>
+        <v>-20.91902963859087</v>
       </c>
       <c r="NL3" t="n">
-        <v>-114.867309778149</v>
+        <v>-20.92287463482662</v>
       </c>
       <c r="NM3" t="n">
-        <v>-114.2093820671317</v>
+        <v>-20.89728418313676</v>
       </c>
       <c r="NN3" t="n">
-        <v>-113.1785751638045</v>
+        <v>-20.90983969317312</v>
       </c>
       <c r="NO3" t="n">
-        <v>-112.4174845753429</v>
+        <v>-20.88697840028719</v>
       </c>
       <c r="NP3" t="n">
-        <v>-114.6421218332554</v>
+        <v>-20.83708463664582</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-114.7332034321313</v>
+        <v>-20.80692475069831</v>
       </c>
       <c r="NR3" t="n">
-        <v>-114.1005225629229</v>
+        <v>-20.76846200470143</v>
       </c>
       <c r="NS3" t="n">
-        <v>-114.9461832438832</v>
+        <v>-20.76679428753032</v>
       </c>
       <c r="NT3" t="n">
-        <v>-114.8217078629685</v>
+        <v>-20.80065618468648</v>
       </c>
       <c r="NU3" t="n">
-        <v>-115.2739157623967</v>
+        <v>-20.8774842936044</v>
       </c>
       <c r="NV3" t="n">
-        <v>-114.7257357952497</v>
+        <v>-20.82119715973339</v>
       </c>
       <c r="NW3" t="n">
-        <v>-114.4188530418305</v>
+        <v>-20.81723762320584</v>
       </c>
       <c r="NX3" t="n">
-        <v>-113.6594537994786</v>
+        <v>-20.83401857582984</v>
       </c>
       <c r="NY3" t="n">
-        <v>-112.6703253349781</v>
+        <v>-20.81692821301017</v>
       </c>
       <c r="NZ3" t="n">
-        <v>-112.0234454646939</v>
+        <v>-20.7832632334811</v>
       </c>
       <c r="OA3" t="n">
-        <v>-110.950309659555</v>
+        <v>-20.77005353952712</v>
       </c>
       <c r="OB3" t="n">
-        <v>-108.8832144136243</v>
+        <v>-20.76178498286808</v>
       </c>
       <c r="OC3" t="n">
-        <v>-105.8536339033418</v>
+        <v>-20.77982200563414</v>
       </c>
       <c r="OD3" t="n">
-        <v>-103.7860333963669</v>
+        <v>-20.99088851737804</v>
       </c>
       <c r="OE3" t="n">
-        <v>-103.4444185704658</v>
+        <v>-20.95529070020709</v>
       </c>
       <c r="OF3" t="n">
-        <v>-104.0001753013888</v>
+        <v>-20.91011746028499</v>
       </c>
       <c r="OG3" t="n">
-        <v>-101.8574102926928</v>
+        <v>-20.88271459571324</v>
       </c>
       <c r="OH3" t="n">
-        <v>-101.5170473647406</v>
+        <v>-20.85622260518001</v>
       </c>
       <c r="OI3" t="n">
-        <v>-100.5721448371084</v>
+        <v>-20.80558736445933</v>
       </c>
       <c r="OJ3" t="n">
-        <v>-98.54455236130003</v>
+        <v>-20.82781066722189</v>
       </c>
       <c r="OK3" t="n">
-        <v>-99.80644038756378</v>
+        <v>-20.97429449300011</v>
       </c>
       <c r="OL3" t="n">
-        <v>-102.2970432936856</v>
+        <v>-20.97178957582638</v>
       </c>
       <c r="OM3" t="n">
-        <v>-103.7546924675235</v>
+        <v>-20.99735187442834</v>
       </c>
       <c r="ON3" t="n">
-        <v>-103.9516494194403</v>
+        <v>-20.95257563351808</v>
       </c>
       <c r="OO3" t="n">
-        <v>-105.1754207672395</v>
+        <v>-20.89965747760835</v>
       </c>
       <c r="OP3" t="n">
-        <v>-105.7461906960564</v>
+        <v>-20.86000136237618</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-106.553412609448</v>
+        <v>-20.90656390938729</v>
       </c>
       <c r="OR3" t="n">
-        <v>-107.3532922071586</v>
+        <v>-20.88557004890026</v>
       </c>
       <c r="OS3" t="n">
-        <v>-107.6225844582342</v>
+        <v>-20.89994097732674</v>
       </c>
       <c r="OT3" t="n">
-        <v>-107.8009498901808</v>
+        <v>-20.96026219289768</v>
       </c>
       <c r="OU3" t="n">
-        <v>-107.799192879324</v>
+        <v>-20.9605029745562</v>
       </c>
       <c r="OV3" t="n">
-        <v>-108.7370804320816</v>
+        <v>-20.98342210519928</v>
       </c>
       <c r="OW3" t="n">
-        <v>-109.1193947413961</v>
+        <v>-21.00535988953857</v>
       </c>
       <c r="OX3" t="n">
-        <v>-109.8240647579455</v>
+        <v>-20.98116732336021</v>
       </c>
       <c r="OY3" t="n">
-        <v>-110.5943871481345</v>
+        <v>-21.00916826131823</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-110.8844717003354</v>
+        <v>-20.98774666837103</v>
       </c>
       <c r="PA3" t="n">
-        <v>-111.2262300906996</v>
+        <v>-20.99551761936733</v>
       </c>
       <c r="PB3" t="n">
-        <v>-111.1177047838546</v>
+        <v>-20.97071790783418</v>
       </c>
       <c r="PC3" t="n">
-        <v>-111.3039855818912</v>
+        <v>-21.06224589776194</v>
       </c>
       <c r="PD3" t="n">
-        <v>-111.4324153064013</v>
+        <v>-21.02399707374425</v>
       </c>
       <c r="PE3" t="n">
-        <v>-111.8752610466594</v>
+        <v>-20.99472185597913</v>
       </c>
       <c r="PF3" t="n">
-        <v>-112.2852952847121</v>
+        <v>-21.10665863657267</v>
       </c>
       <c r="PG3" t="n">
-        <v>-112.1650587312655</v>
+        <v>-21.07067200390867</v>
       </c>
       <c r="PH3" t="n">
-        <v>-111.8689084425443</v>
+        <v>-21.00608967141238</v>
       </c>
       <c r="PI3" t="n">
-        <v>-111.3219037927993</v>
+        <v>-20.94371252124921</v>
       </c>
       <c r="PJ3" t="n">
-        <v>-111.0305103227491</v>
+        <v>-20.96089597418768</v>
       </c>
       <c r="PK3" t="n">
-        <v>-110.5712105935767</v>
+        <v>-21.01730770073311</v>
       </c>
       <c r="PL3" t="n">
-        <v>-110.1646006066647</v>
+        <v>-20.9826910404658</v>
       </c>
       <c r="PM3" t="n">
-        <v>-109.7708220900693</v>
+        <v>-20.94204861326046</v>
       </c>
       <c r="PN3" t="n">
-        <v>-109.5270465304229</v>
+        <v>-20.9028517798414</v>
       </c>
       <c r="PO3" t="n">
-        <v>-109.3687914344209</v>
+        <v>-20.88561842179073</v>
       </c>
       <c r="PP3" t="n">
-        <v>-109.0563456582242</v>
+        <v>-20.85260573179797</v>
       </c>
       <c r="PQ3" t="n">
-        <v>-108.7035853734482</v>
+        <v>-20.82717221596599</v>
       </c>
       <c r="PR3" t="n">
-        <v>-108.3732713202893</v>
+        <v>-20.81115989460092</v>
       </c>
       <c r="PS3" t="n">
-        <v>-108.1738713007101</v>
+        <v>-20.81912443047643</v>
       </c>
       <c r="PT3" t="n">
-        <v>-107.7352355188545</v>
+        <v>-20.79750014444344</v>
       </c>
       <c r="PU3" t="n">
-        <v>-107.4395701885966</v>
+        <v>-20.74315254582558</v>
       </c>
       <c r="PV3" t="n">
-        <v>-107.3043168708755</v>
+        <v>-20.82627890238604</v>
       </c>
       <c r="PW3" t="n">
-        <v>-107.2754535546098</v>
+        <v>-20.80164803520466</v>
       </c>
       <c r="PX3" t="n">
-        <v>-107.1241421969164</v>
+        <v>-20.77449855191734</v>
       </c>
       <c r="PY3" t="n">
-        <v>-107.1615523321504</v>
+        <v>-20.80452272385811</v>
       </c>
       <c r="PZ3" t="n">
-        <v>-107.1942382629357</v>
+        <v>-20.84221695286383</v>
       </c>
       <c r="QA3" t="n">
-        <v>-106.9439503880786</v>
+        <v>-20.86291962003233</v>
       </c>
       <c r="QB3" t="n">
-        <v>-106.9061003114708</v>
+        <v>-20.8378897808191</v>
       </c>
       <c r="QC3" t="n">
-        <v>-106.6487627170112</v>
+        <v>-20.84243264160862</v>
       </c>
       <c r="QD3" t="n">
-        <v>-106.3909794835944</v>
+        <v>-20.84318427327397</v>
       </c>
       <c r="QE3" t="n">
-        <v>-106.3470235349175</v>
+        <v>-20.86569477933373</v>
       </c>
       <c r="QF3" t="n">
-        <v>-106.2035215230601</v>
+        <v>-20.88741943722192</v>
       </c>
       <c r="QG3" t="n">
-        <v>-106.0822246579037</v>
+        <v>-20.85612413602513</v>
       </c>
       <c r="QH3" t="n">
-        <v>-105.9972544948789</v>
+        <v>-20.81521369647807</v>
       </c>
       <c r="QI3" t="n">
-        <v>-105.7557578106281</v>
+        <v>-20.91551710830062</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-105.7178766929309</v>
+        <v>-20.91547189765607</v>
       </c>
       <c r="QK3" t="n">
-        <v>-105.570889206128</v>
+        <v>-20.92241992314986</v>
       </c>
       <c r="QL3" t="n">
-        <v>-105.5930073919572</v>
+        <v>-20.95601888879648</v>
       </c>
       <c r="QM3" t="n">
-        <v>-105.5638229772179</v>
+        <v>-20.96049672817244</v>
       </c>
       <c r="QN3" t="n">
-        <v>-105.4411202955181</v>
+        <v>-20.96019487328121</v>
       </c>
       <c r="QO3" t="n">
-        <v>-105.313971447272</v>
+        <v>-20.95728768948854</v>
       </c>
       <c r="QP3" t="n">
-        <v>-105.4580119925868</v>
+        <v>-21.07379606456927</v>
       </c>
       <c r="QQ3" t="n">
-        <v>-105.4820891960175</v>
+        <v>-21.07901354709256</v>
       </c>
       <c r="QR3" t="n">
-        <v>-105.4596835579648</v>
+        <v>-21.10236932791508</v>
       </c>
       <c r="QS3" t="n">
-        <v>-105.6467949294194</v>
+        <v>-21.27396228023263</v>
       </c>
       <c r="QT3" t="n">
-        <v>-105.6347169851173</v>
+        <v>-21.28681222321292</v>
       </c>
       <c r="QU3" t="n">
-        <v>-105.4899567142677</v>
+        <v>-21.33769225141983</v>
       </c>
       <c r="QV3" t="n">
-        <v>-105.5531269123187</v>
+        <v>-21.2746812454521</v>
       </c>
       <c r="QW3" t="n">
-        <v>-105.5415346409573</v>
+        <v>-21.23243357803319</v>
       </c>
       <c r="QX3" t="n">
-        <v>-105.3098428571898</v>
+        <v>-21.15711990101531</v>
       </c>
       <c r="QY3" t="n">
-        <v>-105.2323097524126</v>
+        <v>-21.22721214883163</v>
       </c>
       <c r="QZ3" t="n">
-        <v>-105.0915344299753</v>
+        <v>-21.17686929752704</v>
       </c>
       <c r="RA3" t="n">
-        <v>-104.998238187947</v>
+        <v>-21.1124557202223</v>
       </c>
       <c r="RB3" t="n">
-        <v>-105.0678454778187</v>
+        <v>-21.10408718304809</v>
       </c>
       <c r="RC3" t="n">
-        <v>-105.268685841082</v>
+        <v>-21.07316273455084</v>
       </c>
       <c r="RD3" t="n">
-        <v>-105.3874066464106</v>
+        <v>-21.05469577246494</v>
       </c>
       <c r="RE3" t="n">
-        <v>-105.4468857171811</v>
+        <v>-21.04774569824924</v>
       </c>
       <c r="RF3" t="n">
-        <v>-105.650796389723</v>
+        <v>-21.07527682586752</v>
       </c>
       <c r="RG3" t="n">
-        <v>-105.6383379791819</v>
+        <v>-21.03440102518143</v>
       </c>
       <c r="RH3" t="n">
-        <v>-105.6698008950293</v>
+        <v>-21.00499859333374</v>
       </c>
       <c r="RI3" t="n">
-        <v>-105.4966577360814</v>
+        <v>-20.97666684437976</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-105.3366960608423</v>
+        <v>-20.95486519240849</v>
       </c>
       <c r="RK3" t="n">
-        <v>-105.3571466161998</v>
+        <v>-20.93656196726301</v>
       </c>
       <c r="RL3" t="n">
-        <v>-105.6284374486515</v>
+        <v>-20.95953092853723</v>
       </c>
       <c r="RM3" t="n">
-        <v>-105.6732968856415</v>
+        <v>-20.94840270705143</v>
       </c>
       <c r="RN3" t="n">
-        <v>-105.7945008349907</v>
+        <v>-20.9309498494558</v>
       </c>
       <c r="RO3" t="n">
-        <v>-106.0225852199057</v>
+        <v>-20.9192427075048</v>
       </c>
       <c r="RP3" t="n">
-        <v>-105.9764161037623</v>
+        <v>-21.04560562193556</v>
       </c>
       <c r="RQ3" t="n">
-        <v>-106.0689451658536</v>
+        <v>-21.04419122237272</v>
       </c>
       <c r="RR3" t="n">
-        <v>-106.3001052188542</v>
+        <v>-21.00984101965338</v>
       </c>
       <c r="RS3" t="n">
-        <v>-106.4222013661654</v>
+        <v>-21.00054869722106</v>
       </c>
       <c r="RT3" t="n">
-        <v>-106.4650221399994</v>
+        <v>-20.98630722624603</v>
       </c>
       <c r="RU3" t="n">
-        <v>-106.6006638784474</v>
+        <v>-20.94896970079203</v>
       </c>
       <c r="RV3" t="n">
-        <v>-106.5995585871796</v>
+        <v>-21.06896528579103</v>
       </c>
       <c r="RW3" t="n">
-        <v>-106.5182179881873</v>
+        <v>-21.04102364998707</v>
       </c>
       <c r="RX3" t="n">
-        <v>-106.5766790569354</v>
+        <v>-21.00729488327758</v>
       </c>
       <c r="RY3" t="n">
-        <v>-106.3038779325283</v>
+        <v>-20.9540905628357</v>
       </c>
       <c r="RZ3" t="n">
-        <v>-106.1420229248865</v>
+        <v>-20.90286357058895</v>
       </c>
       <c r="SA3" t="n">
-        <v>-106.2294465628767</v>
+        <v>-20.85838258778004</v>
       </c>
       <c r="SB3" t="n">
-        <v>-106.378734877749</v>
+        <v>-20.87529486803383</v>
       </c>
       <c r="SC3" t="n">
-        <v>-106.4308764481677</v>
+        <v>-20.92620935345717</v>
       </c>
       <c r="SD3" t="n">
-        <v>-106.5134357986584</v>
+        <v>-20.92715729572283</v>
       </c>
       <c r="SE3" t="n">
-        <v>-106.540527526315</v>
+        <v>-20.90326358961455</v>
       </c>
       <c r="SF3" t="n">
-        <v>-106.6533687136742</v>
+        <v>-20.88161872790452</v>
       </c>
       <c r="SG3" t="n">
-        <v>-106.640141522563</v>
+        <v>-21.00377619584745</v>
       </c>
     </row>
   </sheetData>

--- a/software/testing/CV/combined-UI/output.xlsx
+++ b/software/testing/CV/combined-UI/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:YQ3"/>
+  <dimension ref="A1:AEE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2432,2008 +2432,2872 @@
       <c r="YQ1" s="1" t="n">
         <v>665</v>
       </c>
+      <c r="YR1" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="YS1" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="YT1" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="YU1" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="YV1" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="YW1" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="YX1" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="YY1" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="YZ1" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="ZA1" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="ZB1" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="ZC1" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="ZD1" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="ZE1" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="ZF1" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="ZG1" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="ZH1" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="ZI1" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="ZJ1" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="ZK1" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="ZL1" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="ZM1" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="ZN1" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="ZO1" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="ZP1" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="ZQ1" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="ZR1" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="ZS1" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="ZT1" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="ZU1" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="ZV1" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="ZW1" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="ZX1" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="ZY1" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="ZZ1" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="AAA1" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="AAB1" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="AAC1" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="AAD1" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="AAE1" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="AAF1" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="AAG1" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="AAH1" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="AAI1" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="AAJ1" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="AAK1" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="AAL1" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="AAM1" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="AAN1" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="AAO1" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="AAP1" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="AAQ1" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="AAR1" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="AAS1" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="AAT1" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="AAU1" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="AAV1" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="AAW1" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="AAX1" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="AAY1" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="AAZ1" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="ABA1" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="ABB1" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="ABC1" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="ABD1" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="ABE1" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="ABF1" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="ABG1" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="ABH1" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="ABI1" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="ABJ1" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="ABK1" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="ABL1" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="ABM1" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="ABN1" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="ABO1" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="ABP1" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="ABQ1" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="ABR1" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="ABS1" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="ABT1" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="ABU1" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="ABV1" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="ABW1" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="ABX1" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="ABY1" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="ABZ1" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="ACA1" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="ACB1" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="ACC1" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="ACD1" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="ACE1" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="ACF1" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="ACG1" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="ACH1" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="ACI1" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="ACJ1" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="ACK1" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="ACL1" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="ACM1" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="ACN1" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="ACO1" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="ACP1" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="ACQ1" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="ACR1" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="ACS1" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="ACT1" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="ACU1" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="ACV1" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="ACW1" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="ACX1" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="ACY1" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="ACZ1" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="ADA1" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="ADB1" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="ADC1" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="ADD1" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="ADE1" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="ADF1" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="ADG1" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="ADH1" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="ADI1" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="ADJ1" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="ADK1" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="ADL1" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="ADM1" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="ADN1" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="ADO1" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="ADP1" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="ADQ1" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="ADR1" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="ADS1" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="ADT1" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="ADU1" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="ADV1" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="ADW1" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="ADX1" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="ADY1" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="ADZ1" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="AEA1" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="AEB1" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="AEC1" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="AED1" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="AEE1" s="1" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-222.2914245545713</v>
+        <v>176.3621735935815</v>
       </c>
       <c r="C2" t="n">
-        <v>-222.2914245545713</v>
+        <v>176.3621735935815</v>
       </c>
       <c r="D2" t="n">
-        <v>-303.940844670243</v>
+        <v>242.7295091711385</v>
       </c>
       <c r="E2" t="n">
-        <v>-303.940844670243</v>
+        <v>242.7295091711385</v>
       </c>
       <c r="F2" t="n">
-        <v>-353.0703741164411</v>
+        <v>281.6296878874288</v>
       </c>
       <c r="G2" t="n">
-        <v>-353.0703741164411</v>
+        <v>281.6296878874288</v>
       </c>
       <c r="H2" t="n">
-        <v>-390.1516346471644</v>
+        <v>312.1949990623393</v>
       </c>
       <c r="I2" t="n">
-        <v>-390.1516346471644</v>
+        <v>312.1949990623393</v>
       </c>
       <c r="J2" t="n">
-        <v>-407.3387387418728</v>
+        <v>335.8065899254549</v>
       </c>
       <c r="K2" t="n">
-        <v>-407.3387387418728</v>
+        <v>335.8065899254549</v>
       </c>
       <c r="L2" t="n">
-        <v>-419.4089957682909</v>
+        <v>342.6582869883118</v>
       </c>
       <c r="M2" t="n">
-        <v>-419.4089957682909</v>
+        <v>342.6582869883118</v>
       </c>
       <c r="N2" t="n">
-        <v>-427.2668731752367</v>
+        <v>342.6896898379482</v>
       </c>
       <c r="O2" t="n">
-        <v>-427.2668731752367</v>
+        <v>342.6896898379482</v>
       </c>
       <c r="P2" t="n">
-        <v>-424.6657888326289</v>
+        <v>338.7988540277755</v>
       </c>
       <c r="Q2" t="n">
-        <v>-424.6657888326289</v>
+        <v>338.7988540277755</v>
       </c>
       <c r="R2" t="n">
-        <v>-427.611787153135</v>
+        <v>339.4963506894142</v>
       </c>
       <c r="S2" t="n">
-        <v>-427.611787153135</v>
+        <v>339.4963506894142</v>
       </c>
       <c r="T2" t="n">
-        <v>-426.664986819105</v>
+        <v>343.3782659224398</v>
       </c>
       <c r="U2" t="n">
-        <v>-426.664986819105</v>
+        <v>343.3782659224398</v>
       </c>
       <c r="V2" t="n">
-        <v>-426.0013750038806</v>
+        <v>341.3495557308602</v>
       </c>
       <c r="W2" t="n">
-        <v>-426.0013750038806</v>
+        <v>341.3495557308602</v>
       </c>
       <c r="X2" t="n">
-        <v>-426.5721509655484</v>
+        <v>336.4531512805547</v>
       </c>
       <c r="Y2" t="n">
-        <v>-426.5721509655484</v>
+        <v>336.4531512805547</v>
       </c>
       <c r="Z2" t="n">
-        <v>-426.6345793428351</v>
+        <v>330.3849838642845</v>
       </c>
       <c r="AA2" t="n">
-        <v>-426.6345793428351</v>
+        <v>330.3849838642845</v>
       </c>
       <c r="AB2" t="n">
-        <v>-426.9632111769735</v>
+        <v>327.0343195965793</v>
       </c>
       <c r="AC2" t="n">
-        <v>-426.9632111769735</v>
+        <v>327.0343195965793</v>
       </c>
       <c r="AD2" t="n">
-        <v>-425.0074548417243</v>
+        <v>324.1181287666249</v>
       </c>
       <c r="AE2" t="n">
-        <v>-425.0074548417243</v>
+        <v>324.1181287666249</v>
       </c>
       <c r="AF2" t="n">
-        <v>-423.2743835179744</v>
+        <v>321.4231523750053</v>
       </c>
       <c r="AG2" t="n">
-        <v>-423.2743835179744</v>
+        <v>321.4231523750053</v>
       </c>
       <c r="AH2" t="n">
-        <v>-421.5734332354958</v>
+        <v>317.1925769913997</v>
       </c>
       <c r="AI2" t="n">
-        <v>-421.5734332354958</v>
+        <v>317.1925769913997</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-420.0594703820419</v>
+        <v>313.7704478039069</v>
       </c>
       <c r="AK2" t="n">
-        <v>-420.0594703820419</v>
+        <v>313.7704478039069</v>
       </c>
       <c r="AL2" t="n">
-        <v>-418.6166158459917</v>
+        <v>311.4385641899699</v>
       </c>
       <c r="AM2" t="n">
-        <v>-418.6166158459917</v>
+        <v>311.4385641899699</v>
       </c>
       <c r="AN2" t="n">
-        <v>-417.2914120801946</v>
+        <v>309.4151066496019</v>
       </c>
       <c r="AO2" t="n">
-        <v>-417.2914120801946</v>
+        <v>309.4151066496019</v>
       </c>
       <c r="AP2" t="n">
-        <v>-416.0342884888529</v>
+        <v>306.2816312264791</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-416.0342884888529</v>
+        <v>306.2816312264791</v>
       </c>
       <c r="AR2" t="n">
-        <v>-414.8801681175506</v>
+        <v>304.9540553589617</v>
       </c>
       <c r="AS2" t="n">
-        <v>-414.8801681175506</v>
+        <v>304.9540553589617</v>
       </c>
       <c r="AT2" t="n">
-        <v>-413.8814474261612</v>
+        <v>303.7882486375863</v>
       </c>
       <c r="AU2" t="n">
-        <v>-413.8814474261612</v>
+        <v>303.7882486375863</v>
       </c>
       <c r="AV2" t="n">
-        <v>-413.9726394507835</v>
+        <v>301.5217685883637</v>
       </c>
       <c r="AW2" t="n">
-        <v>-413.9726394507835</v>
+        <v>301.5217685883637</v>
       </c>
       <c r="AX2" t="n">
-        <v>-413.0912997474813</v>
+        <v>300.266151732699</v>
       </c>
       <c r="AY2" t="n">
-        <v>-413.0912997474813</v>
+        <v>300.266151732699</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-412.2024101032814</v>
+        <v>298.7580033844702</v>
       </c>
       <c r="BA2" t="n">
-        <v>-412.2024101032814</v>
+        <v>298.7580033844702</v>
       </c>
       <c r="BB2" t="n">
-        <v>-411.972864474432</v>
+        <v>298.9093151733258</v>
       </c>
       <c r="BC2" t="n">
-        <v>-411.972864474432</v>
+        <v>298.9093151733258</v>
       </c>
       <c r="BD2" t="n">
-        <v>-411.162642668344</v>
+        <v>296.9176915263899</v>
       </c>
       <c r="BE2" t="n">
-        <v>-411.162642668344</v>
+        <v>296.9176915263899</v>
       </c>
       <c r="BF2" t="n">
-        <v>-410.3721488737562</v>
+        <v>297.2856492760593</v>
       </c>
       <c r="BG2" t="n">
-        <v>-410.3721488737562</v>
+        <v>297.2856492760593</v>
       </c>
       <c r="BH2" t="n">
-        <v>-409.736675853179</v>
+        <v>297.6152142334876</v>
       </c>
       <c r="BI2" t="n">
-        <v>-409.736675853179</v>
+        <v>297.6152142334876</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-409.200365715014</v>
+        <v>297.8659490481535</v>
       </c>
       <c r="BK2" t="n">
-        <v>-409.200365715014</v>
+        <v>297.8659490481535</v>
       </c>
       <c r="BL2" t="n">
-        <v>-408.777011875792</v>
+        <v>298.0513070438345</v>
       </c>
       <c r="BM2" t="n">
-        <v>-408.777011875792</v>
+        <v>298.0513070438345</v>
       </c>
       <c r="BN2" t="n">
-        <v>-408.3819647073368</v>
+        <v>297.1466890907999</v>
       </c>
       <c r="BO2" t="n">
-        <v>-408.3819647073368</v>
+        <v>297.1466890907999</v>
       </c>
       <c r="BP2" t="n">
-        <v>-408.282476333395</v>
+        <v>296.3260334758882</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-408.282476333395</v>
+        <v>296.3260334758882</v>
       </c>
       <c r="BR2" t="n">
-        <v>-407.9151634933414</v>
+        <v>295.7336640526975</v>
       </c>
       <c r="BS2" t="n">
-        <v>-407.9151634933414</v>
+        <v>295.7336640526975</v>
       </c>
       <c r="BT2" t="n">
-        <v>-407.8460691022364</v>
+        <v>295.2280041380452</v>
       </c>
       <c r="BU2" t="n">
-        <v>-407.8460691022364</v>
+        <v>295.2280041380452</v>
       </c>
       <c r="BV2" t="n">
-        <v>-407.7646030620684</v>
+        <v>294.767075079162</v>
       </c>
       <c r="BW2" t="n">
-        <v>-407.7646030620684</v>
+        <v>294.767075079162</v>
       </c>
       <c r="BX2" t="n">
-        <v>-407.6753091945233</v>
+        <v>294.6569723103981</v>
       </c>
       <c r="BY2" t="n">
-        <v>-407.6753091945233</v>
+        <v>294.6569723103981</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-407.3342051879061</v>
+        <v>294.5578169564916</v>
       </c>
       <c r="CA2" t="n">
-        <v>-407.3342051879061</v>
+        <v>294.5578169564916</v>
       </c>
       <c r="CB2" t="n">
-        <v>-407.0037108844979</v>
+        <v>294.9315684812759</v>
       </c>
       <c r="CC2" t="n">
-        <v>-407.0037108844979</v>
+        <v>294.9315684812759</v>
       </c>
       <c r="CD2" t="n">
-        <v>-407.1159790623257</v>
+        <v>295.2755935927958</v>
       </c>
       <c r="CE2" t="n">
-        <v>-407.1159790623257</v>
+        <v>295.2755935927958</v>
       </c>
       <c r="CF2" t="n">
-        <v>-407.2333954855125</v>
+        <v>295.3174786808753</v>
       </c>
       <c r="CG2" t="n">
-        <v>-407.2333954855125</v>
+        <v>295.3174786808753</v>
       </c>
       <c r="CH2" t="n">
-        <v>-407.3107745835459</v>
+        <v>294.8400470244389</v>
       </c>
       <c r="CI2" t="n">
-        <v>-407.3107745835459</v>
+        <v>294.8400470244389</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-407.3342329079346</v>
+        <v>294.3692747114606</v>
       </c>
       <c r="CK2" t="n">
-        <v>-407.3342329079346</v>
+        <v>294.3692747114606</v>
       </c>
       <c r="CL2" t="n">
-        <v>-407.352200635086</v>
+        <v>293.8613836916847</v>
       </c>
       <c r="CM2" t="n">
-        <v>-407.352200635086</v>
+        <v>293.8613836916847</v>
       </c>
       <c r="CN2" t="n">
-        <v>-406.727864258684</v>
+        <v>293.8237166679449</v>
       </c>
       <c r="CO2" t="n">
-        <v>-406.727864258684</v>
+        <v>293.8237166679449</v>
       </c>
       <c r="CP2" t="n">
-        <v>-407.0317167656496</v>
+        <v>293.7909434527279</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-407.0317167656496</v>
+        <v>293.7909434527279</v>
       </c>
       <c r="CR2" t="n">
-        <v>-407.3031389450776</v>
+        <v>293.6325584173015</v>
       </c>
       <c r="CS2" t="n">
-        <v>-407.3031389450776</v>
+        <v>293.6325584173015</v>
       </c>
       <c r="CT2" t="n">
-        <v>-407.6508147757149</v>
+        <v>294.4571480461098</v>
       </c>
       <c r="CU2" t="n">
-        <v>-407.6508147757149</v>
+        <v>294.4571480461098</v>
       </c>
       <c r="CV2" t="n">
-        <v>-407.3516235917853</v>
+        <v>294.0138733308278</v>
       </c>
       <c r="CW2" t="n">
-        <v>-407.3516235917853</v>
+        <v>294.0138733308278</v>
       </c>
       <c r="CX2" t="n">
-        <v>-406.6327684341537</v>
+        <v>293.6977441330806</v>
       </c>
       <c r="CY2" t="n">
-        <v>-406.6327684341537</v>
+        <v>293.6977441330806</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-406.1457241394507</v>
+        <v>294.0702664487741</v>
       </c>
       <c r="DA2" t="n">
-        <v>-406.1457241394507</v>
+        <v>294.0702664487741</v>
       </c>
       <c r="DB2" t="n">
-        <v>-405.6433438134602</v>
+        <v>293.6616194673269</v>
       </c>
       <c r="DC2" t="n">
-        <v>-405.6433438134602</v>
+        <v>293.6616194673269</v>
       </c>
       <c r="DD2" t="n">
-        <v>-405.1774331052806</v>
+        <v>293.2778185201126</v>
       </c>
       <c r="DE2" t="n">
-        <v>-405.1774331052806</v>
+        <v>293.2778185201126</v>
       </c>
       <c r="DF2" t="n">
-        <v>-404.7268805361354</v>
+        <v>293.2922794063385</v>
       </c>
       <c r="DG2" t="n">
-        <v>-404.7268805361354</v>
+        <v>293.2922794063385</v>
       </c>
       <c r="DH2" t="n">
-        <v>-404.3199586206214</v>
+        <v>292.5576733968613</v>
       </c>
       <c r="DI2" t="n">
-        <v>-404.3199586206214</v>
+        <v>292.5576733968613</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-404.1694416887742</v>
+        <v>291.864240767237</v>
       </c>
       <c r="DK2" t="n">
-        <v>-404.1694416887742</v>
+        <v>291.864240767237</v>
       </c>
       <c r="DL2" t="n">
-        <v>-403.9650132598067</v>
+        <v>291.9134010612884</v>
       </c>
       <c r="DM2" t="n">
-        <v>-403.9650132598067</v>
+        <v>291.9134010612884</v>
       </c>
       <c r="DN2" t="n">
-        <v>-403.8214495588967</v>
+        <v>291.982108744112</v>
       </c>
       <c r="DO2" t="n">
-        <v>-403.8214495588967</v>
+        <v>291.982108744112</v>
       </c>
       <c r="DP2" t="n">
-        <v>-403.6429968952424</v>
+        <v>291.7148682841257</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-403.6429968952424</v>
+        <v>291.7148682841257</v>
       </c>
       <c r="DR2" t="n">
-        <v>-403.4762651088654</v>
+        <v>292.2140933012845</v>
       </c>
       <c r="DS2" t="n">
-        <v>-403.4762651088654</v>
+        <v>292.2140933012845</v>
       </c>
       <c r="DT2" t="n">
-        <v>-405.052328690032</v>
+        <v>292.3067291603496</v>
       </c>
       <c r="DU2" t="n">
-        <v>-405.052328690032</v>
+        <v>292.3067291603496</v>
       </c>
       <c r="DV2" t="n">
-        <v>-403.1200548964084</v>
+        <v>292.7481628612649</v>
       </c>
       <c r="DW2" t="n">
-        <v>-403.1200548964084</v>
+        <v>292.7481628612649</v>
       </c>
       <c r="DX2" t="n">
-        <v>-401.2688203651501</v>
+        <v>293.1721567368749</v>
       </c>
       <c r="DY2" t="n">
-        <v>-401.2688203651501</v>
+        <v>293.1721567368749</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-400.8539168434462</v>
+        <v>293.1590897656773</v>
       </c>
       <c r="EA2" t="n">
-        <v>-400.8539168434462</v>
+        <v>293.1590897656773</v>
       </c>
       <c r="EB2" t="n">
-        <v>-401.1262113862328</v>
+        <v>293.5256171357082</v>
       </c>
       <c r="EC2" t="n">
-        <v>-401.1262113862328</v>
+        <v>293.5256171357082</v>
       </c>
       <c r="ED2" t="n">
-        <v>-401.9310735592119</v>
+        <v>293.2345284230777</v>
       </c>
       <c r="EE2" t="n">
-        <v>-401.9310735592119</v>
+        <v>293.2345284230777</v>
       </c>
       <c r="EF2" t="n">
-        <v>-402.6974234779076</v>
+        <v>292.9840320186714</v>
       </c>
       <c r="EG2" t="n">
-        <v>-402.6974234779076</v>
+        <v>292.9840320186714</v>
       </c>
       <c r="EH2" t="n">
-        <v>-402.4798208668923</v>
+        <v>292.6850141527537</v>
       </c>
       <c r="EI2" t="n">
-        <v>-402.4798208668923</v>
+        <v>292.6850141527537</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-401.9903466011228</v>
+        <v>292.341010369451</v>
       </c>
       <c r="EK2" t="n">
-        <v>-401.9903466011228</v>
+        <v>292.341010369451</v>
       </c>
       <c r="EL2" t="n">
-        <v>-401.42644416204</v>
+        <v>292.0136602663408</v>
       </c>
       <c r="EM2" t="n">
-        <v>-401.42644416204</v>
+        <v>292.0136602663408</v>
       </c>
       <c r="EN2" t="n">
-        <v>-401.0610254252808</v>
+        <v>292.4408871840189</v>
       </c>
       <c r="EO2" t="n">
-        <v>-401.0610254252808</v>
+        <v>292.4408871840189</v>
       </c>
       <c r="EP2" t="n">
-        <v>-400.7775029720081</v>
+        <v>292.4570364869945</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-400.7775029720081</v>
+        <v>292.4570364869945</v>
       </c>
       <c r="ER2" t="n">
-        <v>-400.4311299475484</v>
+        <v>292.4748140507767</v>
       </c>
       <c r="ES2" t="n">
-        <v>-400.4311299475484</v>
+        <v>292.4748140507767</v>
       </c>
       <c r="ET2" t="n">
-        <v>-400.2243810351878</v>
+        <v>291.9231020167501</v>
       </c>
       <c r="EU2" t="n">
-        <v>-400.2243810351878</v>
+        <v>291.9231020167501</v>
       </c>
       <c r="EV2" t="n">
-        <v>-399.9278366679638</v>
+        <v>291.6665670078792</v>
       </c>
       <c r="EW2" t="n">
-        <v>-399.9278366679638</v>
+        <v>291.6665670078792</v>
       </c>
       <c r="EX2" t="n">
-        <v>-399.6444296537268</v>
+        <v>291.1707144754902</v>
       </c>
       <c r="EY2" t="n">
-        <v>-399.6444296537268</v>
+        <v>291.1707144754902</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-399.3196197815162</v>
+        <v>290.9919820825903</v>
       </c>
       <c r="FA2" t="n">
-        <v>-399.3196197815162</v>
+        <v>290.9919820825903</v>
       </c>
       <c r="FB2" t="n">
-        <v>-399.0068587680227</v>
+        <v>291.2658504558392</v>
       </c>
       <c r="FC2" t="n">
-        <v>-399.0068587680227</v>
+        <v>291.2658504558392</v>
       </c>
       <c r="FD2" t="n">
-        <v>-398.7132196553578</v>
+        <v>291.1638125930745</v>
       </c>
       <c r="FE2" t="n">
-        <v>-398.7132196553578</v>
+        <v>291.1638125930745</v>
       </c>
       <c r="FF2" t="n">
-        <v>-398.5277606584542</v>
+        <v>291.0688308953839</v>
       </c>
       <c r="FG2" t="n">
-        <v>-398.5277606584542</v>
+        <v>291.0688308953839</v>
       </c>
       <c r="FH2" t="n">
-        <v>-398.2928710976478</v>
+        <v>290.5836643655632</v>
       </c>
       <c r="FI2" t="n">
-        <v>-398.2928710976478</v>
+        <v>290.5836643655632</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-398.0695543928209</v>
+        <v>290.6960151114266</v>
       </c>
       <c r="FK2" t="n">
-        <v>-398.0695543928209</v>
+        <v>290.6960151114266</v>
       </c>
       <c r="FL2" t="n">
-        <v>-397.6074498369335</v>
+        <v>290.5117532144686</v>
       </c>
       <c r="FM2" t="n">
-        <v>-397.6074498369335</v>
+        <v>290.5117532144686</v>
       </c>
       <c r="FN2" t="n">
-        <v>-397.2296448263335</v>
+        <v>290.0599256541434</v>
       </c>
       <c r="FO2" t="n">
-        <v>-397.2296448263335</v>
+        <v>290.0599256541434</v>
       </c>
       <c r="FP2" t="n">
-        <v>-396.867965115526</v>
+        <v>290.7110744292399</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-396.867965115526</v>
+        <v>290.7110744292399</v>
       </c>
       <c r="FR2" t="n">
-        <v>-396.9371972282445</v>
+        <v>290.6092425325975</v>
       </c>
       <c r="FS2" t="n">
-        <v>-396.9371972282445</v>
+        <v>290.6092425325975</v>
       </c>
       <c r="FT2" t="n">
-        <v>-397.0064017766004</v>
+        <v>290.7618584257358</v>
       </c>
       <c r="FU2" t="n">
-        <v>-397.0064017766004</v>
+        <v>290.7618584257358</v>
       </c>
       <c r="FV2" t="n">
-        <v>-397.079849649642</v>
+        <v>290.9117293136256</v>
       </c>
       <c r="FW2" t="n">
-        <v>-397.079849649642</v>
+        <v>290.9117293136256</v>
       </c>
       <c r="FX2" t="n">
-        <v>-396.8611575095302</v>
+        <v>291.466831366011</v>
       </c>
       <c r="FY2" t="n">
-        <v>-396.8611575095302</v>
+        <v>291.466831366011</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-396.9245934585233</v>
+        <v>292.0035074922814</v>
       </c>
       <c r="GA2" t="n">
-        <v>-396.9245934585233</v>
+        <v>292.0035074922814</v>
       </c>
       <c r="GB2" t="n">
-        <v>-396.5822342631276</v>
+        <v>292.5714536225682</v>
       </c>
       <c r="GC2" t="n">
-        <v>-396.5822342631276</v>
+        <v>292.5714536225682</v>
       </c>
       <c r="GD2" t="n">
-        <v>-396.700800417073</v>
+        <v>293.119001534393</v>
       </c>
       <c r="GE2" t="n">
-        <v>-396.700800417073</v>
+        <v>293.119001534393</v>
       </c>
       <c r="GF2" t="n">
-        <v>-396.4065964997271</v>
+        <v>293.1734266892368</v>
       </c>
       <c r="GG2" t="n">
-        <v>-396.4065964997271</v>
+        <v>293.1734266892368</v>
       </c>
       <c r="GH2" t="n">
-        <v>-396.1256107034093</v>
+        <v>293.1976959331215</v>
       </c>
       <c r="GI2" t="n">
-        <v>-396.1256107034093</v>
+        <v>293.1976959331215</v>
       </c>
       <c r="GJ2" t="n">
-        <v>-396.0422759072485</v>
+        <v>293.2204108411744</v>
       </c>
       <c r="GK2" t="n">
-        <v>-396.0422759072485</v>
+        <v>293.2204108411744</v>
       </c>
       <c r="GL2" t="n">
-        <v>-395.9776180837216</v>
+        <v>292.9922653897567</v>
       </c>
       <c r="GM2" t="n">
-        <v>-395.9776180837216</v>
+        <v>292.9922653897567</v>
       </c>
       <c r="GN2" t="n">
-        <v>-395.8791970475692</v>
+        <v>292.7719718867156</v>
       </c>
       <c r="GO2" t="n">
-        <v>-395.8791970475692</v>
+        <v>292.7719718867156</v>
       </c>
       <c r="GP2" t="n">
-        <v>-395.6529369210484</v>
+        <v>292.8291046691954</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-395.6529369210484</v>
+        <v>292.8291046691954</v>
       </c>
       <c r="GR2" t="n">
-        <v>-395.5338410852544</v>
+        <v>292.6240028428774</v>
       </c>
       <c r="GS2" t="n">
-        <v>-395.5338410852544</v>
+        <v>292.6240028428774</v>
       </c>
       <c r="GT2" t="n">
-        <v>-395.5214118256604</v>
+        <v>292.7495351338189</v>
       </c>
       <c r="GU2" t="n">
-        <v>-395.5214118256604</v>
+        <v>292.7495351338189</v>
       </c>
       <c r="GV2" t="n">
-        <v>-395.4216934825329</v>
+        <v>292.5782042078064</v>
       </c>
       <c r="GW2" t="n">
-        <v>-395.4216934825329</v>
+        <v>292.5782042078064</v>
       </c>
       <c r="GX2" t="n">
-        <v>-395.3286232006263</v>
+        <v>292.6995803823225</v>
       </c>
       <c r="GY2" t="n">
-        <v>-395.3286232006263</v>
+        <v>292.6995803823225</v>
       </c>
       <c r="GZ2" t="n">
-        <v>-395.496683303663</v>
+        <v>292.8070144427056</v>
       </c>
       <c r="HA2" t="n">
-        <v>-395.496683303663</v>
+        <v>292.8070144427056</v>
       </c>
       <c r="HB2" t="n">
-        <v>-395.2794028397659</v>
+        <v>292.9104864109371</v>
       </c>
       <c r="HC2" t="n">
-        <v>-395.2794028397659</v>
+        <v>292.9104864109371</v>
       </c>
       <c r="HD2" t="n">
-        <v>-395.252242707184</v>
+        <v>292.9551470986955</v>
       </c>
       <c r="HE2" t="n">
-        <v>-395.252242707184</v>
+        <v>292.9551470986955</v>
       </c>
       <c r="HF2" t="n">
-        <v>-395.2849924131395</v>
+        <v>293.4231902690989</v>
       </c>
       <c r="HG2" t="n">
-        <v>-395.2849924131395</v>
+        <v>293.4231902690989</v>
       </c>
       <c r="HH2" t="n">
-        <v>-395.106250222322</v>
+        <v>293.2877476146195</v>
       </c>
       <c r="HI2" t="n">
-        <v>-395.106250222322</v>
+        <v>293.2877476146195</v>
       </c>
       <c r="HJ2" t="n">
-        <v>-395.0650429851873</v>
+        <v>293.3323823120134</v>
       </c>
       <c r="HK2" t="n">
-        <v>-395.0650429851873</v>
+        <v>293.3323823120134</v>
       </c>
       <c r="HL2" t="n">
-        <v>-395.0281063789084</v>
+        <v>293.0896754615516</v>
       </c>
       <c r="HM2" t="n">
-        <v>-395.0281063789084</v>
+        <v>293.0896754615516</v>
       </c>
       <c r="HN2" t="n">
-        <v>-395.0611927728061</v>
+        <v>293.1634953833778</v>
       </c>
       <c r="HO2" t="n">
-        <v>-395.0611927728061</v>
+        <v>293.1634953833778</v>
       </c>
       <c r="HP2" t="n">
-        <v>-395.0956789782065</v>
+        <v>288.993873830351</v>
       </c>
       <c r="HQ2" t="n">
-        <v>-395.0956789782065</v>
+        <v>288.993873830351</v>
       </c>
       <c r="HR2" t="n">
-        <v>-395.0207337022828</v>
+        <v>288.9856024198348</v>
       </c>
       <c r="HS2" t="n">
-        <v>-395.0207337022828</v>
+        <v>288.9856024198348</v>
       </c>
       <c r="HT2" t="n">
-        <v>-395.0514786630009</v>
+        <v>288.9825940498744</v>
       </c>
       <c r="HU2" t="n">
-        <v>-395.0514786630009</v>
+        <v>288.9825940498744</v>
       </c>
       <c r="HV2" t="n">
-        <v>-395.0597296268743</v>
+        <v>289.1336534693956</v>
       </c>
       <c r="HW2" t="n">
-        <v>-395.0597296268743</v>
+        <v>289.1336534693956</v>
       </c>
       <c r="HX2" t="n">
-        <v>-394.8768428231165</v>
+        <v>289.2836864637541</v>
       </c>
       <c r="HY2" t="n">
-        <v>-394.8768428231165</v>
+        <v>289.2836864637541</v>
       </c>
       <c r="HZ2" t="n">
-        <v>-394.8760503908821</v>
+        <v>289.4676241792944</v>
       </c>
       <c r="IA2" t="n">
-        <v>-394.8760503908821</v>
+        <v>289.4676241792944</v>
       </c>
       <c r="IB2" t="n">
-        <v>-394.9065487112641</v>
+        <v>289.7403528729574</v>
       </c>
       <c r="IC2" t="n">
-        <v>-394.9065487112641</v>
+        <v>289.7403528729574</v>
       </c>
       <c r="ID2" t="n">
-        <v>-394.9389279580605</v>
+        <v>289.9729076749487</v>
       </c>
       <c r="IE2" t="n">
-        <v>-394.9389279580605</v>
+        <v>289.9729076749487</v>
       </c>
       <c r="IF2" t="n">
-        <v>-394.9721900514394</v>
+        <v>290.5596733380757</v>
       </c>
       <c r="IG2" t="n">
-        <v>-394.9721900514394</v>
+        <v>290.5596733380757</v>
       </c>
       <c r="IH2" t="n">
-        <v>-395.0009050364494</v>
+        <v>290.7274037860682</v>
       </c>
       <c r="II2" t="n">
-        <v>-395.0009050364494</v>
+        <v>290.7274037860682</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-395.0149666891656</v>
+        <v>290.9172195518982</v>
       </c>
       <c r="IK2" t="n">
-        <v>-395.0149666891656</v>
+        <v>290.9172195518982</v>
       </c>
       <c r="IL2" t="n">
-        <v>-395.0538936899028</v>
+        <v>291.1014319614645</v>
       </c>
       <c r="IM2" t="n">
-        <v>-395.0538936899028</v>
+        <v>291.1014319614645</v>
       </c>
       <c r="IN2" t="n">
-        <v>-395.2575831096558</v>
+        <v>291.2802434018298</v>
       </c>
       <c r="IO2" t="n">
-        <v>-395.2575831096558</v>
+        <v>291.2802434018298</v>
       </c>
       <c r="IP2" t="n">
-        <v>-395.2625648477808</v>
+        <v>291.209969735986</v>
       </c>
       <c r="IQ2" t="n">
-        <v>-395.2625648477808</v>
+        <v>291.209969735986</v>
       </c>
       <c r="IR2" t="n">
-        <v>-395.2782927733113</v>
+        <v>291.1429465192787</v>
       </c>
       <c r="IS2" t="n">
-        <v>-395.2782927733113</v>
+        <v>291.1429465192787</v>
       </c>
       <c r="IT2" t="n">
-        <v>-395.3243302356812</v>
+        <v>291.3742493521033</v>
       </c>
       <c r="IU2" t="n">
-        <v>-395.3243302356812</v>
+        <v>291.3742493521033</v>
       </c>
       <c r="IV2" t="n">
-        <v>-395.5224596113819</v>
+        <v>291.1856516858374</v>
       </c>
       <c r="IW2" t="n">
-        <v>-395.5224596113819</v>
+        <v>291.1856516858374</v>
       </c>
       <c r="IX2" t="n">
-        <v>-395.5558127904974</v>
+        <v>291.7677587577415</v>
       </c>
       <c r="IY2" t="n">
-        <v>-395.5558127904974</v>
+        <v>291.7677587577415</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-395.3536352796606</v>
+        <v>291.6623229007754</v>
       </c>
       <c r="JA2" t="n">
-        <v>-395.3536352796606</v>
+        <v>291.6623229007754</v>
       </c>
       <c r="JB2" t="n">
-        <v>-395.1596468408035</v>
+        <v>291.6173700229141</v>
       </c>
       <c r="JC2" t="n">
-        <v>-395.1596468408035</v>
+        <v>291.6173700229141</v>
       </c>
       <c r="JD2" t="n">
-        <v>-396.7810943672217</v>
+        <v>291.5847929005037</v>
       </c>
       <c r="JE2" t="n">
-        <v>-396.7810943672217</v>
+        <v>291.5847929005037</v>
       </c>
       <c r="JF2" t="n">
-        <v>-397.5537196778077</v>
+        <v>291.5535111962502</v>
       </c>
       <c r="JG2" t="n">
-        <v>-397.5537196778077</v>
+        <v>291.5535111962502</v>
       </c>
       <c r="JH2" t="n">
-        <v>-397.9785109887271</v>
+        <v>291.4824917538029</v>
       </c>
       <c r="JI2" t="n">
-        <v>-397.9785109887271</v>
+        <v>291.4824917538029</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-398.2456483768941</v>
+        <v>291.4142753172813</v>
       </c>
       <c r="JK2" t="n">
-        <v>-398.2456483768941</v>
+        <v>291.4142753172813</v>
       </c>
       <c r="JL2" t="n">
-        <v>-398.2869745416102</v>
+        <v>291.7023240926495</v>
       </c>
       <c r="JM2" t="n">
-        <v>-398.2869745416102</v>
+        <v>291.7023240926495</v>
       </c>
       <c r="JN2" t="n">
-        <v>-398.1451558927604</v>
+        <v>291.9799572104836</v>
       </c>
       <c r="JO2" t="n">
-        <v>-398.1451558927604</v>
+        <v>291.9799572104836</v>
       </c>
       <c r="JP2" t="n">
-        <v>-398.2123983269269</v>
+        <v>291.8376792747921</v>
       </c>
       <c r="JQ2" t="n">
-        <v>-398.2123983269269</v>
+        <v>291.8376792747921</v>
       </c>
       <c r="JR2" t="n">
-        <v>-398.0610240784754</v>
+        <v>291.9990951387788</v>
       </c>
       <c r="JS2" t="n">
-        <v>-398.0610240784754</v>
+        <v>291.9990951387788</v>
       </c>
       <c r="JT2" t="n">
-        <v>-397.9129143135124</v>
+        <v>292.206636823607</v>
       </c>
       <c r="JU2" t="n">
-        <v>-397.9129143135124</v>
+        <v>292.206636823607</v>
       </c>
       <c r="JV2" t="n">
-        <v>-398.0517302406275</v>
+        <v>291.7999058800262</v>
       </c>
       <c r="JW2" t="n">
-        <v>-398.0517302406275</v>
+        <v>291.7999058800262</v>
       </c>
       <c r="JX2" t="n">
-        <v>-397.8915770841074</v>
+        <v>291.4076601862607</v>
       </c>
       <c r="JY2" t="n">
-        <v>-397.8915770841074</v>
+        <v>291.4076601862607</v>
       </c>
       <c r="JZ2" t="n">
-        <v>-398.0095428996801</v>
+        <v>292.0055878689386</v>
       </c>
       <c r="KA2" t="n">
-        <v>-398.0095428996801</v>
+        <v>292.0055878689386</v>
       </c>
       <c r="KB2" t="n">
-        <v>-398.0432817036865</v>
+        <v>291.9633809884091</v>
       </c>
       <c r="KC2" t="n">
-        <v>-398.0432817036865</v>
+        <v>291.9633809884091</v>
       </c>
       <c r="KD2" t="n">
-        <v>-398.1312234828645</v>
+        <v>291.825251660621</v>
       </c>
       <c r="KE2" t="n">
-        <v>-398.1312234828645</v>
+        <v>291.825251660621</v>
       </c>
       <c r="KF2" t="n">
-        <v>-398.0711163039988</v>
+        <v>292.3348127271215</v>
       </c>
       <c r="KG2" t="n">
-        <v>-398.0711163039988</v>
+        <v>292.3348127271215</v>
       </c>
       <c r="KH2" t="n">
-        <v>-398.1784769797916</v>
+        <v>292.4494845429155</v>
       </c>
       <c r="KI2" t="n">
-        <v>-398.1784769797916</v>
+        <v>292.4494845429155</v>
       </c>
       <c r="KJ2" t="n">
-        <v>-398.2802070382801</v>
+        <v>292.3414886099662</v>
       </c>
       <c r="KK2" t="n">
-        <v>-398.2802070382801</v>
+        <v>292.3414886099662</v>
       </c>
       <c r="KL2" t="n">
-        <v>-398.0919201509314</v>
+        <v>292.5531503446981</v>
       </c>
       <c r="KM2" t="n">
-        <v>-398.0919201509314</v>
+        <v>292.5531503446981</v>
       </c>
       <c r="KN2" t="n">
-        <v>-398.1743798514885</v>
+        <v>292.7561934476373</v>
       </c>
       <c r="KO2" t="n">
-        <v>-398.1743798514885</v>
+        <v>292.7561934476373</v>
       </c>
       <c r="KP2" t="n">
-        <v>-397.8034887386868</v>
+        <v>293.2599429509962</v>
       </c>
       <c r="KQ2" t="n">
-        <v>-397.8034887386868</v>
+        <v>293.2599429509962</v>
       </c>
       <c r="KR2" t="n">
-        <v>-397.5125028979178</v>
+        <v>293.9122710220176</v>
       </c>
       <c r="KS2" t="n">
-        <v>-397.5125028979178</v>
+        <v>293.9122710220176</v>
       </c>
       <c r="KT2" t="n">
-        <v>-397.6021646747481</v>
+        <v>294.1151990662789</v>
       </c>
       <c r="KU2" t="n">
-        <v>-397.6021646747481</v>
+        <v>294.1151990662789</v>
       </c>
       <c r="KV2" t="n">
-        <v>-397.6892872499349</v>
+        <v>294.2087838564649</v>
       </c>
       <c r="KW2" t="n">
-        <v>-397.6892872499349</v>
+        <v>294.2087838564649</v>
       </c>
       <c r="KX2" t="n">
-        <v>-397.7724977728258</v>
+        <v>294.0516531445874</v>
       </c>
       <c r="KY2" t="n">
-        <v>-397.7724977728258</v>
+        <v>294.0516531445874</v>
       </c>
       <c r="KZ2" t="n">
-        <v>-397.6482178917926</v>
+        <v>293.5491599758756</v>
       </c>
       <c r="LA2" t="n">
-        <v>-397.6482178917926</v>
+        <v>293.5491599758756</v>
       </c>
       <c r="LB2" t="n">
-        <v>-397.7166022242325</v>
+        <v>293.3573600609299</v>
       </c>
       <c r="LC2" t="n">
-        <v>-397.7166022242325</v>
+        <v>293.3573600609299</v>
       </c>
       <c r="LD2" t="n">
-        <v>-398.0713022721185</v>
+        <v>293.6506667989344</v>
       </c>
       <c r="LE2" t="n">
-        <v>-398.0713022721185</v>
+        <v>293.6506667989344</v>
       </c>
       <c r="LF2" t="n">
-        <v>-398.638602924374</v>
+        <v>293.6782966709276</v>
       </c>
       <c r="LG2" t="n">
-        <v>-398.638602924374</v>
+        <v>293.6782966709276</v>
       </c>
       <c r="LH2" t="n">
-        <v>-397.7335987894481</v>
+        <v>293.7031625398282</v>
       </c>
       <c r="LI2" t="n">
-        <v>-397.7335987894481</v>
+        <v>293.7031625398282</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-398.4520530858733</v>
+        <v>293.7529966056635</v>
       </c>
       <c r="LK2" t="n">
-        <v>-398.4520530858733</v>
+        <v>293.7529966056635</v>
       </c>
       <c r="LL2" t="n">
-        <v>-399.1431599049877</v>
+        <v>293.5252900047855</v>
       </c>
       <c r="LM2" t="n">
-        <v>-399.1431599049877</v>
+        <v>293.5252900047855</v>
       </c>
       <c r="LN2" t="n">
-        <v>-399.8266005752728</v>
+        <v>293.318392920769</v>
       </c>
       <c r="LO2" t="n">
-        <v>-399.8266005752728</v>
+        <v>293.318392920769</v>
       </c>
       <c r="LP2" t="n">
-        <v>-399.6956882003897</v>
+        <v>292.8137301630558</v>
       </c>
       <c r="LQ2" t="n">
-        <v>-399.6956882003897</v>
+        <v>292.8137301630558</v>
       </c>
       <c r="LR2" t="n">
-        <v>-399.5435256414696</v>
+        <v>292.9151458937174</v>
       </c>
       <c r="LS2" t="n">
-        <v>-399.5435256414696</v>
+        <v>292.9151458937174</v>
       </c>
       <c r="LT2" t="n">
-        <v>-399.458595185622</v>
+        <v>292.7101824546256</v>
       </c>
       <c r="LU2" t="n">
-        <v>-399.458595185622</v>
+        <v>292.7101824546256</v>
       </c>
       <c r="LV2" t="n">
-        <v>-399.2820473190951</v>
+        <v>292.4783672806193</v>
       </c>
       <c r="LW2" t="n">
-        <v>-399.2820473190951</v>
+        <v>292.4783672806193</v>
       </c>
       <c r="LX2" t="n">
-        <v>-399.1263033497927</v>
+        <v>292.5617412736204</v>
       </c>
       <c r="LY2" t="n">
-        <v>-399.1263033497927</v>
+        <v>292.5617412736204</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-398.9743400699685</v>
+        <v>292.5953390057859</v>
       </c>
       <c r="MA2" t="n">
-        <v>-398.9743400699685</v>
+        <v>292.5953390057859</v>
       </c>
       <c r="MB2" t="n">
-        <v>-398.8271638518792</v>
+        <v>292.6277217123963</v>
       </c>
       <c r="MC2" t="n">
-        <v>-398.8271638518792</v>
+        <v>292.6277217123963</v>
       </c>
       <c r="MD2" t="n">
-        <v>-398.7121593894686</v>
+        <v>292.442503330164</v>
       </c>
       <c r="ME2" t="n">
-        <v>-398.7121593894686</v>
+        <v>292.442503330164</v>
       </c>
       <c r="MF2" t="n">
-        <v>-398.5292296909035</v>
+        <v>292.2504277365603</v>
       </c>
       <c r="MG2" t="n">
-        <v>-398.5292296909035</v>
+        <v>292.2504277365603</v>
       </c>
       <c r="MH2" t="n">
-        <v>-398.1732619112585</v>
+        <v>292.7548420937762</v>
       </c>
       <c r="MI2" t="n">
-        <v>-398.1732619112585</v>
+        <v>292.7548420937762</v>
       </c>
       <c r="MJ2" t="n">
-        <v>-398.0613331641754</v>
+        <v>292.5404348616486</v>
       </c>
       <c r="MK2" t="n">
-        <v>-398.0613331641754</v>
+        <v>292.5404348616486</v>
       </c>
       <c r="ML2" t="n">
-        <v>-397.8772321696696</v>
+        <v>292.0090728850934</v>
       </c>
       <c r="MM2" t="n">
-        <v>-397.8772321696696</v>
+        <v>292.0090728850934</v>
       </c>
       <c r="MN2" t="n">
-        <v>-397.7722051144045</v>
+        <v>292.2997936161421</v>
       </c>
       <c r="MO2" t="n">
-        <v>-397.7722051144045</v>
+        <v>292.2997936161421</v>
       </c>
       <c r="MP2" t="n">
-        <v>-397.6006586829556</v>
+        <v>292.5804216981197</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-397.6006586829556</v>
+        <v>292.5804216981197</v>
       </c>
       <c r="MR2" t="n">
-        <v>-397.4357467007088</v>
+        <v>292.6330137037459</v>
       </c>
       <c r="MS2" t="n">
-        <v>-397.4357467007088</v>
+        <v>292.6330137037459</v>
       </c>
       <c r="MT2" t="n">
-        <v>-397.3473224234206</v>
+        <v>292.6836043004586</v>
       </c>
       <c r="MU2" t="n">
-        <v>-397.3473224234206</v>
+        <v>292.6836043004586</v>
       </c>
       <c r="MV2" t="n">
-        <v>-397.2547018459463</v>
+        <v>292.7957403231949</v>
       </c>
       <c r="MW2" t="n">
-        <v>-397.2547018459463</v>
+        <v>292.7957403231949</v>
       </c>
       <c r="MX2" t="n">
-        <v>-397.1298196703218</v>
+        <v>293.3237347455527</v>
       </c>
       <c r="MY2" t="n">
-        <v>-397.1298196703218</v>
+        <v>293.3237347455527</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-397.0418278479993</v>
+        <v>293.1072547924836</v>
       </c>
       <c r="NA2" t="n">
-        <v>-397.0418278479993</v>
+        <v>293.1072547924836</v>
       </c>
       <c r="NB2" t="n">
-        <v>-396.917674562575</v>
+        <v>292.9194539414179</v>
       </c>
       <c r="NC2" t="n">
-        <v>-396.917674562575</v>
+        <v>292.9194539414179</v>
       </c>
       <c r="ND2" t="n">
-        <v>-396.8278772383036</v>
+        <v>292.7325750707884</v>
       </c>
       <c r="NE2" t="n">
-        <v>-396.8278772383036</v>
+        <v>292.7325750707884</v>
       </c>
       <c r="NF2" t="n">
-        <v>-396.7743249579082</v>
+        <v>292.8303489377346</v>
       </c>
       <c r="NG2" t="n">
-        <v>-396.7743249579082</v>
+        <v>292.8303489377346</v>
       </c>
       <c r="NH2" t="n">
-        <v>-396.724002721977</v>
+        <v>292.9243422536678</v>
       </c>
       <c r="NI2" t="n">
-        <v>-396.724002721977</v>
+        <v>292.9243422536678</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-396.6452950137841</v>
+        <v>292.4162233154163</v>
       </c>
       <c r="NK2" t="n">
-        <v>-396.6452950137841</v>
+        <v>292.4162233154163</v>
       </c>
       <c r="NL2" t="n">
-        <v>-396.3963551701285</v>
+        <v>292.3004901524146</v>
       </c>
       <c r="NM2" t="n">
-        <v>-396.3963551701285</v>
+        <v>292.3004901524146</v>
       </c>
       <c r="NN2" t="n">
-        <v>-396.3324554438572</v>
+        <v>292.2178206076293</v>
       </c>
       <c r="NO2" t="n">
-        <v>-396.3324554438572</v>
+        <v>292.2178206076293</v>
       </c>
       <c r="NP2" t="n">
-        <v>-396.2539679136868</v>
+        <v>292.0771881888987</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-396.2539679136868</v>
+        <v>292.0771881888987</v>
       </c>
       <c r="NR2" t="n">
-        <v>-396.2113596502904</v>
+        <v>291.8989412921152</v>
       </c>
       <c r="NS2" t="n">
-        <v>-396.2113596502904</v>
+        <v>291.8989412921152</v>
       </c>
       <c r="NT2" t="n">
-        <v>-396.1753658268089</v>
+        <v>292.437055766715</v>
       </c>
       <c r="NU2" t="n">
-        <v>-396.1753658268089</v>
+        <v>292.437055766715</v>
       </c>
       <c r="NV2" t="n">
-        <v>-396.1423703404368</v>
+        <v>292.9529021315038</v>
       </c>
       <c r="NW2" t="n">
-        <v>-396.1423703404368</v>
+        <v>292.9529021315038</v>
       </c>
       <c r="NX2" t="n">
-        <v>-396.820166663038</v>
+        <v>293.4497044144825</v>
       </c>
       <c r="NY2" t="n">
-        <v>-396.820166663038</v>
+        <v>293.4497044144825</v>
       </c>
       <c r="NZ2" t="n">
-        <v>-397.4743482153129</v>
+        <v>293.5272644742311</v>
       </c>
       <c r="OA2" t="n">
-        <v>-397.4743482153129</v>
+        <v>293.5272644742311</v>
       </c>
       <c r="OB2" t="n">
-        <v>-397.3796493368588</v>
+        <v>293.5216211347885</v>
       </c>
       <c r="OC2" t="n">
-        <v>-397.3796493368588</v>
+        <v>293.5216211347885</v>
       </c>
       <c r="OD2" t="n">
-        <v>-397.2763065626211</v>
+        <v>293.6948423615142</v>
       </c>
       <c r="OE2" t="n">
-        <v>-397.2763065626211</v>
+        <v>293.6948423615142</v>
       </c>
       <c r="OF2" t="n">
-        <v>-397.1713841104962</v>
+        <v>294.1602234638934</v>
       </c>
       <c r="OG2" t="n">
-        <v>-397.1713841104962</v>
+        <v>294.1602234638934</v>
       </c>
       <c r="OH2" t="n">
-        <v>-397.1211780097693</v>
+        <v>294.2269182918825</v>
       </c>
       <c r="OI2" t="n">
-        <v>-397.1211780097693</v>
+        <v>294.2269182918825</v>
       </c>
       <c r="OJ2" t="n">
-        <v>-397.0382787830744</v>
+        <v>293.9751958584265</v>
       </c>
       <c r="OK2" t="n">
-        <v>-397.0382787830744</v>
+        <v>293.9751958584265</v>
       </c>
       <c r="OL2" t="n">
-        <v>-396.9572714462109</v>
+        <v>293.7309641223673</v>
       </c>
       <c r="OM2" t="n">
-        <v>-396.9572714462109</v>
+        <v>293.7309641223673</v>
       </c>
       <c r="ON2" t="n">
-        <v>-396.8796508142833</v>
+        <v>293.7806744867367</v>
       </c>
       <c r="OO2" t="n">
-        <v>-396.8796508142833</v>
+        <v>293.7806744867367</v>
       </c>
       <c r="OP2" t="n">
-        <v>-396.8124787889906</v>
+        <v>294.5796014291673</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-396.8124787889906</v>
+        <v>294.5796014291673</v>
       </c>
       <c r="OR2" t="n">
-        <v>-396.5871153644407</v>
+        <v>295.3476388834507</v>
       </c>
       <c r="OS2" t="n">
-        <v>-396.5871153644407</v>
+        <v>295.3476388834507</v>
       </c>
       <c r="OT2" t="n">
-        <v>-397.2698064407817</v>
+        <v>295.2876006303525</v>
       </c>
       <c r="OU2" t="n">
-        <v>-397.2698064407817</v>
+        <v>295.2876006303525</v>
       </c>
       <c r="OV2" t="n">
-        <v>-397.9279542162778</v>
+        <v>295.0204644224962</v>
       </c>
       <c r="OW2" t="n">
-        <v>-397.9279542162778</v>
+        <v>295.0204644224962</v>
       </c>
       <c r="OX2" t="n">
-        <v>-397.909044105598</v>
+        <v>295.362147184269</v>
       </c>
       <c r="OY2" t="n">
-        <v>-397.909044105598</v>
+        <v>295.362147184269</v>
       </c>
       <c r="OZ2" t="n">
-        <v>-397.8440080603651</v>
+        <v>295.8445405614604</v>
       </c>
       <c r="PA2" t="n">
-        <v>-397.8440080603651</v>
+        <v>295.8445405614604</v>
       </c>
       <c r="PB2" t="n">
-        <v>-397.7680871216897</v>
+        <v>296.3062233777412</v>
       </c>
       <c r="PC2" t="n">
-        <v>-397.7680871216897</v>
+        <v>296.3062233777412</v>
       </c>
       <c r="PD2" t="n">
-        <v>-397.694283351562</v>
+        <v>296.6478776155815</v>
       </c>
       <c r="PE2" t="n">
-        <v>-397.694283351562</v>
+        <v>296.6478776155815</v>
       </c>
       <c r="PF2" t="n">
-        <v>-397.6064961029223</v>
+        <v>296.3048185498025</v>
       </c>
       <c r="PG2" t="n">
-        <v>-397.6064961029223</v>
+        <v>296.3048185498025</v>
       </c>
       <c r="PH2" t="n">
-        <v>-398.6894878336449</v>
+        <v>296.2240985684217</v>
       </c>
       <c r="PI2" t="n">
-        <v>-398.6894878336449</v>
+        <v>296.2240985684217</v>
       </c>
       <c r="PJ2" t="n">
-        <v>-398.7778926911984</v>
+        <v>295.995851530221</v>
       </c>
       <c r="PK2" t="n">
-        <v>-398.7778926911984</v>
+        <v>295.995851530221</v>
       </c>
       <c r="PL2" t="n">
-        <v>-398.587468945725</v>
+        <v>296.3293724950847</v>
       </c>
       <c r="PM2" t="n">
-        <v>-398.587468945725</v>
+        <v>296.3293724950847</v>
       </c>
       <c r="PN2" t="n">
-        <v>-398.4744299766006</v>
+        <v>295.9429916673841</v>
       </c>
       <c r="PO2" t="n">
-        <v>-398.4744299766006</v>
+        <v>295.9429916673841</v>
       </c>
       <c r="PP2" t="n">
-        <v>-398.3168039854561</v>
+        <v>295.8979772500232</v>
       </c>
       <c r="PQ2" t="n">
-        <v>-398.3168039854561</v>
+        <v>295.8979772500232</v>
       </c>
       <c r="PR2" t="n">
-        <v>-398.1987123329565</v>
+        <v>295.9940216371385</v>
       </c>
       <c r="PS2" t="n">
-        <v>-398.1987123329565</v>
+        <v>295.9940216371385</v>
       </c>
       <c r="PT2" t="n">
-        <v>-398.0479994690285</v>
+        <v>295.3109766910973</v>
       </c>
       <c r="PU2" t="n">
-        <v>-398.0479994690285</v>
+        <v>295.3109766910973</v>
       </c>
       <c r="PV2" t="n">
-        <v>-397.9378835043923</v>
+        <v>294.6509687256105</v>
       </c>
       <c r="PW2" t="n">
-        <v>-397.9378835043923</v>
+        <v>294.6509687256105</v>
       </c>
       <c r="PX2" t="n">
-        <v>-397.8396744432844</v>
+        <v>294.6949569527079</v>
       </c>
       <c r="PY2" t="n">
-        <v>-397.8396744432844</v>
+        <v>294.6949569527079</v>
       </c>
       <c r="PZ2" t="n">
-        <v>-397.7175210154809</v>
+        <v>294.6966625517135</v>
       </c>
       <c r="QA2" t="n">
-        <v>-397.7175210154809</v>
+        <v>294.6966625517135</v>
       </c>
       <c r="QB2" t="n">
-        <v>-397.6238705571488</v>
+        <v>294.3971787051214</v>
       </c>
       <c r="QC2" t="n">
-        <v>-397.6238705571488</v>
+        <v>294.3971787051214</v>
       </c>
       <c r="QD2" t="n">
-        <v>-397.3398760978578</v>
+        <v>294.729812579662</v>
       </c>
       <c r="QE2" t="n">
-        <v>-397.3398760978578</v>
+        <v>294.729812579662</v>
       </c>
       <c r="QF2" t="n">
-        <v>-397.2614179237656</v>
+        <v>295.4602106950343</v>
       </c>
       <c r="QG2" t="n">
-        <v>-397.2614179237656</v>
+        <v>295.4602106950343</v>
       </c>
       <c r="QH2" t="n">
-        <v>-397.1922022608315</v>
+        <v>295.1871766598644</v>
       </c>
       <c r="QI2" t="n">
-        <v>-397.1922022608315</v>
+        <v>295.1871766598644</v>
       </c>
       <c r="QJ2" t="n">
-        <v>-397.1045618732937</v>
+        <v>294.9228292446493</v>
       </c>
       <c r="QK2" t="n">
-        <v>-397.1045618732937</v>
+        <v>294.9228292446493</v>
       </c>
       <c r="QL2" t="n">
-        <v>-397.0405449697422</v>
+        <v>295.4979935344924</v>
       </c>
       <c r="QM2" t="n">
-        <v>-397.0405449697422</v>
+        <v>295.4979935344924</v>
       </c>
       <c r="QN2" t="n">
-        <v>-396.9795353624386</v>
+        <v>296.0510482116451</v>
       </c>
       <c r="QO2" t="n">
-        <v>-396.9795353624386</v>
+        <v>296.0510482116451</v>
       </c>
       <c r="QP2" t="n">
-        <v>-396.9026551699366</v>
+        <v>295.7987080922433</v>
       </c>
       <c r="QQ2" t="n">
-        <v>-396.9026551699366</v>
+        <v>295.7987080922433</v>
       </c>
       <c r="QR2" t="n">
-        <v>-396.8521819845676</v>
+        <v>295.8683351845081</v>
       </c>
       <c r="QS2" t="n">
-        <v>-396.8521819845676</v>
+        <v>295.8683351845081</v>
       </c>
       <c r="QT2" t="n">
-        <v>-396.8043958707353</v>
+        <v>295.9337036683557</v>
       </c>
       <c r="QU2" t="n">
-        <v>-396.8043958707353</v>
+        <v>295.9337036683557</v>
       </c>
       <c r="QV2" t="n">
-        <v>-396.7152657036856</v>
+        <v>295.5086512204063</v>
       </c>
       <c r="QW2" t="n">
-        <v>-396.7152657036856</v>
+        <v>295.5086512204063</v>
       </c>
       <c r="QX2" t="n">
-        <v>-396.6615755043767</v>
+        <v>295.1791468275846</v>
       </c>
       <c r="QY2" t="n">
-        <v>-396.6615755043767</v>
+        <v>295.1791468275846</v>
       </c>
       <c r="QZ2" t="n">
-        <v>-396.6610770237723</v>
+        <v>290.9865924764158</v>
       </c>
       <c r="RA2" t="n">
-        <v>-396.6610770237723</v>
+        <v>290.9865924764158</v>
       </c>
       <c r="RB2" t="n">
-        <v>-396.6051097007538</v>
+        <v>290.8450391949278</v>
       </c>
       <c r="RC2" t="n">
-        <v>-396.6051097007538</v>
+        <v>290.8450391949278</v>
       </c>
       <c r="RD2" t="n">
-        <v>-396.5722466268776</v>
+        <v>290.951539165366</v>
       </c>
       <c r="RE2" t="n">
-        <v>-396.5722466268776</v>
+        <v>290.951539165366</v>
       </c>
       <c r="RF2" t="n">
-        <v>-396.5301520218781</v>
+        <v>290.8477999516245</v>
       </c>
       <c r="RG2" t="n">
-        <v>-396.5301520218781</v>
+        <v>290.8477999516245</v>
       </c>
       <c r="RH2" t="n">
-        <v>-396.4817561257115</v>
+        <v>290.7133558602628</v>
       </c>
       <c r="RI2" t="n">
-        <v>-396.4817561257115</v>
+        <v>290.7133558602628</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-396.4361741414539</v>
+        <v>290.4999655846501</v>
       </c>
       <c r="RK2" t="n">
-        <v>-396.4361741414539</v>
+        <v>290.4999655846501</v>
       </c>
       <c r="RL2" t="n">
-        <v>-396.4130325021274</v>
+        <v>291.3743826131426</v>
       </c>
       <c r="RM2" t="n">
-        <v>-396.4130325021274</v>
+        <v>291.3743826131426</v>
       </c>
       <c r="RN2" t="n">
-        <v>-396.358974902747</v>
+        <v>292.2208005187018</v>
       </c>
       <c r="RO2" t="n">
-        <v>-396.358974902747</v>
+        <v>292.2208005187018</v>
       </c>
       <c r="RP2" t="n">
-        <v>-396.3607556568557</v>
+        <v>292.0189104234062</v>
       </c>
       <c r="RQ2" t="n">
-        <v>-396.3607556568557</v>
+        <v>292.0189104234062</v>
       </c>
       <c r="RR2" t="n">
-        <v>-396.3110585353226</v>
+        <v>292.1517711513187</v>
       </c>
       <c r="RS2" t="n">
-        <v>-396.3110585353226</v>
+        <v>292.1517711513187</v>
       </c>
       <c r="RT2" t="n">
-        <v>-396.2867988070531</v>
+        <v>292.3978311972095</v>
       </c>
       <c r="RU2" t="n">
-        <v>-396.2867988070531</v>
+        <v>292.3978311972095</v>
       </c>
       <c r="RV2" t="n">
-        <v>-396.2661427854695</v>
+        <v>292.0501771798698</v>
       </c>
       <c r="RW2" t="n">
-        <v>-396.2661427854695</v>
+        <v>292.0501771798698</v>
       </c>
       <c r="RX2" t="n">
-        <v>-396.2827903689595</v>
+        <v>291.9718396723636</v>
       </c>
       <c r="RY2" t="n">
-        <v>-396.2827903689595</v>
+        <v>291.9718396723636</v>
       </c>
       <c r="RZ2" t="n">
-        <v>-396.287257440249</v>
+        <v>292.3122368325029</v>
       </c>
       <c r="SA2" t="n">
-        <v>-396.287257440249</v>
+        <v>292.3122368325029</v>
       </c>
       <c r="SB2" t="n">
-        <v>-396.2925378411436</v>
+        <v>292.7594411215039</v>
       </c>
       <c r="SC2" t="n">
-        <v>-396.2925378411436</v>
+        <v>292.7594411215039</v>
       </c>
       <c r="SD2" t="n">
-        <v>-396.2907404370369</v>
+        <v>293.1914858230365</v>
       </c>
       <c r="SE2" t="n">
-        <v>-396.2907404370369</v>
+        <v>293.1914858230365</v>
       </c>
       <c r="SF2" t="n">
-        <v>-396.2622549699228</v>
+        <v>294.215704466572</v>
       </c>
       <c r="SG2" t="n">
-        <v>-396.2622549699228</v>
+        <v>294.215704466572</v>
       </c>
       <c r="SH2" t="n">
-        <v>-396.2624119971862</v>
+        <v>294.0099162015851</v>
       </c>
       <c r="SI2" t="n">
-        <v>-396.2624119971862</v>
+        <v>294.0099162015851</v>
       </c>
       <c r="SJ2" t="n">
-        <v>-396.2501211832455</v>
+        <v>293.7960943306774</v>
       </c>
       <c r="SK2" t="n">
-        <v>-396.2501211832455</v>
+        <v>293.7960943306774</v>
       </c>
       <c r="SL2" t="n">
-        <v>-396.2204555748103</v>
+        <v>293.3115632441752</v>
       </c>
       <c r="SM2" t="n">
-        <v>-396.2204555748103</v>
+        <v>293.3115632441752</v>
       </c>
       <c r="SN2" t="n">
-        <v>-396.1701237623427</v>
+        <v>293.8130509010187</v>
       </c>
       <c r="SO2" t="n">
-        <v>-396.1701237623427</v>
+        <v>293.8130509010187</v>
       </c>
       <c r="SP2" t="n">
-        <v>-396.1841741918593</v>
+        <v>293.778106739195</v>
       </c>
       <c r="SQ2" t="n">
-        <v>-396.1841741918593</v>
+        <v>293.778106739195</v>
       </c>
       <c r="SR2" t="n">
-        <v>-396.1526650657682</v>
+        <v>293.6529309772737</v>
       </c>
       <c r="SS2" t="n">
-        <v>-396.1526650657682</v>
+        <v>293.6529309772737</v>
       </c>
       <c r="ST2" t="n">
-        <v>-396.139302414439</v>
+        <v>293.2481444442668</v>
       </c>
       <c r="SU2" t="n">
-        <v>-396.139302414439</v>
+        <v>293.2481444442668</v>
       </c>
       <c r="SV2" t="n">
-        <v>-396.1226430680582</v>
+        <v>293.2965646424219</v>
       </c>
       <c r="SW2" t="n">
-        <v>-396.1226430680582</v>
+        <v>293.2965646424219</v>
       </c>
       <c r="SX2" t="n">
-        <v>-396.1074796136192</v>
+        <v>293.2656227280056</v>
       </c>
       <c r="SY2" t="n">
-        <v>-396.1074796136192</v>
+        <v>293.2656227280056</v>
       </c>
       <c r="SZ2" t="n">
-        <v>-396.7267457626883</v>
+        <v>293.4532538312284</v>
       </c>
       <c r="TA2" t="n">
-        <v>-396.7267457626883</v>
+        <v>293.4532538312284</v>
       </c>
       <c r="TB2" t="n">
-        <v>-396.7348262522364</v>
+        <v>293.2016980111983</v>
       </c>
       <c r="TC2" t="n">
-        <v>-396.7348262522364</v>
+        <v>293.2016980111983</v>
       </c>
       <c r="TD2" t="n">
-        <v>-396.724988550065</v>
+        <v>293.1430944577892</v>
       </c>
       <c r="TE2" t="n">
-        <v>-396.724988550065</v>
+        <v>293.1430944577892</v>
       </c>
       <c r="TF2" t="n">
-        <v>-396.6846822910426</v>
+        <v>293.2793875406069</v>
       </c>
       <c r="TG2" t="n">
-        <v>-396.6846822910426</v>
+        <v>293.2793875406069</v>
       </c>
       <c r="TH2" t="n">
-        <v>-396.6826907732209</v>
+        <v>293.5255351655051</v>
       </c>
       <c r="TI2" t="n">
-        <v>-396.6826907732209</v>
+        <v>293.5255351655051</v>
       </c>
       <c r="TJ2" t="n">
-        <v>-396.6743469320231</v>
+        <v>293.8088623741603</v>
       </c>
       <c r="TK2" t="n">
-        <v>-396.6743469320231</v>
+        <v>293.8088623741603</v>
       </c>
       <c r="TL2" t="n">
-        <v>-396.6855867213083</v>
+        <v>293.6686540925255</v>
       </c>
       <c r="TM2" t="n">
-        <v>-396.6855867213083</v>
+        <v>293.6686540925255</v>
       </c>
       <c r="TN2" t="n">
-        <v>-396.7022089418504</v>
+        <v>293.5936260680778</v>
       </c>
       <c r="TO2" t="n">
-        <v>-396.7022089418504</v>
+        <v>293.5936260680778</v>
       </c>
       <c r="TP2" t="n">
-        <v>-396.6474108908517</v>
+        <v>293.970171785455</v>
       </c>
       <c r="TQ2" t="n">
-        <v>-396.6474108908517</v>
+        <v>293.970171785455</v>
       </c>
       <c r="TR2" t="n">
-        <v>-396.6464511476044</v>
+        <v>294.0700014862807</v>
       </c>
       <c r="TS2" t="n">
-        <v>-396.6464511476044</v>
+        <v>294.0700014862807</v>
       </c>
       <c r="TT2" t="n">
-        <v>-396.592851363056</v>
+        <v>293.8495884915672</v>
       </c>
       <c r="TU2" t="n">
-        <v>-396.592851363056</v>
+        <v>293.8495884915672</v>
       </c>
       <c r="TV2" t="n">
-        <v>-396.567904929386</v>
+        <v>293.4844733572236</v>
       </c>
       <c r="TW2" t="n">
-        <v>-396.567904929386</v>
+        <v>293.4844733572236</v>
       </c>
       <c r="TX2" t="n">
-        <v>-396.486503840677</v>
+        <v>293.9341764071409</v>
       </c>
       <c r="TY2" t="n">
-        <v>-396.486503840677</v>
+        <v>293.9341764071409</v>
       </c>
       <c r="TZ2" t="n">
-        <v>-398.0507192616935</v>
+        <v>294.1816616780961</v>
       </c>
       <c r="UA2" t="n">
-        <v>-398.0507192616935</v>
+        <v>294.1816616780961</v>
       </c>
       <c r="UB2" t="n">
-        <v>-397.9859965027422</v>
+        <v>294.4022192993628</v>
       </c>
       <c r="UC2" t="n">
-        <v>-397.9859965027422</v>
+        <v>294.4022192993628</v>
       </c>
       <c r="UD2" t="n">
-        <v>-397.8829333523749</v>
+        <v>294.6055921413941</v>
       </c>
       <c r="UE2" t="n">
-        <v>-397.8829333523749</v>
+        <v>294.6055921413941</v>
       </c>
       <c r="UF2" t="n">
-        <v>-397.8400885824025</v>
+        <v>294.6772899891491</v>
       </c>
       <c r="UG2" t="n">
-        <v>-397.8400885824025</v>
+        <v>294.6772899891491</v>
       </c>
       <c r="UH2" t="n">
-        <v>-397.7533128563639</v>
+        <v>294.5134019669368</v>
       </c>
       <c r="UI2" t="n">
-        <v>-397.7533128563639</v>
+        <v>294.5134019669368</v>
       </c>
       <c r="UJ2" t="n">
-        <v>-397.7407314105073</v>
+        <v>294.1685729320471</v>
       </c>
       <c r="UK2" t="n">
-        <v>-397.7407314105073</v>
+        <v>294.1685729320471</v>
       </c>
       <c r="UL2" t="n">
-        <v>-397.6914418683706</v>
+        <v>293.9670054155498</v>
       </c>
       <c r="UM2" t="n">
-        <v>-397.6914418683706</v>
+        <v>293.9670054155498</v>
       </c>
       <c r="UN2" t="n">
-        <v>-397.6651256466973</v>
+        <v>293.748330586824</v>
       </c>
       <c r="UO2" t="n">
-        <v>-397.6651256466973</v>
+        <v>293.748330586824</v>
       </c>
       <c r="UP2" t="n">
-        <v>-397.6200367032127</v>
+        <v>286.5166128654387</v>
       </c>
       <c r="UQ2" t="n">
-        <v>-397.6200367032127</v>
+        <v>286.5166128654387</v>
       </c>
       <c r="UR2" t="n">
-        <v>-397.5857684193082</v>
+        <v>287.0144127212636</v>
       </c>
       <c r="US2" t="n">
-        <v>-397.5857684193082</v>
+        <v>287.0144127212636</v>
       </c>
       <c r="UT2" t="n">
-        <v>-397.5718449463043</v>
+        <v>287.0625487947959</v>
       </c>
       <c r="UU2" t="n">
-        <v>-397.5718449463043</v>
+        <v>287.0625487947959</v>
       </c>
       <c r="UV2" t="n">
-        <v>-397.506205425172</v>
+        <v>285.8073451034129</v>
       </c>
       <c r="UW2" t="n">
-        <v>-397.506205425172</v>
+        <v>285.8073451034129</v>
       </c>
       <c r="UX2" t="n">
-        <v>-397.4075018749157</v>
+        <v>284.3691467030999</v>
       </c>
       <c r="UY2" t="n">
-        <v>-397.4075018749157</v>
+        <v>284.3691467030999</v>
       </c>
       <c r="UZ2" t="n">
-        <v>-397.253663510063</v>
+        <v>288.8032070580353</v>
       </c>
       <c r="VA2" t="n">
-        <v>-397.253663510063</v>
+        <v>288.8032070580353</v>
       </c>
       <c r="VB2" t="n">
-        <v>-397.1353209269357</v>
+        <v>285.7890554224402</v>
       </c>
       <c r="VC2" t="n">
-        <v>-397.1353209269357</v>
+        <v>285.7890554224402</v>
       </c>
       <c r="VD2" t="n">
-        <v>-397.016742417815</v>
+        <v>289.1305770993303</v>
       </c>
       <c r="VE2" t="n">
-        <v>-397.016742417815</v>
+        <v>289.1305770993303</v>
       </c>
       <c r="VF2" t="n">
-        <v>-396.9360901565399</v>
+        <v>291.2767809436559</v>
       </c>
       <c r="VG2" t="n">
-        <v>-396.9360901565399</v>
+        <v>291.2767809436559</v>
       </c>
       <c r="VH2" t="n">
-        <v>-396.8653862476911</v>
+        <v>292.398300675397</v>
       </c>
       <c r="VI2" t="n">
-        <v>-396.8653862476911</v>
+        <v>292.398300675397</v>
       </c>
       <c r="VJ2" t="n">
-        <v>-396.7983089337798</v>
+        <v>292.9299205740519</v>
       </c>
       <c r="VK2" t="n">
-        <v>-396.7983089337798</v>
+        <v>292.9299205740519</v>
       </c>
       <c r="VL2" t="n">
-        <v>-396.719460206607</v>
+        <v>294.3959528174736</v>
       </c>
       <c r="VM2" t="n">
-        <v>-396.719460206607</v>
+        <v>294.3959528174736</v>
       </c>
       <c r="VN2" t="n">
-        <v>-396.6146142726646</v>
+        <v>294.7794831619129</v>
       </c>
       <c r="VO2" t="n">
-        <v>-396.6146142726646</v>
+        <v>294.7794831619129</v>
       </c>
       <c r="VP2" t="n">
-        <v>-396.5941884212095</v>
+        <v>295.1714063015154</v>
       </c>
       <c r="VQ2" t="n">
-        <v>-396.5941884212095</v>
+        <v>295.1714063015154</v>
       </c>
       <c r="VR2" t="n">
-        <v>-396.4804880852181</v>
+        <v>295.69369517127</v>
       </c>
       <c r="VS2" t="n">
-        <v>-396.4804880852181</v>
+        <v>295.69369517127</v>
       </c>
       <c r="VT2" t="n">
-        <v>-396.4562231129924</v>
+        <v>296.1401091051013</v>
       </c>
       <c r="VU2" t="n">
-        <v>-396.4562231129924</v>
+        <v>296.1401091051013</v>
       </c>
       <c r="VV2" t="n">
-        <v>-396.362014451469</v>
+        <v>296.2443200519432</v>
       </c>
       <c r="VW2" t="n">
-        <v>-396.362014451469</v>
+        <v>296.2443200519432</v>
       </c>
       <c r="VX2" t="n">
-        <v>-396.3782913676245</v>
+        <v>296.3860392028973</v>
       </c>
       <c r="VY2" t="n">
-        <v>-396.3782913676245</v>
+        <v>296.3860392028973</v>
       </c>
       <c r="VZ2" t="n">
-        <v>-396.4346226036188</v>
+        <v>296.1887077472963</v>
       </c>
       <c r="WA2" t="n">
-        <v>-396.4346226036188</v>
+        <v>296.1887077472963</v>
       </c>
       <c r="WB2" t="n">
-        <v>-396.4212413016535</v>
+        <v>298.560498762392</v>
       </c>
       <c r="WC2" t="n">
-        <v>-396.4212413016535</v>
+        <v>298.560498762392</v>
       </c>
       <c r="WD2" t="n">
-        <v>-396.4196909415674</v>
+        <v>298.5826259403417</v>
       </c>
       <c r="WE2" t="n">
-        <v>-396.4196909415674</v>
+        <v>298.5826259403417</v>
       </c>
       <c r="WF2" t="n">
-        <v>-396.3828210429566</v>
+        <v>300.7568712356133</v>
       </c>
       <c r="WG2" t="n">
-        <v>-396.3828210429566</v>
+        <v>300.7568712356133</v>
       </c>
       <c r="WH2" t="n">
-        <v>-396.4027085161974</v>
+        <v>300.6511118440703</v>
       </c>
       <c r="WI2" t="n">
-        <v>-396.4027085161974</v>
+        <v>300.6511118440703</v>
       </c>
       <c r="WJ2" t="n">
-        <v>-396.3910189914056</v>
+        <v>301.5499736450167</v>
       </c>
       <c r="WK2" t="n">
-        <v>-396.3910189914056</v>
+        <v>301.5499736450167</v>
       </c>
       <c r="WL2" t="n">
-        <v>-396.3577331630529</v>
+        <v>302.4115827316766</v>
       </c>
       <c r="WM2" t="n">
-        <v>-396.3577331630529</v>
+        <v>302.4115827316766</v>
       </c>
       <c r="WN2" t="n">
-        <v>-396.3607008242159</v>
+        <v>303.1103554125991</v>
       </c>
       <c r="WO2" t="n">
-        <v>-396.3607008242159</v>
+        <v>303.1103554125991</v>
       </c>
       <c r="WP2" t="n">
-        <v>-396.362690440299</v>
+        <v>303.7750162691525</v>
       </c>
       <c r="WQ2" t="n">
-        <v>-396.362690440299</v>
+        <v>303.7750162691525</v>
       </c>
       <c r="WR2" t="n">
-        <v>-396.2845501487769</v>
+        <v>304.3982711872001</v>
       </c>
       <c r="WS2" t="n">
-        <v>-396.2845501487769</v>
+        <v>304.3982711872001</v>
       </c>
       <c r="WT2" t="n">
-        <v>-396.2516142549788</v>
+        <v>304.9847976386943</v>
       </c>
       <c r="WU2" t="n">
-        <v>-396.2516142549788</v>
+        <v>304.9847976386943</v>
       </c>
       <c r="WV2" t="n">
-        <v>-396.2123449346126</v>
+        <v>305.5684478513629</v>
       </c>
       <c r="WW2" t="n">
-        <v>-396.2123449346126</v>
+        <v>305.5684478513629</v>
       </c>
       <c r="WX2" t="n">
-        <v>-396.2211016854573</v>
+        <v>306.0743163474314</v>
       </c>
       <c r="WY2" t="n">
-        <v>-396.2211016854573</v>
+        <v>306.0743163474314</v>
       </c>
       <c r="WZ2" t="n">
-        <v>-396.2481876221034</v>
+        <v>308.6899730285682</v>
       </c>
       <c r="XA2" t="n">
-        <v>-396.2481876221034</v>
+        <v>308.6899730285682</v>
       </c>
       <c r="XB2" t="n">
-        <v>-397.6676507025913</v>
+        <v>310.4157037019783</v>
       </c>
       <c r="XC2" t="n">
-        <v>-397.6676507025913</v>
+        <v>310.4157037019783</v>
       </c>
       <c r="XD2" t="n">
-        <v>-397.5482016133334</v>
+        <v>311.00460047255</v>
       </c>
       <c r="XE2" t="n">
-        <v>-397.5482016133334</v>
+        <v>311.00460047255</v>
       </c>
       <c r="XF2" t="n">
-        <v>-397.4018060800516</v>
+        <v>309.9681537904056</v>
       </c>
       <c r="XG2" t="n">
-        <v>-397.4018060800516</v>
+        <v>309.9681537904056</v>
       </c>
       <c r="XH2" t="n">
-        <v>-397.2611704714576</v>
+        <v>308.6232316776764</v>
       </c>
       <c r="XI2" t="n">
-        <v>-397.2611704714576</v>
+        <v>308.6232316776764</v>
       </c>
       <c r="XJ2" t="n">
-        <v>-397.2086827079646</v>
+        <v>308.1593941060814</v>
       </c>
       <c r="XK2" t="n">
-        <v>-397.2086827079646</v>
+        <v>308.1593941060814</v>
       </c>
       <c r="XL2" t="n">
-        <v>-397.0733032115173</v>
+        <v>306.1924197421386</v>
       </c>
       <c r="XM2" t="n">
-        <v>-397.0733032115173</v>
+        <v>306.1924197421386</v>
       </c>
       <c r="XN2" t="n">
-        <v>-397.000892266102</v>
+        <v>303.5021972977008</v>
       </c>
       <c r="XO2" t="n">
-        <v>-397.000892266102</v>
+        <v>303.5021972977008</v>
       </c>
       <c r="XP2" t="n">
-        <v>-396.8788343570678</v>
+        <v>301.6974473996702</v>
       </c>
       <c r="XQ2" t="n">
-        <v>-396.8788343570678</v>
+        <v>301.6974473996702</v>
       </c>
       <c r="XR2" t="n">
-        <v>-396.8345168364675</v>
+        <v>298.1108425178241</v>
       </c>
       <c r="XS2" t="n">
-        <v>-396.8345168364675</v>
+        <v>298.1108425178241</v>
       </c>
       <c r="XT2" t="n">
-        <v>-396.7668216344666</v>
+        <v>294.9177571932662</v>
       </c>
       <c r="XU2" t="n">
-        <v>-396.7668216344666</v>
+        <v>294.9177571932662</v>
       </c>
       <c r="XV2" t="n">
-        <v>-396.8777093353988</v>
+        <v>294.0294718584958</v>
       </c>
       <c r="XW2" t="n">
-        <v>-396.8777093353988</v>
+        <v>294.0294718584958</v>
       </c>
       <c r="XX2" t="n">
-        <v>-396.9742473577385</v>
+        <v>292.0835115720753</v>
       </c>
       <c r="XY2" t="n">
-        <v>-396.9742473577385</v>
+        <v>292.0835115720753</v>
       </c>
       <c r="XZ2" t="n">
-        <v>-397.0987944804788</v>
+        <v>290.0137426050989</v>
       </c>
       <c r="YA2" t="n">
-        <v>-397.0987944804788</v>
+        <v>290.0137426050989</v>
       </c>
       <c r="YB2" t="n">
-        <v>-396.9665821831465</v>
+        <v>290.3566732171129</v>
       </c>
       <c r="YC2" t="n">
-        <v>-396.9665821831465</v>
+        <v>290.3566732171129</v>
       </c>
       <c r="YD2" t="n">
-        <v>-396.8968895420482</v>
+        <v>291.3496946063123</v>
       </c>
       <c r="YE2" t="n">
-        <v>-396.8968895420482</v>
+        <v>291.3496946063123</v>
       </c>
       <c r="YF2" t="n">
-        <v>-396.7992863058617</v>
+        <v>291.2969132233302</v>
       </c>
       <c r="YG2" t="n">
-        <v>-396.7992863058617</v>
+        <v>291.2969132233302</v>
       </c>
       <c r="YH2" t="n">
-        <v>-396.6776540674772</v>
+        <v>292.0277994242991</v>
       </c>
       <c r="YI2" t="n">
-        <v>-396.6776540674772</v>
+        <v>292.0277994242991</v>
       </c>
       <c r="YJ2" t="n">
-        <v>-396.6238653663</v>
+        <v>292.0578815765257</v>
       </c>
       <c r="YK2" t="n">
-        <v>-396.6238653663</v>
+        <v>292.0578815765257</v>
       </c>
       <c r="YL2" t="n">
-        <v>-396.6155389948217</v>
+        <v>291.42689564149</v>
       </c>
       <c r="YM2" t="n">
-        <v>-396.6155389948217</v>
+        <v>291.42689564149</v>
       </c>
       <c r="YN2" t="n">
-        <v>-396.4725859056961</v>
+        <v>291.3005153402797</v>
       </c>
       <c r="YO2" t="n">
-        <v>-396.4725859056961</v>
+        <v>291.3005153402797</v>
       </c>
       <c r="YP2" t="n">
-        <v>-396.3379237027852</v>
+        <v>290.7864018405773</v>
       </c>
       <c r="YQ2" t="n">
-        <v>-396.3379237027852</v>
+        <v>290.7864018405773</v>
+      </c>
+      <c r="YR2" t="n">
+        <v>292.6758317478038</v>
+      </c>
+      <c r="YS2" t="n">
+        <v>292.6758317478038</v>
+      </c>
+      <c r="YT2" t="n">
+        <v>292.8657607028301</v>
+      </c>
+      <c r="YU2" t="n">
+        <v>292.8657607028301</v>
+      </c>
+      <c r="YV2" t="n">
+        <v>293.9648761244513</v>
+      </c>
+      <c r="YW2" t="n">
+        <v>293.9648761244513</v>
+      </c>
+      <c r="YX2" t="n">
+        <v>293.2276067290194</v>
+      </c>
+      <c r="YY2" t="n">
+        <v>293.2276067290194</v>
+      </c>
+      <c r="YZ2" t="n">
+        <v>293.8155750150547</v>
+      </c>
+      <c r="ZA2" t="n">
+        <v>293.8155750150547</v>
+      </c>
+      <c r="ZB2" t="n">
+        <v>293.1356399038126</v>
+      </c>
+      <c r="ZC2" t="n">
+        <v>293.1356399038126</v>
+      </c>
+      <c r="ZD2" t="n">
+        <v>287.5810790351464</v>
+      </c>
+      <c r="ZE2" t="n">
+        <v>287.5810790351464</v>
+      </c>
+      <c r="ZF2" t="n">
+        <v>288.4684491999986</v>
+      </c>
+      <c r="ZG2" t="n">
+        <v>288.4684491999986</v>
+      </c>
+      <c r="ZH2" t="n">
+        <v>289.2351672636767</v>
+      </c>
+      <c r="ZI2" t="n">
+        <v>289.2351672636767</v>
+      </c>
+      <c r="ZJ2" t="n">
+        <v>291.2632983319706</v>
+      </c>
+      <c r="ZK2" t="n">
+        <v>291.2632983319706</v>
+      </c>
+      <c r="ZL2" t="n">
+        <v>292.2209588986788</v>
+      </c>
+      <c r="ZM2" t="n">
+        <v>292.2209588986788</v>
+      </c>
+      <c r="ZN2" t="n">
+        <v>292.947388896842</v>
+      </c>
+      <c r="ZO2" t="n">
+        <v>292.947388896842</v>
+      </c>
+      <c r="ZP2" t="n">
+        <v>293.655472260944</v>
+      </c>
+      <c r="ZQ2" t="n">
+        <v>293.655472260944</v>
+      </c>
+      <c r="ZR2" t="n">
+        <v>294.3870687784711</v>
+      </c>
+      <c r="ZS2" t="n">
+        <v>294.3870687784711</v>
+      </c>
+      <c r="ZT2" t="n">
+        <v>295.0508360240996</v>
+      </c>
+      <c r="ZU2" t="n">
+        <v>295.0508360240996</v>
+      </c>
+      <c r="ZV2" t="n">
+        <v>295.7774446533008</v>
+      </c>
+      <c r="ZW2" t="n">
+        <v>295.7774446533008</v>
+      </c>
+      <c r="ZX2" t="n">
+        <v>296.6902453425176</v>
+      </c>
+      <c r="ZY2" t="n">
+        <v>296.6902453425176</v>
+      </c>
+      <c r="ZZ2" t="n">
+        <v>297.3312521753525</v>
+      </c>
+      <c r="AAA2" t="n">
+        <v>297.3312521753525</v>
+      </c>
+      <c r="AAB2" t="n">
+        <v>297.8255402520585</v>
+      </c>
+      <c r="AAC2" t="n">
+        <v>297.8255402520585</v>
+      </c>
+      <c r="AAD2" t="n">
+        <v>298.3186883074954</v>
+      </c>
+      <c r="AAE2" t="n">
+        <v>298.3186883074954</v>
+      </c>
+      <c r="AAF2" t="n">
+        <v>298.9187918974937</v>
+      </c>
+      <c r="AAG2" t="n">
+        <v>298.9187918974937</v>
+      </c>
+      <c r="AAH2" t="n">
+        <v>299.4418762265854</v>
+      </c>
+      <c r="AAI2" t="n">
+        <v>299.4418762265854</v>
+      </c>
+      <c r="AAJ2" t="n">
+        <v>301.6268288644351</v>
+      </c>
+      <c r="AAK2" t="n">
+        <v>301.6268288644351</v>
+      </c>
+      <c r="AAL2" t="n">
+        <v>300.9725536714912</v>
+      </c>
+      <c r="AAM2" t="n">
+        <v>300.9725536714912</v>
+      </c>
+      <c r="AAN2" t="n">
+        <v>300.4335387074229</v>
+      </c>
+      <c r="AAO2" t="n">
+        <v>300.4335387074229</v>
+      </c>
+      <c r="AAP2" t="n">
+        <v>299.8196630119218</v>
+      </c>
+      <c r="AAQ2" t="n">
+        <v>299.8196630119218</v>
+      </c>
+      <c r="AAR2" t="n">
+        <v>299.1966010628634</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>299.1966010628634</v>
+      </c>
+      <c r="AAT2" t="n">
+        <v>298.5748074796216</v>
+      </c>
+      <c r="AAU2" t="n">
+        <v>298.5748074796216</v>
+      </c>
+      <c r="AAV2" t="n">
+        <v>298.0282409003499</v>
+      </c>
+      <c r="AAW2" t="n">
+        <v>298.0282409003499</v>
+      </c>
+      <c r="AAX2" t="n">
+        <v>297.4776645926311</v>
+      </c>
+      <c r="AAY2" t="n">
+        <v>297.4776645926311</v>
+      </c>
+      <c r="AAZ2" t="n">
+        <v>297.0835132354109</v>
+      </c>
+      <c r="ABA2" t="n">
+        <v>297.0835132354109</v>
+      </c>
+      <c r="ABB2" t="n">
+        <v>296.6128425852672</v>
+      </c>
+      <c r="ABC2" t="n">
+        <v>296.6128425852672</v>
+      </c>
+      <c r="ABD2" t="n">
+        <v>296.2351323204324</v>
+      </c>
+      <c r="ABE2" t="n">
+        <v>296.2351323204324</v>
+      </c>
+      <c r="ABF2" t="n">
+        <v>295.7709993136404</v>
+      </c>
+      <c r="ABG2" t="n">
+        <v>295.7709993136404</v>
+      </c>
+      <c r="ABH2" t="n">
+        <v>294.2643767333414</v>
+      </c>
+      <c r="ABI2" t="n">
+        <v>294.2643767333414</v>
+      </c>
+      <c r="ABJ2" t="n">
+        <v>293.8789066357982</v>
+      </c>
+      <c r="ABK2" t="n">
+        <v>293.8789066357982</v>
+      </c>
+      <c r="ABL2" t="n">
+        <v>293.6642507236012</v>
+      </c>
+      <c r="ABM2" t="n">
+        <v>293.6642507236012</v>
+      </c>
+      <c r="ABN2" t="n">
+        <v>293.4673899139454</v>
+      </c>
+      <c r="ABO2" t="n">
+        <v>293.4673899139454</v>
+      </c>
+      <c r="ABP2" t="n">
+        <v>293.216450152933</v>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>293.216450152933</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>292.8682818938755</v>
+      </c>
+      <c r="ABS2" t="n">
+        <v>292.8682818938755</v>
+      </c>
+      <c r="ABT2" t="n">
+        <v>292.5074272424426</v>
+      </c>
+      <c r="ABU2" t="n">
+        <v>292.5074272424426</v>
+      </c>
+      <c r="ABV2" t="n">
+        <v>292.3663358299918</v>
+      </c>
+      <c r="ABW2" t="n">
+        <v>292.3663358299918</v>
+      </c>
+      <c r="ABX2" t="n">
+        <v>292.0827729736422</v>
+      </c>
+      <c r="ABY2" t="n">
+        <v>292.0827729736422</v>
+      </c>
+      <c r="ABZ2" t="n">
+        <v>290.9423205547724</v>
+      </c>
+      <c r="ACA2" t="n">
+        <v>290.9423205547724</v>
+      </c>
+      <c r="ACB2" t="n">
+        <v>290.651390325795</v>
+      </c>
+      <c r="ACC2" t="n">
+        <v>290.651390325795</v>
+      </c>
+      <c r="ACD2" t="n">
+        <v>290.3824019231283</v>
+      </c>
+      <c r="ACE2" t="n">
+        <v>290.3824019231283</v>
+      </c>
+      <c r="ACF2" t="n">
+        <v>290.3781614896169</v>
+      </c>
+      <c r="ACG2" t="n">
+        <v>290.3781614896169</v>
+      </c>
+      <c r="ACH2" t="n">
+        <v>290.7251958423997</v>
+      </c>
+      <c r="ACI2" t="n">
+        <v>290.7251958423997</v>
+      </c>
+      <c r="ACJ2" t="n">
+        <v>290.5928493620348</v>
+      </c>
+      <c r="ACK2" t="n">
+        <v>290.5928493620348</v>
+      </c>
+      <c r="ACL2" t="n">
+        <v>290.4505694134784</v>
+      </c>
+      <c r="ACM2" t="n">
+        <v>290.4505694134784</v>
+      </c>
+      <c r="ACN2" t="n">
+        <v>290.314703026935</v>
+      </c>
+      <c r="ACO2" t="n">
+        <v>290.314703026935</v>
+      </c>
+      <c r="ACP2" t="n">
+        <v>290.0304281241298</v>
+      </c>
+      <c r="ACQ2" t="n">
+        <v>290.0304281241298</v>
+      </c>
+      <c r="ACR2" t="n">
+        <v>289.9254317733779</v>
+      </c>
+      <c r="ACS2" t="n">
+        <v>289.9254317733779</v>
+      </c>
+      <c r="ACT2" t="n">
+        <v>288.7412538596957</v>
+      </c>
+      <c r="ACU2" t="n">
+        <v>288.7412538596957</v>
+      </c>
+      <c r="ACV2" t="n">
+        <v>288.6069456075217</v>
+      </c>
+      <c r="ACW2" t="n">
+        <v>288.6069456075217</v>
+      </c>
+      <c r="ACX2" t="n">
+        <v>288.5010002623313</v>
+      </c>
+      <c r="ACY2" t="n">
+        <v>288.5010002623313</v>
+      </c>
+      <c r="ACZ2" t="n">
+        <v>288.4719870704449</v>
+      </c>
+      <c r="ADA2" t="n">
+        <v>288.4719870704449</v>
+      </c>
+      <c r="ADB2" t="n">
+        <v>287.4142590247828</v>
+      </c>
+      <c r="ADC2" t="n">
+        <v>287.4142590247828</v>
+      </c>
+      <c r="ADD2" t="n">
+        <v>287.5289617257047</v>
+      </c>
+      <c r="ADE2" t="n">
+        <v>287.5289617257047</v>
+      </c>
+      <c r="ADF2" t="n">
+        <v>287.5991675559753</v>
+      </c>
+      <c r="ADG2" t="n">
+        <v>287.5991675559753</v>
+      </c>
+      <c r="ADH2" t="n">
+        <v>287.033763405164</v>
+      </c>
+      <c r="ADI2" t="n">
+        <v>287.033763405164</v>
+      </c>
+      <c r="ADJ2" t="n">
+        <v>286.1542557989393</v>
+      </c>
+      <c r="ADK2" t="n">
+        <v>286.1542557989393</v>
+      </c>
+      <c r="ADL2" t="n">
+        <v>286.2699966137304</v>
+      </c>
+      <c r="ADM2" t="n">
+        <v>286.2699966137304</v>
+      </c>
+      <c r="ADN2" t="n">
+        <v>286.4877674910713</v>
+      </c>
+      <c r="ADO2" t="n">
+        <v>286.4877674910713</v>
+      </c>
+      <c r="ADP2" t="n">
+        <v>285.5165910272721</v>
+      </c>
+      <c r="ADQ2" t="n">
+        <v>285.5165910272721</v>
+      </c>
+      <c r="ADR2" t="n">
+        <v>285.7718430230901</v>
+      </c>
+      <c r="ADS2" t="n">
+        <v>285.7718430230901</v>
+      </c>
+      <c r="ADT2" t="n">
+        <v>284.896017934169</v>
+      </c>
+      <c r="ADU2" t="n">
+        <v>284.896017934169</v>
+      </c>
+      <c r="ADV2" t="n">
+        <v>285.1333526620005</v>
+      </c>
+      <c r="ADW2" t="n">
+        <v>285.1333526620005</v>
+      </c>
+      <c r="ADX2" t="n">
+        <v>284.3493021265595</v>
+      </c>
+      <c r="ADY2" t="n">
+        <v>284.3493021265595</v>
+      </c>
+      <c r="ADZ2" t="n">
+        <v>284.3640693968562</v>
+      </c>
+      <c r="AEA2" t="n">
+        <v>284.3640693968562</v>
+      </c>
+      <c r="AEB2" t="n">
+        <v>284.6260306628881</v>
+      </c>
+      <c r="AEC2" t="n">
+        <v>284.6260306628881</v>
+      </c>
+      <c r="AED2" t="n">
+        <v>283.7408507240958</v>
+      </c>
+      <c r="AEE2" t="n">
+        <v>283.7408507240958</v>
       </c>
     </row>
     <row r="3">
@@ -4441,2002 +5305,2434 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-59.62797027135811</v>
+        <v>69.47876096886677</v>
       </c>
       <c r="C3" t="n">
-        <v>-59.62797027135811</v>
+        <v>69.47876096886677</v>
       </c>
       <c r="D3" t="n">
-        <v>-81.54506061893046</v>
+        <v>95.1910068860312</v>
       </c>
       <c r="E3" t="n">
-        <v>-81.54506061893046</v>
+        <v>95.1910068860312</v>
       </c>
       <c r="F3" t="n">
-        <v>-94.80224812383388</v>
+        <v>110.2314924334164</v>
       </c>
       <c r="G3" t="n">
-        <v>-94.80224812383388</v>
+        <v>110.2314924334164</v>
       </c>
       <c r="H3" t="n">
-        <v>-103.8945707649765</v>
+        <v>122.2748468753724</v>
       </c>
       <c r="I3" t="n">
-        <v>-103.8945707649765</v>
+        <v>122.2748468753724</v>
       </c>
       <c r="J3" t="n">
-        <v>-109.943586664995</v>
+        <v>131.5843709791154</v>
       </c>
       <c r="K3" t="n">
-        <v>-109.943586664995</v>
+        <v>131.5843709791154</v>
       </c>
       <c r="L3" t="n">
-        <v>-114.3964187122546</v>
+        <v>138.6941192052983</v>
       </c>
       <c r="M3" t="n">
-        <v>-114.3964187122546</v>
+        <v>138.6941192052983</v>
       </c>
       <c r="N3" t="n">
-        <v>-119.3243057620624</v>
+        <v>143.969391886357</v>
       </c>
       <c r="O3" t="n">
-        <v>-119.3243057620624</v>
+        <v>143.969391886357</v>
       </c>
       <c r="P3" t="n">
-        <v>-118.4860688883245</v>
+        <v>146.5106671694884</v>
       </c>
       <c r="Q3" t="n">
-        <v>-118.4860688883245</v>
+        <v>146.5106671694884</v>
       </c>
       <c r="R3" t="n">
-        <v>-118.7908616668854</v>
+        <v>144.5082350668251</v>
       </c>
       <c r="S3" t="n">
-        <v>-118.7908616668854</v>
+        <v>144.5082350668251</v>
       </c>
       <c r="T3" t="n">
-        <v>-119.5788348384823</v>
+        <v>144.1648583322959</v>
       </c>
       <c r="U3" t="n">
-        <v>-119.5788348384823</v>
+        <v>144.1648583322959</v>
       </c>
       <c r="V3" t="n">
-        <v>-120.7342618803608</v>
+        <v>146.1608124075712</v>
       </c>
       <c r="W3" t="n">
-        <v>-120.7342618803608</v>
+        <v>146.1608124075712</v>
       </c>
       <c r="X3" t="n">
-        <v>-121.2538948726237</v>
+        <v>147.3567359185635</v>
       </c>
       <c r="Y3" t="n">
-        <v>-121.2538948726237</v>
+        <v>147.3567359185635</v>
       </c>
       <c r="Z3" t="n">
-        <v>-121.5409430900572</v>
+        <v>148.5596727536462</v>
       </c>
       <c r="AA3" t="n">
-        <v>-121.5409430900572</v>
+        <v>148.5596727536462</v>
       </c>
       <c r="AB3" t="n">
-        <v>-121.7163600762793</v>
+        <v>149.7200422707219</v>
       </c>
       <c r="AC3" t="n">
-        <v>-121.7163600762793</v>
+        <v>149.7200422707219</v>
       </c>
       <c r="AD3" t="n">
-        <v>-121.627972226078</v>
+        <v>150.5578510771162</v>
       </c>
       <c r="AE3" t="n">
-        <v>-121.627972226078</v>
+        <v>150.5578510771162</v>
       </c>
       <c r="AF3" t="n">
-        <v>-121.3789789017153</v>
+        <v>151.2137229342226</v>
       </c>
       <c r="AG3" t="n">
-        <v>-121.3789789017153</v>
+        <v>151.2137229342226</v>
       </c>
       <c r="AH3" t="n">
-        <v>-121.2111118040924</v>
+        <v>151.3243129465904</v>
       </c>
       <c r="AI3" t="n">
-        <v>-121.2111118040924</v>
+        <v>151.3243129465904</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-120.9996929566807</v>
+        <v>151.1443993875976</v>
       </c>
       <c r="AK3" t="n">
-        <v>-120.9996929566807</v>
+        <v>151.1443993875976</v>
       </c>
       <c r="AL3" t="n">
-        <v>-120.7863396660427</v>
+        <v>150.6534592576578</v>
       </c>
       <c r="AM3" t="n">
-        <v>-120.7863396660427</v>
+        <v>150.6534592576578</v>
       </c>
       <c r="AN3" t="n">
-        <v>-120.5682103144578</v>
+        <v>150.1806521148424</v>
       </c>
       <c r="AO3" t="n">
-        <v>-120.5682103144578</v>
+        <v>150.1806521148424</v>
       </c>
       <c r="AP3" t="n">
-        <v>-120.3158994339802</v>
+        <v>150.817883219124</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-120.3158994339802</v>
+        <v>150.817883219124</v>
       </c>
       <c r="AR3" t="n">
-        <v>-120.0707792142739</v>
+        <v>150.1845916275377</v>
       </c>
       <c r="AS3" t="n">
-        <v>-120.0707792142739</v>
+        <v>150.1845916275377</v>
       </c>
       <c r="AT3" t="n">
-        <v>-119.7471426097525</v>
+        <v>149.5980298337289</v>
       </c>
       <c r="AU3" t="n">
-        <v>-119.7471426097525</v>
+        <v>149.5980298337289</v>
       </c>
       <c r="AV3" t="n">
-        <v>-119.6707964287554</v>
+        <v>149.9997886543066</v>
       </c>
       <c r="AW3" t="n">
-        <v>-119.6707964287554</v>
+        <v>149.9997886543066</v>
       </c>
       <c r="AX3" t="n">
-        <v>-119.5083173500688</v>
+        <v>149.6254211129576</v>
       </c>
       <c r="AY3" t="n">
-        <v>-119.5083173500688</v>
+        <v>149.6254211129576</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-119.332031564013</v>
+        <v>149.91468145581</v>
       </c>
       <c r="BA3" t="n">
-        <v>-119.332031564013</v>
+        <v>149.91468145581</v>
       </c>
       <c r="BB3" t="n">
-        <v>-119.3127828891843</v>
+        <v>149.242282588405</v>
       </c>
       <c r="BC3" t="n">
-        <v>-119.3127828891843</v>
+        <v>149.242282588405</v>
       </c>
       <c r="BD3" t="n">
-        <v>-119.1056999580159</v>
+        <v>149.7161275556053</v>
       </c>
       <c r="BE3" t="n">
-        <v>-119.1056999580159</v>
+        <v>149.7161275556053</v>
       </c>
       <c r="BF3" t="n">
-        <v>-118.9406998843175</v>
+        <v>148.8676950653383</v>
       </c>
       <c r="BG3" t="n">
-        <v>-118.9406998843175</v>
+        <v>148.8676950653383</v>
       </c>
       <c r="BH3" t="n">
-        <v>-118.7204966830129</v>
+        <v>148.0888660543642</v>
       </c>
       <c r="BI3" t="n">
-        <v>-118.7204966830129</v>
+        <v>148.0888660543642</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-118.5406138568619</v>
+        <v>147.4717587885891</v>
       </c>
       <c r="BK3" t="n">
-        <v>-118.5406138568619</v>
+        <v>147.4717587885891</v>
       </c>
       <c r="BL3" t="n">
-        <v>-118.2598312225435</v>
+        <v>147.0032659751741</v>
       </c>
       <c r="BM3" t="n">
-        <v>-118.2598312225435</v>
+        <v>147.0032659751741</v>
       </c>
       <c r="BN3" t="n">
-        <v>-118.1084084793618</v>
+        <v>146.9534788307507</v>
       </c>
       <c r="BO3" t="n">
-        <v>-118.1084084793618</v>
+        <v>146.9534788307507</v>
       </c>
       <c r="BP3" t="n">
-        <v>-117.9545953384683</v>
+        <v>146.8946892391034</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-117.9545953384683</v>
+        <v>146.8946892391034</v>
       </c>
       <c r="BR3" t="n">
-        <v>-117.8831832785007</v>
+        <v>146.6730903933348</v>
       </c>
       <c r="BS3" t="n">
-        <v>-117.8831832785007</v>
+        <v>146.6730903933348</v>
       </c>
       <c r="BT3" t="n">
-        <v>-117.7920849864073</v>
+        <v>146.3543217789839</v>
       </c>
       <c r="BU3" t="n">
-        <v>-117.7920849864073</v>
+        <v>146.3543217789839</v>
       </c>
       <c r="BV3" t="n">
-        <v>-117.7009841118565</v>
+        <v>146.0511482066579</v>
       </c>
       <c r="BW3" t="n">
-        <v>-117.7009841118565</v>
+        <v>146.0511482066579</v>
       </c>
       <c r="BX3" t="n">
-        <v>-117.6162906138233</v>
+        <v>145.541541639491</v>
       </c>
       <c r="BY3" t="n">
-        <v>-117.6162906138233</v>
+        <v>145.541541639491</v>
       </c>
       <c r="BZ3" t="n">
-        <v>-117.5426040237386</v>
+        <v>145.0628616050618</v>
       </c>
       <c r="CA3" t="n">
-        <v>-117.5426040237386</v>
+        <v>145.0628616050618</v>
       </c>
       <c r="CB3" t="n">
-        <v>-117.4678753106814</v>
+        <v>144.6627444893948</v>
       </c>
       <c r="CC3" t="n">
-        <v>-117.4678753106814</v>
+        <v>144.6627444893948</v>
       </c>
       <c r="CD3" t="n">
-        <v>-117.6446884370483</v>
+        <v>144.3301515079187</v>
       </c>
       <c r="CE3" t="n">
-        <v>-117.6446884370483</v>
+        <v>144.3301515079187</v>
       </c>
       <c r="CF3" t="n">
-        <v>-117.5238820210345</v>
+        <v>144.0716490617663</v>
       </c>
       <c r="CG3" t="n">
-        <v>-117.5238820210345</v>
+        <v>144.0716490617663</v>
       </c>
       <c r="CH3" t="n">
-        <v>-117.3850908091783</v>
+        <v>143.933890557545</v>
       </c>
       <c r="CI3" t="n">
-        <v>-117.3850908091783</v>
+        <v>143.933890557545</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-117.3520427296892</v>
+        <v>143.8045626955209</v>
       </c>
       <c r="CK3" t="n">
-        <v>-117.3520427296892</v>
+        <v>143.8045626955209</v>
       </c>
       <c r="CL3" t="n">
-        <v>-117.3015587060062</v>
+        <v>143.763460868333</v>
       </c>
       <c r="CM3" t="n">
-        <v>-117.3015587060062</v>
+        <v>143.763460868333</v>
       </c>
       <c r="CN3" t="n">
-        <v>-117.1313264069565</v>
+        <v>143.3881622698881</v>
       </c>
       <c r="CO3" t="n">
-        <v>-117.1313264069565</v>
+        <v>143.3881622698881</v>
       </c>
       <c r="CP3" t="n">
-        <v>-117.2411727121268</v>
+        <v>143.0307324573166</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-117.2411727121268</v>
+        <v>143.0307324573166</v>
       </c>
       <c r="CR3" t="n">
-        <v>-117.3386254508351</v>
+        <v>142.8514516626699</v>
       </c>
       <c r="CS3" t="n">
-        <v>-117.3386254508351</v>
+        <v>142.8514516626699</v>
       </c>
       <c r="CT3" t="n">
-        <v>-117.240247557775</v>
+        <v>142.4837415933901</v>
       </c>
       <c r="CU3" t="n">
-        <v>-117.240247557775</v>
+        <v>142.4837415933901</v>
       </c>
       <c r="CV3" t="n">
-        <v>-117.1346713309356</v>
+        <v>142.4095611516092</v>
       </c>
       <c r="CW3" t="n">
-        <v>-117.1346713309356</v>
+        <v>142.4095611516092</v>
       </c>
       <c r="CX3" t="n">
-        <v>-116.8953763500321</v>
+        <v>142.3119001481543</v>
       </c>
       <c r="CY3" t="n">
-        <v>-116.8953763500321</v>
+        <v>142.3119001481543</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-116.6489087465196</v>
+        <v>142.0889603377894</v>
       </c>
       <c r="DA3" t="n">
-        <v>-116.6489087465196</v>
+        <v>142.0889603377894</v>
       </c>
       <c r="DB3" t="n">
-        <v>-116.3750962510313</v>
+        <v>142.1257876698332</v>
       </c>
       <c r="DC3" t="n">
-        <v>-116.3750962510313</v>
+        <v>142.1257876698332</v>
       </c>
       <c r="DD3" t="n">
-        <v>-116.1756675056112</v>
+        <v>142.1558339283218</v>
       </c>
       <c r="DE3" t="n">
-        <v>-116.1756675056112</v>
+        <v>142.1558339283218</v>
       </c>
       <c r="DF3" t="n">
-        <v>-115.9832157575361</v>
+        <v>141.8241008982115</v>
       </c>
       <c r="DG3" t="n">
-        <v>-115.9832157575361</v>
+        <v>141.8241008982115</v>
       </c>
       <c r="DH3" t="n">
-        <v>-115.8274679750072</v>
+        <v>142.1994288605518</v>
       </c>
       <c r="DI3" t="n">
-        <v>-115.8274679750072</v>
+        <v>142.1994288605518</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-115.7477879093387</v>
+        <v>142.5508122833106</v>
       </c>
       <c r="DK3" t="n">
-        <v>-115.7477879093387</v>
+        <v>142.5508122833106</v>
       </c>
       <c r="DL3" t="n">
-        <v>-115.5564658090184</v>
+        <v>142.2873349468857</v>
       </c>
       <c r="DM3" t="n">
-        <v>-115.5564658090184</v>
+        <v>142.2873349468857</v>
       </c>
       <c r="DN3" t="n">
-        <v>-115.4924072307112</v>
+        <v>142.0280564193395</v>
       </c>
       <c r="DO3" t="n">
-        <v>-115.4924072307112</v>
+        <v>142.0280564193395</v>
       </c>
       <c r="DP3" t="n">
-        <v>-115.38891323423</v>
+        <v>142.0566090759189</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-115.38891323423</v>
+        <v>142.0566090759189</v>
       </c>
       <c r="DR3" t="n">
-        <v>-115.2727050563459</v>
+        <v>141.7452492618027</v>
       </c>
       <c r="DS3" t="n">
-        <v>-115.2727050563459</v>
+        <v>141.7452492618027</v>
       </c>
       <c r="DT3" t="n">
-        <v>-115.749613425978</v>
+        <v>141.5153806341137</v>
       </c>
       <c r="DU3" t="n">
-        <v>-115.749613425978</v>
+        <v>141.5153806341137</v>
       </c>
       <c r="DV3" t="n">
-        <v>-115.6366729763304</v>
+        <v>141.1576424514402</v>
       </c>
       <c r="DW3" t="n">
-        <v>-115.6366729763304</v>
+        <v>141.1576424514402</v>
       </c>
       <c r="DX3" t="n">
-        <v>-115.526134537333</v>
+        <v>140.8132108137834</v>
       </c>
       <c r="DY3" t="n">
-        <v>-115.526134537333</v>
+        <v>140.8132108137834</v>
       </c>
       <c r="DZ3" t="n">
-        <v>-115.2812147408072</v>
+        <v>140.6254073535732</v>
       </c>
       <c r="EA3" t="n">
-        <v>-115.2812147408072</v>
+        <v>140.6254073535732</v>
       </c>
       <c r="EB3" t="n">
-        <v>-115.6518162356067</v>
+        <v>140.402474446162</v>
       </c>
       <c r="EC3" t="n">
-        <v>-115.6518162356067</v>
+        <v>140.402474446162</v>
       </c>
       <c r="ED3" t="n">
-        <v>-115.9670602241208</v>
+        <v>140.3655083271863</v>
       </c>
       <c r="EE3" t="n">
-        <v>-115.9670602241208</v>
+        <v>140.3655083271863</v>
       </c>
       <c r="EF3" t="n">
-        <v>-116.2661087012472</v>
+        <v>140.3605924358168</v>
       </c>
       <c r="EG3" t="n">
-        <v>-116.2661087012472</v>
+        <v>140.3605924358168</v>
       </c>
       <c r="EH3" t="n">
-        <v>-116.0709147309664</v>
+        <v>140.3694481595427</v>
       </c>
       <c r="EI3" t="n">
-        <v>-116.0709147309664</v>
+        <v>140.3694481595427</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-115.904558467756</v>
+        <v>140.4941912016972</v>
       </c>
       <c r="EK3" t="n">
-        <v>-115.904558467756</v>
+        <v>140.4941912016972</v>
       </c>
       <c r="EL3" t="n">
-        <v>-115.7848533677492</v>
+        <v>140.6121207025654</v>
       </c>
       <c r="EM3" t="n">
-        <v>-115.7848533677492</v>
+        <v>140.6121207025654</v>
       </c>
       <c r="EN3" t="n">
-        <v>-115.6175335033327</v>
+        <v>140.4296879748291</v>
       </c>
       <c r="EO3" t="n">
-        <v>-115.6175335033327</v>
+        <v>140.4296879748291</v>
       </c>
       <c r="EP3" t="n">
-        <v>-115.5982088100102</v>
+        <v>140.2360507946441</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-115.5982088100102</v>
+        <v>140.2360507946441</v>
       </c>
       <c r="ER3" t="n">
-        <v>-115.3731102389673</v>
+        <v>140.0487831544094</v>
       </c>
       <c r="ES3" t="n">
-        <v>-115.3731102389673</v>
+        <v>140.0487831544094</v>
       </c>
       <c r="ET3" t="n">
-        <v>-115.2710876662368</v>
+        <v>140.3758577422121</v>
       </c>
       <c r="EU3" t="n">
-        <v>-115.2710876662368</v>
+        <v>140.3758577422121</v>
       </c>
       <c r="EV3" t="n">
-        <v>-115.0660535378825</v>
+        <v>140.5986184619585</v>
       </c>
       <c r="EW3" t="n">
-        <v>-115.0660535378825</v>
+        <v>140.5986184619585</v>
       </c>
       <c r="EX3" t="n">
-        <v>-114.8641583716006</v>
+        <v>140.8655424617599</v>
       </c>
       <c r="EY3" t="n">
-        <v>-114.8641583716006</v>
+        <v>140.8655424617599</v>
       </c>
       <c r="EZ3" t="n">
-        <v>-114.6099446733474</v>
+        <v>140.8528073557792</v>
       </c>
       <c r="FA3" t="n">
-        <v>-114.6099446733474</v>
+        <v>140.8528073557792</v>
       </c>
       <c r="FB3" t="n">
-        <v>-114.364862915501</v>
+        <v>140.4210301521807</v>
       </c>
       <c r="FC3" t="n">
-        <v>-114.364862915501</v>
+        <v>140.4210301521807</v>
       </c>
       <c r="FD3" t="n">
-        <v>-114.1288000390461</v>
+        <v>140.4382141291087</v>
       </c>
       <c r="FE3" t="n">
-        <v>-114.1288000390461</v>
+        <v>140.4382141291087</v>
       </c>
       <c r="FF3" t="n">
-        <v>-114.0243078663406</v>
+        <v>140.453561763043</v>
       </c>
       <c r="FG3" t="n">
-        <v>-114.0243078663406</v>
+        <v>140.453561763043</v>
       </c>
       <c r="FH3" t="n">
-        <v>-113.850866925942</v>
+        <v>140.7667682555006</v>
       </c>
       <c r="FI3" t="n">
-        <v>-113.850866925942</v>
+        <v>140.7667682555006</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-113.6975248293507</v>
+        <v>140.5668699941691</v>
       </c>
       <c r="FK3" t="n">
-        <v>-113.6975248293507</v>
+        <v>140.5668699941691</v>
       </c>
       <c r="FL3" t="n">
-        <v>-113.5879800479066</v>
+        <v>140.5646986675607</v>
       </c>
       <c r="FM3" t="n">
-        <v>-113.5879800479066</v>
+        <v>140.5646986675607</v>
       </c>
       <c r="FN3" t="n">
-        <v>-113.509180436931</v>
+        <v>140.9045332788955</v>
       </c>
       <c r="FO3" t="n">
-        <v>-113.509180436931</v>
+        <v>140.9045332788955</v>
       </c>
       <c r="FP3" t="n">
-        <v>-113.4341395815724</v>
+        <v>140.7021530753419</v>
       </c>
       <c r="FQ3" t="n">
-        <v>-113.4341395815724</v>
+        <v>140.7021530753419</v>
       </c>
       <c r="FR3" t="n">
-        <v>-113.4102392546524</v>
+        <v>140.6011311802787</v>
       </c>
       <c r="FS3" t="n">
-        <v>-113.4102392546524</v>
+        <v>140.6011311802787</v>
       </c>
       <c r="FT3" t="n">
-        <v>-113.3881484169276</v>
+        <v>140.3988035680631</v>
       </c>
       <c r="FU3" t="n">
-        <v>-113.3881484169276</v>
+        <v>140.3988035680631</v>
       </c>
       <c r="FV3" t="n">
-        <v>-113.2882083512316</v>
+        <v>140.2030482972215</v>
       </c>
       <c r="FW3" t="n">
-        <v>-113.2882083512316</v>
+        <v>140.2030482972215</v>
       </c>
       <c r="FX3" t="n">
-        <v>-113.186176137702</v>
+        <v>139.9437189771836</v>
       </c>
       <c r="FY3" t="n">
-        <v>-113.186176137702</v>
+        <v>139.9437189771836</v>
       </c>
       <c r="FZ3" t="n">
-        <v>-113.1335084644824</v>
+        <v>139.6936486756312</v>
       </c>
       <c r="GA3" t="n">
-        <v>-113.1335084644824</v>
+        <v>139.6936486756312</v>
       </c>
       <c r="GB3" t="n">
-        <v>-113.0952497913971</v>
+        <v>139.3830691102337</v>
       </c>
       <c r="GC3" t="n">
-        <v>-113.0952497913971</v>
+        <v>139.3830691102337</v>
       </c>
       <c r="GD3" t="n">
-        <v>-113.0393099976245</v>
+        <v>139.0843173714064</v>
       </c>
       <c r="GE3" t="n">
-        <v>-113.0393099976245</v>
+        <v>139.0843173714064</v>
       </c>
       <c r="GF3" t="n">
-        <v>-113.0171489972099</v>
+        <v>138.8876777918106</v>
       </c>
       <c r="GG3" t="n">
-        <v>-113.0171489972099</v>
+        <v>138.8876777918106</v>
       </c>
       <c r="GH3" t="n">
-        <v>-112.9969751606441</v>
+        <v>138.813291391871</v>
       </c>
       <c r="GI3" t="n">
-        <v>-112.9969751606441</v>
+        <v>138.813291391871</v>
       </c>
       <c r="GJ3" t="n">
-        <v>-112.9750261408279</v>
+        <v>138.7428535767501</v>
       </c>
       <c r="GK3" t="n">
-        <v>-112.9750261408279</v>
+        <v>138.7428535767501</v>
       </c>
       <c r="GL3" t="n">
-        <v>-112.9581379333046</v>
+        <v>138.7886640998906</v>
       </c>
       <c r="GM3" t="n">
-        <v>-112.9581379333046</v>
+        <v>138.7886640998906</v>
       </c>
       <c r="GN3" t="n">
-        <v>-112.849511676966</v>
+        <v>138.8340340791305</v>
       </c>
       <c r="GO3" t="n">
-        <v>-112.849511676966</v>
+        <v>138.8340340791305</v>
       </c>
       <c r="GP3" t="n">
-        <v>-112.7942346687987</v>
+        <v>138.6961995350994</v>
       </c>
       <c r="GQ3" t="n">
-        <v>-112.7942346687987</v>
+        <v>138.6961995350994</v>
       </c>
       <c r="GR3" t="n">
-        <v>-112.7400746586716</v>
+        <v>138.7811527669594</v>
       </c>
       <c r="GS3" t="n">
-        <v>-112.7400746586716</v>
+        <v>138.7811527669594</v>
       </c>
       <c r="GT3" t="n">
-        <v>-112.66787927424</v>
+        <v>138.5897534202789</v>
       </c>
       <c r="GU3" t="n">
-        <v>-112.66787927424</v>
+        <v>138.5897534202789</v>
       </c>
       <c r="GV3" t="n">
-        <v>-112.6319228068735</v>
+        <v>138.6393336789509</v>
       </c>
       <c r="GW3" t="n">
-        <v>-112.6319228068735</v>
+        <v>138.6393336789509</v>
       </c>
       <c r="GX3" t="n">
-        <v>-112.5986002289538</v>
+        <v>138.4580479731077</v>
       </c>
       <c r="GY3" t="n">
-        <v>-112.5986002289538</v>
+        <v>138.4580479731077</v>
       </c>
       <c r="GZ3" t="n">
-        <v>-112.5514413978248</v>
+        <v>138.3072741596178</v>
       </c>
       <c r="HA3" t="n">
-        <v>-112.5514413978248</v>
+        <v>138.3072741596178</v>
       </c>
       <c r="HB3" t="n">
-        <v>-112.485443948131</v>
+        <v>138.1634533324886</v>
       </c>
       <c r="HC3" t="n">
-        <v>-112.485443948131</v>
+        <v>138.1634533324886</v>
       </c>
       <c r="HD3" t="n">
-        <v>-112.486894982481</v>
+        <v>138.0423355209676</v>
       </c>
       <c r="HE3" t="n">
-        <v>-112.486894982481</v>
+        <v>138.0423355209676</v>
       </c>
       <c r="HF3" t="n">
-        <v>-112.5175917685945</v>
+        <v>137.8132014007173</v>
       </c>
       <c r="HG3" t="n">
-        <v>-112.5175917685945</v>
+        <v>137.8132014007173</v>
       </c>
       <c r="HH3" t="n">
-        <v>-112.492420442671</v>
+        <v>137.9031718989896</v>
       </c>
       <c r="HI3" t="n">
-        <v>-112.492420442671</v>
+        <v>137.9031718989896</v>
       </c>
       <c r="HJ3" t="n">
-        <v>-112.4176401710202</v>
+        <v>137.8414267203462</v>
       </c>
       <c r="HK3" t="n">
-        <v>-112.4176401710202</v>
+        <v>137.8414267203462</v>
       </c>
       <c r="HL3" t="n">
-        <v>-112.3468319173327</v>
+        <v>137.9214875167638</v>
       </c>
       <c r="HM3" t="n">
-        <v>-112.3468319173327</v>
+        <v>137.9214875167638</v>
       </c>
       <c r="HN3" t="n">
-        <v>-112.3155232750783</v>
+        <v>137.8387534530097</v>
       </c>
       <c r="HO3" t="n">
-        <v>-112.3155232750783</v>
+        <v>137.8387534530097</v>
       </c>
       <c r="HP3" t="n">
-        <v>-112.2866639094314</v>
+        <v>138.3429437742109</v>
       </c>
       <c r="HQ3" t="n">
-        <v>-112.2866639094314</v>
+        <v>138.3429437742109</v>
       </c>
       <c r="HR3" t="n">
-        <v>-112.2481473820708</v>
+        <v>138.3832031160625</v>
       </c>
       <c r="HS3" t="n">
-        <v>-112.2481473820708</v>
+        <v>138.3832031160625</v>
       </c>
       <c r="HT3" t="n">
-        <v>-112.238851447507</v>
+        <v>138.4228916294775</v>
       </c>
       <c r="HU3" t="n">
-        <v>-112.238851447507</v>
+        <v>138.4228916294775</v>
       </c>
       <c r="HV3" t="n">
-        <v>-112.1907025273632</v>
+        <v>138.3209638785134</v>
       </c>
       <c r="HW3" t="n">
-        <v>-112.1907025273632</v>
+        <v>138.3209638785134</v>
       </c>
       <c r="HX3" t="n">
-        <v>-112.2526659752592</v>
+        <v>138.2235969530839</v>
       </c>
       <c r="HY3" t="n">
-        <v>-112.2526659752592</v>
+        <v>138.2235969530839</v>
       </c>
       <c r="HZ3" t="n">
-        <v>-112.3045956692613</v>
+        <v>138.1410968782994</v>
       </c>
       <c r="IA3" t="n">
-        <v>-112.3045956692613</v>
+        <v>138.1410968782994</v>
       </c>
       <c r="IB3" t="n">
-        <v>-112.3357273159928</v>
+        <v>138.020892714587</v>
       </c>
       <c r="IC3" t="n">
-        <v>-112.3357273159928</v>
+        <v>138.020892714587</v>
       </c>
       <c r="ID3" t="n">
-        <v>-112.4062336934741</v>
+        <v>137.8966723836552</v>
       </c>
       <c r="IE3" t="n">
-        <v>-112.4062336934741</v>
+        <v>137.8966723836552</v>
       </c>
       <c r="IF3" t="n">
-        <v>-112.4750453373659</v>
+        <v>137.8103053113674</v>
       </c>
       <c r="IG3" t="n">
-        <v>-112.4750453373659</v>
+        <v>137.8103053113674</v>
       </c>
       <c r="IH3" t="n">
-        <v>-112.4933514868959</v>
+        <v>137.6935802360508</v>
       </c>
       <c r="II3" t="n">
-        <v>-112.4933514868959</v>
+        <v>137.6935802360508</v>
       </c>
       <c r="IJ3" t="n">
-        <v>-112.515104003185</v>
+        <v>137.6384765717102</v>
       </c>
       <c r="IK3" t="n">
-        <v>-112.515104003185</v>
+        <v>137.6384765717102</v>
       </c>
       <c r="IL3" t="n">
-        <v>-112.5827022453662</v>
+        <v>137.5868542622604</v>
       </c>
       <c r="IM3" t="n">
-        <v>-112.5827022453662</v>
+        <v>137.5868542622604</v>
       </c>
       <c r="IN3" t="n">
-        <v>-112.5962340003027</v>
+        <v>137.526411655184</v>
       </c>
       <c r="IO3" t="n">
-        <v>-112.5962340003027</v>
+        <v>137.526411655184</v>
       </c>
       <c r="IP3" t="n">
-        <v>-112.6334089124099</v>
+        <v>137.6372006267106</v>
       </c>
       <c r="IQ3" t="n">
-        <v>-112.6334089124099</v>
+        <v>137.6372006267106</v>
       </c>
       <c r="IR3" t="n">
-        <v>-112.659774396815</v>
+        <v>137.7453391312822</v>
       </c>
       <c r="IS3" t="n">
-        <v>-112.659774396815</v>
+        <v>137.7453391312822</v>
       </c>
       <c r="IT3" t="n">
-        <v>-112.7038619305981</v>
+        <v>137.5815385324489</v>
       </c>
       <c r="IU3" t="n">
-        <v>-112.7038619305981</v>
+        <v>137.5815385324489</v>
       </c>
       <c r="IV3" t="n">
-        <v>-112.7219548512683</v>
+        <v>137.7443803457813</v>
       </c>
       <c r="IW3" t="n">
-        <v>-112.7219548512683</v>
+        <v>137.7443803457813</v>
       </c>
       <c r="IX3" t="n">
-        <v>-112.7668388540235</v>
+        <v>137.6600007855058</v>
       </c>
       <c r="IY3" t="n">
-        <v>-112.7668388540235</v>
+        <v>137.6600007855058</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-112.7617390887661</v>
+        <v>137.8266107837975</v>
       </c>
       <c r="JA3" t="n">
-        <v>-112.7617390887661</v>
+        <v>137.8266107837975</v>
       </c>
       <c r="JB3" t="n">
-        <v>-112.7569923763234</v>
+        <v>137.9527872640949</v>
       </c>
       <c r="JC3" t="n">
-        <v>-112.7569923763234</v>
+        <v>137.9527872640949</v>
       </c>
       <c r="JD3" t="n">
-        <v>-113.3049858208067</v>
+        <v>138.0576060288359</v>
       </c>
       <c r="JE3" t="n">
-        <v>-113.3049858208067</v>
+        <v>138.0576060288359</v>
       </c>
       <c r="JF3" t="n">
-        <v>-113.8142030244418</v>
+        <v>138.1591490411248</v>
       </c>
       <c r="JG3" t="n">
-        <v>-113.8142030244418</v>
+        <v>138.1591490411248</v>
       </c>
       <c r="JH3" t="n">
-        <v>-114.1795654063275</v>
+        <v>138.1434108923562</v>
       </c>
       <c r="JI3" t="n">
-        <v>-114.1795654063275</v>
+        <v>138.1434108923562</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-114.3483583617836</v>
+        <v>138.1285841335792</v>
       </c>
       <c r="JK3" t="n">
-        <v>-114.3483583617836</v>
+        <v>138.1285841335792</v>
       </c>
       <c r="JL3" t="n">
-        <v>-114.3048180535517</v>
+        <v>137.9661801271869</v>
       </c>
       <c r="JM3" t="n">
-        <v>-114.3048180535517</v>
+        <v>137.9661801271869</v>
       </c>
       <c r="JN3" t="n">
-        <v>-114.2858313008506</v>
+        <v>137.8101687589458</v>
       </c>
       <c r="JO3" t="n">
-        <v>-114.2858313008506</v>
+        <v>137.8101687589458</v>
       </c>
       <c r="JP3" t="n">
-        <v>-114.1715180227571</v>
+        <v>137.914905293022</v>
       </c>
       <c r="JQ3" t="n">
-        <v>-114.1715180227571</v>
+        <v>137.914905293022</v>
       </c>
       <c r="JR3" t="n">
-        <v>-114.0390091617734</v>
+        <v>137.823304313479</v>
       </c>
       <c r="JS3" t="n">
-        <v>-114.0390091617734</v>
+        <v>137.823304313479</v>
       </c>
       <c r="JT3" t="n">
-        <v>-113.9100835701298</v>
+        <v>137.7610798718257</v>
       </c>
       <c r="JU3" t="n">
-        <v>-113.9100835701298</v>
+        <v>137.7610798718257</v>
       </c>
       <c r="JV3" t="n">
-        <v>-113.8806454137559</v>
+        <v>138.1622881924672</v>
       </c>
       <c r="JW3" t="n">
-        <v>-113.8806454137559</v>
+        <v>138.1622881924672</v>
       </c>
       <c r="JX3" t="n">
-        <v>-113.6894140694189</v>
+        <v>138.5492551340018</v>
       </c>
       <c r="JY3" t="n">
-        <v>-113.6894140694189</v>
+        <v>138.5492551340018</v>
       </c>
       <c r="JZ3" t="n">
-        <v>-113.6839345717924</v>
+        <v>138.3909180423657</v>
       </c>
       <c r="KA3" t="n">
-        <v>-113.6839345717924</v>
+        <v>138.3909180423657</v>
       </c>
       <c r="KB3" t="n">
-        <v>-113.6839837153203</v>
+        <v>138.4113552502706</v>
       </c>
       <c r="KC3" t="n">
-        <v>-113.6839837153203</v>
+        <v>138.4113552502706</v>
       </c>
       <c r="KD3" t="n">
-        <v>-113.6533668010219</v>
+        <v>138.5845134525259</v>
       </c>
       <c r="KE3" t="n">
-        <v>-113.6533668010219</v>
+        <v>138.5845134525259</v>
       </c>
       <c r="KF3" t="n">
-        <v>-113.6172632365854</v>
+        <v>138.5001187048519</v>
       </c>
       <c r="KG3" t="n">
-        <v>-113.6172632365854</v>
+        <v>138.5001187048519</v>
       </c>
       <c r="KH3" t="n">
-        <v>-113.5711671237281</v>
+        <v>138.3830546427339</v>
       </c>
       <c r="KI3" t="n">
-        <v>-113.5711671237281</v>
+        <v>138.3830546427339</v>
       </c>
       <c r="KJ3" t="n">
-        <v>-113.5263850371861</v>
+        <v>138.4366002120277</v>
       </c>
       <c r="KK3" t="n">
-        <v>-113.5263850371861</v>
+        <v>138.4366002120277</v>
       </c>
       <c r="KL3" t="n">
-        <v>-113.4926669588163</v>
+        <v>138.2977700872141</v>
       </c>
       <c r="KM3" t="n">
-        <v>-113.4926669588163</v>
+        <v>138.2977700872141</v>
       </c>
       <c r="KN3" t="n">
-        <v>-113.506058799231</v>
+        <v>138.1639654038553</v>
       </c>
       <c r="KO3" t="n">
-        <v>-113.506058799231</v>
+        <v>138.1639654038553</v>
       </c>
       <c r="KP3" t="n">
-        <v>-113.3775706080607</v>
+        <v>138.0231187769387</v>
       </c>
       <c r="KQ3" t="n">
-        <v>-113.3775706080607</v>
+        <v>138.0231187769387</v>
       </c>
       <c r="KR3" t="n">
-        <v>-113.3556615959099</v>
+        <v>138.0133613218463</v>
       </c>
       <c r="KS3" t="n">
-        <v>-113.3556615959099</v>
+        <v>138.0133613218463</v>
       </c>
       <c r="KT3" t="n">
-        <v>-113.334392301304</v>
+        <v>138.0312189935354</v>
       </c>
       <c r="KU3" t="n">
-        <v>-113.334392301304</v>
+        <v>138.0312189935354</v>
       </c>
       <c r="KV3" t="n">
-        <v>-113.3235411633606</v>
+        <v>137.9798440384958</v>
       </c>
       <c r="KW3" t="n">
-        <v>-113.3235411633606</v>
+        <v>137.9798440384958</v>
       </c>
       <c r="KX3" t="n">
-        <v>-113.3131100029106</v>
+        <v>138.0999047874915</v>
       </c>
       <c r="KY3" t="n">
-        <v>-113.3131100029106</v>
+        <v>138.0999047874915</v>
       </c>
       <c r="KZ3" t="n">
-        <v>-113.2920322494834</v>
+        <v>138.4934916668428</v>
       </c>
       <c r="LA3" t="n">
-        <v>-113.2920322494834</v>
+        <v>138.4934916668428</v>
       </c>
       <c r="LB3" t="n">
-        <v>-113.2715396953184</v>
+        <v>138.6340584739179</v>
       </c>
       <c r="LC3" t="n">
-        <v>-113.2715396953184</v>
+        <v>138.6340584739179</v>
       </c>
       <c r="LD3" t="n">
-        <v>-113.2723402925463</v>
+        <v>138.5729326505968</v>
       </c>
       <c r="LE3" t="n">
-        <v>-113.2723402925463</v>
+        <v>138.5729326505968</v>
       </c>
       <c r="LF3" t="n">
-        <v>-113.5277626745904</v>
+        <v>138.4426321068804</v>
       </c>
       <c r="LG3" t="n">
-        <v>-113.5277626745904</v>
+        <v>138.4426321068804</v>
       </c>
       <c r="LH3" t="n">
-        <v>-113.8111925114888</v>
+        <v>138.3168218359179</v>
       </c>
       <c r="LI3" t="n">
-        <v>-113.8111925114888</v>
+        <v>138.3168218359179</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-113.3567980093757</v>
+        <v>138.2831160092304</v>
       </c>
       <c r="LK3" t="n">
-        <v>-113.3567980093757</v>
+        <v>138.2831160092304</v>
       </c>
       <c r="LL3" t="n">
-        <v>-112.9187236651869</v>
+        <v>138.439893493685</v>
       </c>
       <c r="LM3" t="n">
-        <v>-112.9187236651869</v>
+        <v>138.439893493685</v>
       </c>
       <c r="LN3" t="n">
-        <v>-113.2492805512209</v>
+        <v>138.587741558848</v>
       </c>
       <c r="LO3" t="n">
-        <v>-113.2492805512209</v>
+        <v>138.587741558848</v>
       </c>
       <c r="LP3" t="n">
-        <v>-113.2143044982979</v>
+        <v>139.0158379724279</v>
       </c>
       <c r="LQ3" t="n">
-        <v>-113.2143044982979</v>
+        <v>139.0158379724279</v>
       </c>
       <c r="LR3" t="n">
-        <v>-113.1828531047072</v>
+        <v>138.881160566442</v>
       </c>
       <c r="LS3" t="n">
-        <v>-113.1828531047072</v>
+        <v>138.881160566442</v>
       </c>
       <c r="LT3" t="n">
-        <v>-113.1383038771477</v>
+        <v>138.9197294514948</v>
       </c>
       <c r="LU3" t="n">
-        <v>-113.1383038771477</v>
+        <v>138.9197294514948</v>
       </c>
       <c r="LV3" t="n">
-        <v>-113.0962391860315</v>
+        <v>139.0384864634683</v>
       </c>
       <c r="LW3" t="n">
-        <v>-113.0962391860315</v>
+        <v>139.0384864634683</v>
       </c>
       <c r="LX3" t="n">
-        <v>-113.1220043805885</v>
+        <v>138.8902566463034</v>
       </c>
       <c r="LY3" t="n">
-        <v>-113.1220043805885</v>
+        <v>138.8902566463034</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-113.1471032620969</v>
+        <v>138.8062601592192</v>
       </c>
       <c r="MA3" t="n">
-        <v>-113.1471032620969</v>
+        <v>138.8062601592192</v>
       </c>
       <c r="MB3" t="n">
-        <v>-113.162704206063</v>
+        <v>138.7247760059081</v>
       </c>
       <c r="MC3" t="n">
-        <v>-113.162704206063</v>
+        <v>138.7247760059081</v>
       </c>
       <c r="MD3" t="n">
-        <v>-113.1063341968962</v>
+        <v>138.8615636113562</v>
       </c>
       <c r="ME3" t="n">
-        <v>-113.1063341968962</v>
+        <v>138.8615636113562</v>
       </c>
       <c r="MF3" t="n">
-        <v>-113.1014885430134</v>
+        <v>138.9742794269608</v>
       </c>
       <c r="MG3" t="n">
-        <v>-113.1014885430134</v>
+        <v>138.9742794269608</v>
       </c>
       <c r="MH3" t="n">
-        <v>-113.0551205306358</v>
+        <v>138.782206183139</v>
       </c>
       <c r="MI3" t="n">
-        <v>-113.0551205306358</v>
+        <v>138.782206183139</v>
       </c>
       <c r="MJ3" t="n">
-        <v>-113.0923741972227</v>
+        <v>138.9391533609848</v>
       </c>
       <c r="MK3" t="n">
-        <v>-113.0923741972227</v>
+        <v>138.9391533609848</v>
       </c>
       <c r="ML3" t="n">
-        <v>-113.092108089927</v>
+        <v>139.3423386874201</v>
       </c>
       <c r="MM3" t="n">
-        <v>-113.092108089927</v>
+        <v>139.3423386874201</v>
       </c>
       <c r="MN3" t="n">
-        <v>-113.0019170689162</v>
+        <v>139.092661777603</v>
       </c>
       <c r="MO3" t="n">
-        <v>-113.0019170689162</v>
+        <v>139.092661777603</v>
       </c>
       <c r="MP3" t="n">
-        <v>-112.9697813019849</v>
+        <v>138.8512173033329</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-112.9697813019849</v>
+        <v>138.8512173033329</v>
       </c>
       <c r="MR3" t="n">
-        <v>-112.9391759666571</v>
+        <v>138.7999457612036</v>
       </c>
       <c r="MS3" t="n">
-        <v>-112.9391759666571</v>
+        <v>138.7999457612036</v>
       </c>
       <c r="MT3" t="n">
-        <v>-112.9404846796497</v>
+        <v>138.750217439388</v>
       </c>
       <c r="MU3" t="n">
-        <v>-112.9404846796497</v>
+        <v>138.750217439388</v>
       </c>
       <c r="MV3" t="n">
-        <v>-112.9070664240112</v>
+        <v>138.6732322924956</v>
       </c>
       <c r="MW3" t="n">
-        <v>-112.9070664240112</v>
+        <v>138.6732322924956</v>
       </c>
       <c r="MX3" t="n">
-        <v>-112.9208712919337</v>
+        <v>138.4893854313105</v>
       </c>
       <c r="MY3" t="n">
-        <v>-112.9208712919337</v>
+        <v>138.4893854313105</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-112.8768112504936</v>
+        <v>138.6492503813043</v>
       </c>
       <c r="NA3" t="n">
-        <v>-112.8768112504936</v>
+        <v>138.6492503813043</v>
       </c>
       <c r="NB3" t="n">
-        <v>-112.8728640330726</v>
+        <v>138.7790109899143</v>
       </c>
       <c r="NC3" t="n">
-        <v>-112.8728640330726</v>
+        <v>138.7790109899143</v>
       </c>
       <c r="ND3" t="n">
-        <v>-112.9262334846274</v>
+        <v>138.914363112098</v>
       </c>
       <c r="NE3" t="n">
-        <v>-112.9262334846274</v>
+        <v>138.914363112098</v>
       </c>
       <c r="NF3" t="n">
-        <v>-112.9356845438678</v>
+        <v>138.832551002861</v>
       </c>
       <c r="NG3" t="n">
-        <v>-112.9356845438678</v>
+        <v>138.832551002861</v>
       </c>
       <c r="NH3" t="n">
-        <v>-112.9451016578441</v>
+        <v>138.7533806340987</v>
       </c>
       <c r="NI3" t="n">
-        <v>-112.9451016578441</v>
+        <v>138.7533806340987</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-113.0082890117228</v>
+        <v>139.114146698404</v>
       </c>
       <c r="NK3" t="n">
-        <v>-113.0082890117228</v>
+        <v>139.114146698404</v>
       </c>
       <c r="NL3" t="n">
-        <v>-112.9826768234754</v>
+        <v>139.1720209610482</v>
       </c>
       <c r="NM3" t="n">
-        <v>-112.9826768234754</v>
+        <v>139.1720209610482</v>
       </c>
       <c r="NN3" t="n">
-        <v>-113.0449152140481</v>
+        <v>139.2136287663745</v>
       </c>
       <c r="NO3" t="n">
-        <v>-113.0449152140481</v>
+        <v>139.2136287663745</v>
       </c>
       <c r="NP3" t="n">
-        <v>-113.0561102151474</v>
+        <v>139.2674287905729</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-113.0561102151474</v>
+        <v>139.2674287905729</v>
       </c>
       <c r="NR3" t="n">
-        <v>-113.1154529354923</v>
+        <v>139.3821680297648</v>
       </c>
       <c r="NS3" t="n">
-        <v>-113.1154529354923</v>
+        <v>139.3821680297648</v>
       </c>
       <c r="NT3" t="n">
-        <v>-113.1707505254439</v>
+        <v>139.1903329455457</v>
       </c>
       <c r="NU3" t="n">
-        <v>-113.1707505254439</v>
+        <v>139.1903329455457</v>
       </c>
       <c r="NV3" t="n">
-        <v>-113.2240078449448</v>
+        <v>138.9714567709527</v>
       </c>
       <c r="NW3" t="n">
-        <v>-113.2240078449448</v>
+        <v>138.9714567709527</v>
       </c>
       <c r="NX3" t="n">
-        <v>-113.5021047428534</v>
+        <v>138.760138353705</v>
       </c>
       <c r="NY3" t="n">
-        <v>-113.5021047428534</v>
+        <v>138.760138353705</v>
       </c>
       <c r="NZ3" t="n">
-        <v>-113.7697264958551</v>
+        <v>138.7227325128796</v>
       </c>
       <c r="OA3" t="n">
-        <v>-113.7697264958551</v>
+        <v>138.7227325128796</v>
       </c>
       <c r="OB3" t="n">
-        <v>-113.7975253699705</v>
+        <v>138.6298119303933</v>
       </c>
       <c r="OC3" t="n">
-        <v>-113.7975253699705</v>
+        <v>138.6298119303933</v>
       </c>
       <c r="OD3" t="n">
-        <v>-113.6975595340586</v>
+        <v>138.3694866281175</v>
       </c>
       <c r="OE3" t="n">
-        <v>-113.6975595340586</v>
+        <v>138.3694866281175</v>
       </c>
       <c r="OF3" t="n">
-        <v>-113.6945205092516</v>
+        <v>138.2359610203902</v>
       </c>
       <c r="OG3" t="n">
-        <v>-113.6945205092516</v>
+        <v>138.2359610203902</v>
       </c>
       <c r="OH3" t="n">
-        <v>-113.6460979959489</v>
+        <v>138.1618169434255</v>
       </c>
       <c r="OI3" t="n">
-        <v>-113.6460979959489</v>
+        <v>138.1618169434255</v>
       </c>
       <c r="OJ3" t="n">
-        <v>-113.5898441071556</v>
+        <v>138.3134303580447</v>
       </c>
       <c r="OK3" t="n">
-        <v>-113.5898441071556</v>
+        <v>138.3134303580447</v>
       </c>
       <c r="OL3" t="n">
-        <v>-113.5047684734881</v>
+        <v>138.4601143279247</v>
       </c>
       <c r="OM3" t="n">
-        <v>-113.5047684734881</v>
+        <v>138.4601143279247</v>
       </c>
       <c r="ON3" t="n">
-        <v>-113.4224186990284</v>
+        <v>138.3319882322212</v>
       </c>
       <c r="OO3" t="n">
-        <v>-113.4224186990284</v>
+        <v>138.3319882322212</v>
       </c>
       <c r="OP3" t="n">
-        <v>-113.3366755061333</v>
+        <v>138.2073733871979</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-113.3366755061333</v>
+        <v>138.2073733871979</v>
       </c>
       <c r="OR3" t="n">
-        <v>-113.4403063098227</v>
+        <v>138.0878398000551</v>
       </c>
       <c r="OS3" t="n">
-        <v>-113.4403063098227</v>
+        <v>138.0878398000551</v>
       </c>
       <c r="OT3" t="n">
-        <v>-114.0093445031616</v>
+        <v>138.0425380235139</v>
       </c>
       <c r="OU3" t="n">
-        <v>-114.0093445031616</v>
+        <v>138.0425380235139</v>
       </c>
       <c r="OV3" t="n">
-        <v>-114.5569829671801</v>
+        <v>138.1511825051894</v>
       </c>
       <c r="OW3" t="n">
-        <v>-114.5569829671801</v>
+        <v>138.1511825051894</v>
       </c>
       <c r="OX3" t="n">
-        <v>-114.4836806136902</v>
+        <v>138.0039724365263</v>
       </c>
       <c r="OY3" t="n">
-        <v>-114.4836806136902</v>
+        <v>138.0039724365263</v>
       </c>
       <c r="OZ3" t="n">
-        <v>-114.4812150684649</v>
+        <v>137.7167866456141</v>
       </c>
       <c r="PA3" t="n">
-        <v>-114.4812150684649</v>
+        <v>137.7167866456141</v>
       </c>
       <c r="PB3" t="n">
-        <v>-114.4506707640762</v>
+        <v>137.4410438580761</v>
       </c>
       <c r="PC3" t="n">
-        <v>-114.4506707640762</v>
+        <v>137.4410438580761</v>
       </c>
       <c r="PD3" t="n">
-        <v>-114.4198684232233</v>
+        <v>137.260555782684</v>
       </c>
       <c r="PE3" t="n">
-        <v>-114.4198684232233</v>
+        <v>137.260555782684</v>
       </c>
       <c r="PF3" t="n">
-        <v>-114.3540916987375</v>
+        <v>137.3979698593446</v>
       </c>
       <c r="PG3" t="n">
-        <v>-114.3540916987375</v>
+        <v>137.3979698593446</v>
       </c>
       <c r="PH3" t="n">
-        <v>-114.736051107606</v>
+        <v>137.3698040519213</v>
       </c>
       <c r="PI3" t="n">
-        <v>-114.736051107606</v>
+        <v>137.3698040519213</v>
       </c>
       <c r="PJ3" t="n">
-        <v>-114.8811173704072</v>
+        <v>137.4649110869577</v>
       </c>
       <c r="PK3" t="n">
-        <v>-114.8811173704072</v>
+        <v>137.4649110869577</v>
       </c>
       <c r="PL3" t="n">
-        <v>-114.8098366975366</v>
+        <v>137.3914796477321</v>
       </c>
       <c r="PM3" t="n">
-        <v>-114.8098366975366</v>
+        <v>137.3914796477321</v>
       </c>
       <c r="PN3" t="n">
-        <v>-114.7446804353713</v>
+        <v>137.5936712630793</v>
       </c>
       <c r="PO3" t="n">
-        <v>-114.7446804353713</v>
+        <v>137.5936712630793</v>
       </c>
       <c r="PP3" t="n">
-        <v>-114.6316140280798</v>
+        <v>137.4929953752553</v>
       </c>
       <c r="PQ3" t="n">
-        <v>-114.6316140280798</v>
+        <v>137.4929953752553</v>
       </c>
       <c r="PR3" t="n">
-        <v>-114.5507814442962</v>
+        <v>137.3300521735245</v>
       </c>
       <c r="PS3" t="n">
-        <v>-114.5507814442962</v>
+        <v>137.3300521735245</v>
       </c>
       <c r="PT3" t="n">
-        <v>-114.4721155350587</v>
+        <v>137.7635972785084</v>
       </c>
       <c r="PU3" t="n">
-        <v>-114.4721155350587</v>
+        <v>137.7635972785084</v>
       </c>
       <c r="PV3" t="n">
-        <v>-114.363972782467</v>
+        <v>138.1821762458997</v>
       </c>
       <c r="PW3" t="n">
-        <v>-114.363972782467</v>
+        <v>138.1821762458997</v>
       </c>
       <c r="PX3" t="n">
-        <v>-114.2841759114227</v>
+        <v>138.4029900999244</v>
       </c>
       <c r="PY3" t="n">
-        <v>-114.2841759114227</v>
+        <v>138.4029900999244</v>
       </c>
       <c r="PZ3" t="n">
-        <v>-114.1779278811846</v>
+        <v>138.5136102505774</v>
       </c>
       <c r="QA3" t="n">
-        <v>-114.1779278811846</v>
+        <v>138.5136102505774</v>
       </c>
       <c r="QB3" t="n">
-        <v>-114.1522703894786</v>
+        <v>138.6092159509856</v>
       </c>
       <c r="QC3" t="n">
-        <v>-114.1522703894786</v>
+        <v>138.6092159509856</v>
       </c>
       <c r="QD3" t="n">
-        <v>-114.0580036264208</v>
+        <v>138.5227664572638</v>
       </c>
       <c r="QE3" t="n">
-        <v>-114.0580036264208</v>
+        <v>138.5227664572638</v>
       </c>
       <c r="QF3" t="n">
-        <v>-114.0214465580349</v>
+        <v>138.3880670905062</v>
       </c>
       <c r="QG3" t="n">
-        <v>-114.0214465580349</v>
+        <v>138.3880670905062</v>
       </c>
       <c r="QH3" t="n">
-        <v>-114.0092707515156</v>
+        <v>138.7334268763966</v>
       </c>
       <c r="QI3" t="n">
-        <v>-114.0092707515156</v>
+        <v>138.7334268763966</v>
       </c>
       <c r="QJ3" t="n">
-        <v>-114.0165503749762</v>
+        <v>139.0657333555049</v>
       </c>
       <c r="QK3" t="n">
-        <v>-114.0165503749762</v>
+        <v>139.0657333555049</v>
       </c>
       <c r="QL3" t="n">
-        <v>-113.9540008950351</v>
+        <v>138.9779587109705</v>
       </c>
       <c r="QM3" t="n">
-        <v>-113.9540008950351</v>
+        <v>138.9779587109705</v>
       </c>
       <c r="QN3" t="n">
-        <v>-113.8936131264957</v>
+        <v>138.8924165706975</v>
       </c>
       <c r="QO3" t="n">
-        <v>-113.8936131264957</v>
+        <v>138.8924165706975</v>
       </c>
       <c r="QP3" t="n">
-        <v>-113.8817915760334</v>
+        <v>138.8919599077678</v>
       </c>
       <c r="QQ3" t="n">
-        <v>-113.8817915760334</v>
+        <v>138.8919599077678</v>
       </c>
       <c r="QR3" t="n">
-        <v>-113.8723677879378</v>
+        <v>138.8287474678772</v>
       </c>
       <c r="QS3" t="n">
-        <v>-113.8723677879378</v>
+        <v>138.8287474678772</v>
       </c>
       <c r="QT3" t="n">
-        <v>-113.8633103914877</v>
+        <v>138.7671760192312</v>
       </c>
       <c r="QU3" t="n">
-        <v>-113.8633103914877</v>
+        <v>138.7671760192312</v>
       </c>
       <c r="QV3" t="n">
-        <v>-113.8264928238122</v>
+        <v>138.8517068501706</v>
       </c>
       <c r="QW3" t="n">
-        <v>-113.8264928238122</v>
+        <v>138.8517068501706</v>
       </c>
       <c r="QX3" t="n">
-        <v>-113.7712751427284</v>
+        <v>138.93297025642</v>
       </c>
       <c r="QY3" t="n">
-        <v>-113.7712751427284</v>
+        <v>138.93297025642</v>
       </c>
       <c r="QZ3" t="n">
-        <v>-113.7924878284576</v>
+        <v>139.4218827149384</v>
       </c>
       <c r="RA3" t="n">
-        <v>-113.7924878284576</v>
+        <v>139.4218827149384</v>
       </c>
       <c r="RB3" t="n">
-        <v>-113.7389700974327</v>
+        <v>139.4102555740195</v>
       </c>
       <c r="RC3" t="n">
-        <v>-113.7389700974327</v>
+        <v>139.4102555740195</v>
       </c>
       <c r="RD3" t="n">
-        <v>-113.7495934127124</v>
+        <v>139.3299106369259</v>
       </c>
       <c r="RE3" t="n">
-        <v>-113.7495934127124</v>
+        <v>139.3299106369259</v>
       </c>
       <c r="RF3" t="n">
-        <v>-113.7251523632836</v>
+        <v>139.3007587237157</v>
       </c>
       <c r="RG3" t="n">
-        <v>-113.7251523632836</v>
+        <v>139.3007587237157</v>
       </c>
       <c r="RH3" t="n">
-        <v>-113.7239682615304</v>
+        <v>139.3560011300781</v>
       </c>
       <c r="RI3" t="n">
-        <v>-113.7239682615304</v>
+        <v>139.3560011300781</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-113.7230165018027</v>
+        <v>139.4188300623235</v>
       </c>
       <c r="RK3" t="n">
-        <v>-113.7230165018027</v>
+        <v>139.4188300623235</v>
       </c>
       <c r="RL3" t="n">
-        <v>-113.6839283711244</v>
+        <v>139.3395955748991</v>
       </c>
       <c r="RM3" t="n">
-        <v>-113.6839283711244</v>
+        <v>139.3395955748991</v>
       </c>
       <c r="RN3" t="n">
-        <v>-113.6878760462903</v>
+        <v>139.2622429239434</v>
       </c>
       <c r="RO3" t="n">
-        <v>-113.6878760462903</v>
+        <v>139.2622429239434</v>
       </c>
       <c r="RP3" t="n">
-        <v>-113.6903991679295</v>
+        <v>139.3242760712558</v>
       </c>
       <c r="RQ3" t="n">
-        <v>-113.6903991679295</v>
+        <v>139.3242760712558</v>
       </c>
       <c r="RR3" t="n">
-        <v>-113.6479638102076</v>
+        <v>139.3796170101263</v>
       </c>
       <c r="RS3" t="n">
-        <v>-113.6479638102076</v>
+        <v>139.3796170101263</v>
       </c>
       <c r="RT3" t="n">
-        <v>-113.6737516596134</v>
+        <v>139.1443452547612</v>
       </c>
       <c r="RU3" t="n">
-        <v>-113.6737516596134</v>
+        <v>139.1443452547612</v>
       </c>
       <c r="RV3" t="n">
-        <v>-113.6639310793122</v>
+        <v>139.2908437896958</v>
       </c>
       <c r="RW3" t="n">
-        <v>-113.6639310793122</v>
+        <v>139.2908437896958</v>
       </c>
       <c r="RX3" t="n">
-        <v>-113.6997608129669</v>
+        <v>139.1505083638373</v>
       </c>
       <c r="RY3" t="n">
-        <v>-113.6997608129669</v>
+        <v>139.1505083638373</v>
       </c>
       <c r="RZ3" t="n">
-        <v>-113.6484546582739</v>
+        <v>139.0007837987837</v>
       </c>
       <c r="SA3" t="n">
-        <v>-113.6484546582739</v>
+        <v>139.0007837987837</v>
       </c>
       <c r="SB3" t="n">
-        <v>-113.5992118971887</v>
+        <v>138.9223680802418</v>
       </c>
       <c r="SC3" t="n">
-        <v>-113.5992118971887</v>
+        <v>138.9223680802418</v>
       </c>
       <c r="SD3" t="n">
-        <v>-113.608874698645</v>
+        <v>138.8465765405418</v>
       </c>
       <c r="SE3" t="n">
-        <v>-113.608874698645</v>
+        <v>138.8465765405418</v>
       </c>
       <c r="SF3" t="n">
-        <v>-113.6102824525596</v>
+        <v>138.5326793353751</v>
       </c>
       <c r="SG3" t="n">
-        <v>-113.6102824525596</v>
+        <v>138.5326793353751</v>
       </c>
       <c r="SH3" t="n">
-        <v>-113.6293940288345</v>
+        <v>138.5870228415971</v>
       </c>
       <c r="SI3" t="n">
-        <v>-113.6293940288345</v>
+        <v>138.5870228415971</v>
       </c>
       <c r="SJ3" t="n">
-        <v>-113.644414485206</v>
+        <v>138.6106310412081</v>
       </c>
       <c r="SK3" t="n">
-        <v>-113.644414485206</v>
+        <v>138.6106310412081</v>
       </c>
       <c r="SL3" t="n">
-        <v>-113.5990609005533</v>
+        <v>138.6883595172775</v>
       </c>
       <c r="SM3" t="n">
-        <v>-113.5990609005533</v>
+        <v>138.6883595172775</v>
       </c>
       <c r="SN3" t="n">
-        <v>-113.5704881566177</v>
+        <v>138.3781121074428</v>
       </c>
       <c r="SO3" t="n">
-        <v>-113.5704881566177</v>
+        <v>138.3781121074428</v>
       </c>
       <c r="SP3" t="n">
-        <v>-113.5874710961319</v>
+        <v>138.3205722200027</v>
       </c>
       <c r="SQ3" t="n">
-        <v>-113.5874710961319</v>
+        <v>138.3205722200027</v>
       </c>
       <c r="SR3" t="n">
-        <v>-113.5167404029613</v>
+        <v>138.2937685971458</v>
       </c>
       <c r="SS3" t="n">
-        <v>-113.5167404029613</v>
+        <v>138.2937685971458</v>
       </c>
       <c r="ST3" t="n">
-        <v>-113.4306635023529</v>
+        <v>138.380017252301</v>
       </c>
       <c r="SU3" t="n">
-        <v>-113.4306635023529</v>
+        <v>138.380017252301</v>
       </c>
       <c r="SV3" t="n">
-        <v>-113.3444170776212</v>
+        <v>138.2877727399607</v>
       </c>
       <c r="SW3" t="n">
-        <v>-113.3444170776212</v>
+        <v>138.2877727399607</v>
       </c>
       <c r="SX3" t="n">
-        <v>-113.2809612091815</v>
+        <v>138.3041750039919</v>
       </c>
       <c r="SY3" t="n">
-        <v>-113.2809612091815</v>
+        <v>138.3041750039919</v>
       </c>
       <c r="SZ3" t="n">
-        <v>-113.4463405808335</v>
+        <v>138.3330067250189</v>
       </c>
       <c r="TA3" t="n">
-        <v>-113.4463405808335</v>
+        <v>138.3330067250189</v>
       </c>
       <c r="TB3" t="n">
-        <v>-113.4306819209747</v>
+        <v>138.4433842063927</v>
       </c>
       <c r="TC3" t="n">
-        <v>-113.4306819209747</v>
+        <v>138.4433842063927</v>
       </c>
       <c r="TD3" t="n">
-        <v>-113.3880376396638</v>
+        <v>138.3219269088063</v>
       </c>
       <c r="TE3" t="n">
-        <v>-113.3880376396638</v>
+        <v>138.3219269088063</v>
       </c>
       <c r="TF3" t="n">
-        <v>-113.3234677873873</v>
+        <v>138.2052514064927</v>
       </c>
       <c r="TG3" t="n">
-        <v>-113.3234677873873</v>
+        <v>138.2052514064927</v>
       </c>
       <c r="TH3" t="n">
-        <v>-113.2654422577728</v>
+        <v>138.1543011294888</v>
       </c>
       <c r="TI3" t="n">
-        <v>-113.2654422577728</v>
+        <v>138.1543011294888</v>
       </c>
       <c r="TJ3" t="n">
-        <v>-113.243232260367</v>
+        <v>137.8496047315954</v>
       </c>
       <c r="TK3" t="n">
-        <v>-113.243232260367</v>
+        <v>137.8496047315954</v>
       </c>
       <c r="TL3" t="n">
-        <v>-113.2180863589937</v>
+        <v>137.8318692864992</v>
       </c>
       <c r="TM3" t="n">
-        <v>-113.2180863589937</v>
+        <v>137.8318692864992</v>
       </c>
       <c r="TN3" t="n">
-        <v>-113.1525670546221</v>
+        <v>137.8193603361138</v>
       </c>
       <c r="TO3" t="n">
-        <v>-113.1525670546221</v>
+        <v>137.8193603361138</v>
       </c>
       <c r="TP3" t="n">
-        <v>-113.1164548474836</v>
+        <v>137.5947655808134</v>
       </c>
       <c r="TQ3" t="n">
-        <v>-113.1164548474836</v>
+        <v>137.5947655808134</v>
       </c>
       <c r="TR3" t="n">
-        <v>-113.0686923368501</v>
+        <v>137.531575650356</v>
       </c>
       <c r="TS3" t="n">
-        <v>-113.0686923368501</v>
+        <v>137.531575650356</v>
       </c>
       <c r="TT3" t="n">
-        <v>-113.0348366929372</v>
+        <v>137.8779655552007</v>
       </c>
       <c r="TU3" t="n">
-        <v>-113.0348366929372</v>
+        <v>137.8779655552007</v>
       </c>
       <c r="TV3" t="n">
-        <v>-113.0309866621819</v>
+        <v>138.0155997284267</v>
       </c>
       <c r="TW3" t="n">
-        <v>-113.0309866621819</v>
+        <v>138.0155997284267</v>
       </c>
       <c r="TX3" t="n">
-        <v>-112.9903663230246</v>
+        <v>137.9323727930036</v>
       </c>
       <c r="TY3" t="n">
-        <v>-112.9903663230246</v>
+        <v>137.9323727930036</v>
       </c>
       <c r="TZ3" t="n">
-        <v>-113.5447414598105</v>
+        <v>137.766110842086</v>
       </c>
       <c r="UA3" t="n">
-        <v>-113.5447414598105</v>
+        <v>137.766110842086</v>
       </c>
       <c r="UB3" t="n">
-        <v>-113.5011996512919</v>
+        <v>137.6593620112755</v>
       </c>
       <c r="UC3" t="n">
-        <v>-113.5011996512919</v>
+        <v>137.6593620112755</v>
       </c>
       <c r="UD3" t="n">
-        <v>-113.4729280408407</v>
+        <v>137.6840674467137</v>
       </c>
       <c r="UE3" t="n">
-        <v>-113.4729280408407</v>
+        <v>137.6840674467137</v>
       </c>
       <c r="UF3" t="n">
-        <v>-113.4535869743739</v>
+        <v>137.742347772731</v>
       </c>
       <c r="UG3" t="n">
-        <v>-113.4535869743739</v>
+        <v>137.742347772731</v>
       </c>
       <c r="UH3" t="n">
-        <v>-113.3673196619918</v>
+        <v>137.5728338281602</v>
       </c>
       <c r="UI3" t="n">
-        <v>-113.3673196619918</v>
+        <v>137.5728338281602</v>
       </c>
       <c r="UJ3" t="n">
-        <v>-113.3366962815864</v>
+        <v>138.1027480737106</v>
       </c>
       <c r="UK3" t="n">
-        <v>-113.3366962815864</v>
+        <v>138.1027480737106</v>
       </c>
       <c r="UL3" t="n">
-        <v>-113.2401258696041</v>
+        <v>138.1689711367105</v>
       </c>
       <c r="UM3" t="n">
-        <v>-113.2401258696041</v>
+        <v>138.1689711367105</v>
       </c>
       <c r="UN3" t="n">
-        <v>-113.1639187155906</v>
+        <v>138.289451823613</v>
       </c>
       <c r="UO3" t="n">
-        <v>-113.1639187155906</v>
+        <v>138.289451823613</v>
       </c>
       <c r="UP3" t="n">
-        <v>-113.104121221094</v>
+        <v>132.7955112698831</v>
       </c>
       <c r="UQ3" t="n">
-        <v>-113.104121221094</v>
+        <v>132.7955112698831</v>
       </c>
       <c r="UR3" t="n">
-        <v>-113.0450979426729</v>
+        <v>132.8444996378299</v>
       </c>
       <c r="US3" t="n">
-        <v>-113.0450979426729</v>
+        <v>132.8444996378299</v>
       </c>
       <c r="UT3" t="n">
-        <v>-113.0203376694529</v>
+        <v>133.4028294601581</v>
       </c>
       <c r="UU3" t="n">
-        <v>-113.0203376694529</v>
+        <v>133.4028294601581</v>
       </c>
       <c r="UV3" t="n">
-        <v>-112.9998560914404</v>
+        <v>136.4657596204418</v>
       </c>
       <c r="UW3" t="n">
-        <v>-112.9998560914404</v>
+        <v>136.4657596204418</v>
       </c>
       <c r="UX3" t="n">
-        <v>-112.945443412295</v>
+        <v>139.383381743814</v>
       </c>
       <c r="UY3" t="n">
-        <v>-112.945443412295</v>
+        <v>139.383381743814</v>
       </c>
       <c r="UZ3" t="n">
-        <v>-112.9576387404052</v>
+        <v>141.5195963530998</v>
       </c>
       <c r="VA3" t="n">
-        <v>-112.9576387404052</v>
+        <v>141.5195963530998</v>
       </c>
       <c r="VB3" t="n">
-        <v>-112.9180893643387</v>
+        <v>141.0275627845809</v>
       </c>
       <c r="VC3" t="n">
-        <v>-112.9180893643387</v>
+        <v>141.0275627845809</v>
       </c>
       <c r="VD3" t="n">
-        <v>-112.8773396325536</v>
+        <v>141.6339108664346</v>
       </c>
       <c r="VE3" t="n">
-        <v>-112.8773396325536</v>
+        <v>141.6339108664346</v>
       </c>
       <c r="VF3" t="n">
-        <v>-112.8508624588183</v>
+        <v>142.0627980602512</v>
       </c>
       <c r="VG3" t="n">
-        <v>-112.8508624588183</v>
+        <v>142.0627980602512</v>
       </c>
       <c r="VH3" t="n">
-        <v>-112.846140010991</v>
+        <v>142.8375375103945</v>
       </c>
       <c r="VI3" t="n">
-        <v>-112.846140010991</v>
+        <v>142.8375375103945</v>
       </c>
       <c r="VJ3" t="n">
-        <v>-112.8226551288367</v>
+        <v>145.1025587199826</v>
       </c>
       <c r="VK3" t="n">
-        <v>-112.8226551288367</v>
+        <v>145.1025587199826</v>
       </c>
       <c r="VL3" t="n">
-        <v>-112.8016081237006</v>
+        <v>147.5486314144761</v>
       </c>
       <c r="VM3" t="n">
-        <v>-112.8016081237006</v>
+        <v>147.5486314144761</v>
       </c>
       <c r="VN3" t="n">
-        <v>-112.7730163725165</v>
+        <v>150.4474777177282</v>
       </c>
       <c r="VO3" t="n">
-        <v>-112.7730163725165</v>
+        <v>150.4474777177282</v>
       </c>
       <c r="VP3" t="n">
-        <v>-112.7613855967317</v>
+        <v>151.9556467880455</v>
       </c>
       <c r="VQ3" t="n">
-        <v>-112.7613855967317</v>
+        <v>151.9556467880455</v>
       </c>
       <c r="VR3" t="n">
-        <v>-112.745457649471</v>
+        <v>151.7452149091059</v>
       </c>
       <c r="VS3" t="n">
-        <v>-112.745457649471</v>
+        <v>151.7452149091059</v>
       </c>
       <c r="VT3" t="n">
-        <v>-112.7252362780686</v>
+        <v>151.4967391506226</v>
       </c>
       <c r="VU3" t="n">
-        <v>-112.7252362780686</v>
+        <v>151.4967391506226</v>
       </c>
       <c r="VV3" t="n">
-        <v>-112.7056628415121</v>
+        <v>151.4278199713127</v>
       </c>
       <c r="VW3" t="n">
-        <v>-112.7056628415121</v>
+        <v>151.4278199713127</v>
       </c>
       <c r="VX3" t="n">
-        <v>-112.7493498739062</v>
+        <v>151.434504160081</v>
       </c>
       <c r="VY3" t="n">
-        <v>-112.7493498739062</v>
+        <v>151.434504160081</v>
       </c>
       <c r="VZ3" t="n">
-        <v>-112.8074441024321</v>
+        <v>151.3594965386168</v>
       </c>
       <c r="WA3" t="n">
-        <v>-112.8074441024321</v>
+        <v>151.3594965386168</v>
       </c>
       <c r="WB3" t="n">
-        <v>-112.896793786796</v>
+        <v>148.0885374397149</v>
       </c>
       <c r="WC3" t="n">
-        <v>-112.896793786796</v>
+        <v>148.0885374397149</v>
       </c>
       <c r="WD3" t="n">
-        <v>-112.9674075508137</v>
+        <v>148.3129845848426</v>
       </c>
       <c r="WE3" t="n">
-        <v>-112.9674075508137</v>
+        <v>148.3129845848426</v>
       </c>
       <c r="WF3" t="n">
-        <v>-113.0003668415729</v>
+        <v>148.8883957710828</v>
       </c>
       <c r="WG3" t="n">
-        <v>-113.0003668415729</v>
+        <v>148.8883957710828</v>
       </c>
       <c r="WH3" t="n">
-        <v>-113.0274311555998</v>
+        <v>148.8421119165833</v>
       </c>
       <c r="WI3" t="n">
-        <v>-113.0274311555998</v>
+        <v>148.8421119165833</v>
       </c>
       <c r="WJ3" t="n">
-        <v>-113.0659128196584</v>
+        <v>148.4292879626975</v>
       </c>
       <c r="WK3" t="n">
-        <v>-113.0659128196584</v>
+        <v>148.4292879626975</v>
       </c>
       <c r="WL3" t="n">
-        <v>-113.0882321909525</v>
+        <v>148.0420079520617</v>
       </c>
       <c r="WM3" t="n">
-        <v>-113.0882321909525</v>
+        <v>148.0420079520617</v>
       </c>
       <c r="WN3" t="n">
-        <v>-113.1024930041166</v>
+        <v>147.6554615422386</v>
       </c>
       <c r="WO3" t="n">
-        <v>-113.1024930041166</v>
+        <v>147.6554615422386</v>
       </c>
       <c r="WP3" t="n">
-        <v>-113.056461631377</v>
+        <v>147.2647470317447</v>
       </c>
       <c r="WQ3" t="n">
-        <v>-113.056461631377</v>
+        <v>147.2647470317447</v>
       </c>
       <c r="WR3" t="n">
-        <v>-113.0431625078452</v>
+        <v>146.9283317165232</v>
       </c>
       <c r="WS3" t="n">
-        <v>-113.0431625078452</v>
+        <v>146.9283317165232</v>
       </c>
       <c r="WT3" t="n">
-        <v>-113.0445491869199</v>
+        <v>146.585133231448</v>
       </c>
       <c r="WU3" t="n">
-        <v>-113.0445491869199</v>
+        <v>146.585133231448</v>
       </c>
       <c r="WV3" t="n">
-        <v>-113.0331618020553</v>
+        <v>146.2623592018672</v>
       </c>
       <c r="WW3" t="n">
-        <v>-113.0331618020553</v>
+        <v>146.2623592018672</v>
       </c>
       <c r="WX3" t="n">
-        <v>-113.0365391924679</v>
+        <v>145.9025819043927</v>
       </c>
       <c r="WY3" t="n">
-        <v>-113.0365391924679</v>
+        <v>145.9025819043927</v>
       </c>
       <c r="WZ3" t="n">
-        <v>-112.9998580286687</v>
+        <v>145.3384378651957</v>
       </c>
       <c r="XA3" t="n">
-        <v>-112.9998580286687</v>
+        <v>145.3384378651957</v>
       </c>
       <c r="XB3" t="n">
-        <v>-113.4343690602923</v>
+        <v>142.7400709950304</v>
       </c>
       <c r="XC3" t="n">
-        <v>-113.4343690602923</v>
+        <v>142.7400709950304</v>
       </c>
       <c r="XD3" t="n">
-        <v>-113.3812217426456</v>
+        <v>141.4966525659686</v>
       </c>
       <c r="XE3" t="n">
-        <v>-113.3812217426456</v>
+        <v>141.4966525659686</v>
       </c>
       <c r="XF3" t="n">
-        <v>-113.348857556659</v>
+        <v>141.2665275826423</v>
       </c>
       <c r="XG3" t="n">
-        <v>-113.348857556659</v>
+        <v>141.2665275826423</v>
       </c>
       <c r="XH3" t="n">
-        <v>-113.3137274744862</v>
+        <v>141.5480602805353</v>
       </c>
       <c r="XI3" t="n">
-        <v>-113.3137274744862</v>
+        <v>141.5480602805353</v>
       </c>
       <c r="XJ3" t="n">
-        <v>-113.2953487970225</v>
+        <v>141.7136068503666</v>
       </c>
       <c r="XK3" t="n">
-        <v>-113.2953487970225</v>
+        <v>141.7136068503666</v>
       </c>
       <c r="XL3" t="n">
-        <v>-113.2648827735049</v>
+        <v>142.1130443300755</v>
       </c>
       <c r="XM3" t="n">
-        <v>-113.2648827735049</v>
+        <v>142.1130443300755</v>
       </c>
       <c r="XN3" t="n">
-        <v>-113.2334411491192</v>
+        <v>144.8622051272503</v>
       </c>
       <c r="XO3" t="n">
-        <v>-113.2334411491192</v>
+        <v>144.8622051272503</v>
       </c>
       <c r="XP3" t="n">
-        <v>-113.2091416975716</v>
+        <v>148.2920255620822</v>
       </c>
       <c r="XQ3" t="n">
-        <v>-113.2091416975716</v>
+        <v>148.2920255620822</v>
       </c>
       <c r="XR3" t="n">
-        <v>-113.1985407286103</v>
+        <v>152.5555789259017</v>
       </c>
       <c r="XS3" t="n">
-        <v>-113.1985407286103</v>
+        <v>152.5555789259017</v>
       </c>
       <c r="XT3" t="n">
-        <v>-113.170204615762</v>
+        <v>156.3958781296852</v>
       </c>
       <c r="XU3" t="n">
-        <v>-113.170204615762</v>
+        <v>156.3958781296852</v>
       </c>
       <c r="XV3" t="n">
-        <v>-113.0572071798439</v>
+        <v>159.0583255180206</v>
       </c>
       <c r="XW3" t="n">
-        <v>-113.0572071798439</v>
+        <v>159.0583255180206</v>
       </c>
       <c r="XX3" t="n">
-        <v>-112.9537382317496</v>
+        <v>160.333656099173</v>
       </c>
       <c r="XY3" t="n">
-        <v>-112.9537382317496</v>
+        <v>160.333656099173</v>
       </c>
       <c r="XZ3" t="n">
-        <v>-112.8647989606542</v>
+        <v>161.776463126889</v>
       </c>
       <c r="YA3" t="n">
-        <v>-112.8647989606542</v>
+        <v>161.776463126889</v>
       </c>
       <c r="YB3" t="n">
-        <v>-112.8469491283795</v>
+        <v>159.3830170859865</v>
       </c>
       <c r="YC3" t="n">
-        <v>-112.8469491283795</v>
+        <v>159.3830170859865</v>
       </c>
       <c r="YD3" t="n">
-        <v>-112.812450327996</v>
+        <v>158.7287005290688</v>
       </c>
       <c r="YE3" t="n">
-        <v>-112.812450327996</v>
+        <v>158.7287005290688</v>
       </c>
       <c r="YF3" t="n">
-        <v>-112.7907111366816</v>
+        <v>159.2252180860788</v>
       </c>
       <c r="YG3" t="n">
-        <v>-112.7907111366816</v>
+        <v>159.2252180860788</v>
       </c>
       <c r="YH3" t="n">
-        <v>-112.7767568557335</v>
+        <v>159.7148518241438</v>
       </c>
       <c r="YI3" t="n">
-        <v>-112.7767568557335</v>
+        <v>159.7148518241438</v>
       </c>
       <c r="YJ3" t="n">
-        <v>-112.7703169297155</v>
+        <v>159.9951264019895</v>
       </c>
       <c r="YK3" t="n">
-        <v>-112.7703169297155</v>
+        <v>159.9951264019895</v>
       </c>
       <c r="YL3" t="n">
-        <v>-112.8120185396706</v>
+        <v>159.3651139073972</v>
       </c>
       <c r="YM3" t="n">
-        <v>-112.8120185396706</v>
+        <v>159.3651139073972</v>
       </c>
       <c r="YN3" t="n">
-        <v>-112.8268770321739</v>
+        <v>158.2504369400146</v>
       </c>
       <c r="YO3" t="n">
-        <v>-112.8268770321739</v>
+        <v>158.2504369400146</v>
       </c>
       <c r="YP3" t="n">
-        <v>-112.839036546714</v>
+        <v>156.5308845352155</v>
       </c>
       <c r="YQ3" t="n">
-        <v>-112.839036546714</v>
+        <v>156.5308845352155</v>
+      </c>
+      <c r="YR3" t="n">
+        <v>156.0690706636957</v>
+      </c>
+      <c r="YS3" t="n">
+        <v>156.0690706636957</v>
+      </c>
+      <c r="YT3" t="n">
+        <v>155.6393620222425</v>
+      </c>
+      <c r="YU3" t="n">
+        <v>155.6393620222425</v>
+      </c>
+      <c r="YV3" t="n">
+        <v>154.3489514371423</v>
+      </c>
+      <c r="YW3" t="n">
+        <v>154.3489514371423</v>
+      </c>
+      <c r="YX3" t="n">
+        <v>152.2569499548818</v>
+      </c>
+      <c r="YY3" t="n">
+        <v>152.2569499548818</v>
+      </c>
+      <c r="YZ3" t="n">
+        <v>151.9420315825683</v>
+      </c>
+      <c r="ZA3" t="n">
+        <v>151.9420315825683</v>
+      </c>
+      <c r="ZB3" t="n">
+        <v>151.7438475107694</v>
+      </c>
+      <c r="ZC3" t="n">
+        <v>151.7438475107694</v>
+      </c>
+      <c r="ZD3" t="n">
+        <v>148.1694957954078</v>
+      </c>
+      <c r="ZE3" t="n">
+        <v>148.1694957954078</v>
+      </c>
+      <c r="ZF3" t="n">
+        <v>147.6033092383873</v>
+      </c>
+      <c r="ZG3" t="n">
+        <v>147.6033092383873</v>
+      </c>
+      <c r="ZH3" t="n">
+        <v>146.9438513426176</v>
+      </c>
+      <c r="ZI3" t="n">
+        <v>146.9438513426176</v>
+      </c>
+      <c r="ZJ3" t="n">
+        <v>145.5919274952648</v>
+      </c>
+      <c r="ZK3" t="n">
+        <v>145.5919274952648</v>
+      </c>
+      <c r="ZL3" t="n">
+        <v>144.7038616494471</v>
+      </c>
+      <c r="ZM3" t="n">
+        <v>144.7038616494471</v>
+      </c>
+      <c r="ZN3" t="n">
+        <v>143.6791481760373</v>
+      </c>
+      <c r="ZO3" t="n">
+        <v>143.6791481760373</v>
+      </c>
+      <c r="ZP3" t="n">
+        <v>142.8963996606104</v>
+      </c>
+      <c r="ZQ3" t="n">
+        <v>142.8963996606104</v>
+      </c>
+      <c r="ZR3" t="n">
+        <v>142.1278665827379</v>
+      </c>
+      <c r="ZS3" t="n">
+        <v>142.1278665827379</v>
+      </c>
+      <c r="ZT3" t="n">
+        <v>141.1922284060798</v>
+      </c>
+      <c r="ZU3" t="n">
+        <v>141.1922284060798</v>
+      </c>
+      <c r="ZV3" t="n">
+        <v>140.3316951533644</v>
+      </c>
+      <c r="ZW3" t="n">
+        <v>140.3316951533644</v>
+      </c>
+      <c r="ZX3" t="n">
+        <v>139.3820773156239</v>
+      </c>
+      <c r="ZY3" t="n">
+        <v>139.3820773156239</v>
+      </c>
+      <c r="ZZ3" t="n">
+        <v>138.8499415885155</v>
+      </c>
+      <c r="AAA3" t="n">
+        <v>138.8499415885155</v>
+      </c>
+      <c r="AAB3" t="n">
+        <v>138.3356839841903</v>
+      </c>
+      <c r="AAC3" t="n">
+        <v>138.3356839841903</v>
+      </c>
+      <c r="AAD3" t="n">
+        <v>137.8165635871777</v>
+      </c>
+      <c r="AAE3" t="n">
+        <v>137.8165635871777</v>
+      </c>
+      <c r="AAF3" t="n">
+        <v>137.1581511507426</v>
+      </c>
+      <c r="AAG3" t="n">
+        <v>137.1581511507426</v>
+      </c>
+      <c r="AAH3" t="n">
+        <v>136.6895405206035</v>
+      </c>
+      <c r="AAI3" t="n">
+        <v>136.6895405206035</v>
+      </c>
+      <c r="AAJ3" t="n">
+        <v>136.392212238508</v>
+      </c>
+      <c r="AAK3" t="n">
+        <v>136.392212238508</v>
+      </c>
+      <c r="AAL3" t="n">
+        <v>136.5609658502453</v>
+      </c>
+      <c r="AAM3" t="n">
+        <v>136.5609658502453</v>
+      </c>
+      <c r="AAN3" t="n">
+        <v>136.9505239731205</v>
+      </c>
+      <c r="AAO3" t="n">
+        <v>136.9505239731205</v>
+      </c>
+      <c r="AAP3" t="n">
+        <v>137.1722921141827</v>
+      </c>
+      <c r="AAQ3" t="n">
+        <v>137.1722921141827</v>
+      </c>
+      <c r="AAR3" t="n">
+        <v>137.4544356464549</v>
+      </c>
+      <c r="AAS3" t="n">
+        <v>137.4544356464549</v>
+      </c>
+      <c r="AAT3" t="n">
+        <v>137.8408013744105</v>
+      </c>
+      <c r="AAU3" t="n">
+        <v>137.8408013744105</v>
+      </c>
+      <c r="AAV3" t="n">
+        <v>138.2095092094877</v>
+      </c>
+      <c r="AAW3" t="n">
+        <v>138.2095092094877</v>
+      </c>
+      <c r="AAX3" t="n">
+        <v>138.5977436859849</v>
+      </c>
+      <c r="AAY3" t="n">
+        <v>138.5977436859849</v>
+      </c>
+      <c r="AAZ3" t="n">
+        <v>138.937121649821</v>
+      </c>
+      <c r="ABA3" t="n">
+        <v>138.937121649821</v>
+      </c>
+      <c r="ABB3" t="n">
+        <v>139.3574655845589</v>
+      </c>
+      <c r="ABC3" t="n">
+        <v>139.3574655845589</v>
+      </c>
+      <c r="ABD3" t="n">
+        <v>139.6470850858631</v>
+      </c>
+      <c r="ABE3" t="n">
+        <v>139.6470850858631</v>
+      </c>
+      <c r="ABF3" t="n">
+        <v>139.8446809001226</v>
+      </c>
+      <c r="ABG3" t="n">
+        <v>139.8446809001226</v>
+      </c>
+      <c r="ABH3" t="n">
+        <v>140.5700909954004</v>
+      </c>
+      <c r="ABI3" t="n">
+        <v>140.5700909954004</v>
+      </c>
+      <c r="ABJ3" t="n">
+        <v>140.8712229923125</v>
+      </c>
+      <c r="ABK3" t="n">
+        <v>140.8712229923125</v>
+      </c>
+      <c r="ABL3" t="n">
+        <v>141.1400702574909</v>
+      </c>
+      <c r="ABM3" t="n">
+        <v>141.1400702574909</v>
+      </c>
+      <c r="ABN3" t="n">
+        <v>141.2998156465409</v>
+      </c>
+      <c r="ABO3" t="n">
+        <v>141.2998156465409</v>
+      </c>
+      <c r="ABP3" t="n">
+        <v>141.5030526337908</v>
+      </c>
+      <c r="ABQ3" t="n">
+        <v>141.5030526337908</v>
+      </c>
+      <c r="ABR3" t="n">
+        <v>141.792834506896</v>
+      </c>
+      <c r="ABS3" t="n">
+        <v>141.792834506896</v>
+      </c>
+      <c r="ABT3" t="n">
+        <v>141.8425341189545</v>
+      </c>
+      <c r="ABU3" t="n">
+        <v>141.8425341189545</v>
+      </c>
+      <c r="ABV3" t="n">
+        <v>142.0991314465678</v>
+      </c>
+      <c r="ABW3" t="n">
+        <v>142.0991314465678</v>
+      </c>
+      <c r="ABX3" t="n">
+        <v>142.3660589891962</v>
+      </c>
+      <c r="ABY3" t="n">
+        <v>142.3660589891962</v>
+      </c>
+      <c r="ABZ3" t="n">
+        <v>142.7046915086115</v>
+      </c>
+      <c r="ACA3" t="n">
+        <v>142.7046915086115</v>
+      </c>
+      <c r="ACB3" t="n">
+        <v>142.879721084129</v>
+      </c>
+      <c r="ACC3" t="n">
+        <v>142.879721084129</v>
+      </c>
+      <c r="ACD3" t="n">
+        <v>143.0442400653374</v>
+      </c>
+      <c r="ACE3" t="n">
+        <v>143.0442400653374</v>
+      </c>
+      <c r="ACF3" t="n">
+        <v>143.1237730206786</v>
+      </c>
+      <c r="ACG3" t="n">
+        <v>143.1237730206786</v>
+      </c>
+      <c r="ACH3" t="n">
+        <v>142.8899468633379</v>
+      </c>
+      <c r="ACI3" t="n">
+        <v>142.8899468633379</v>
+      </c>
+      <c r="ACJ3" t="n">
+        <v>143.1417095802202</v>
+      </c>
+      <c r="ACK3" t="n">
+        <v>143.1417095802202</v>
+      </c>
+      <c r="ACL3" t="n">
+        <v>143.1673851077796</v>
+      </c>
+      <c r="ACM3" t="n">
+        <v>143.1673851077796</v>
+      </c>
+      <c r="ACN3" t="n">
+        <v>143.1790875624344</v>
+      </c>
+      <c r="ACO3" t="n">
+        <v>143.1790875624344</v>
+      </c>
+      <c r="ACP3" t="n">
+        <v>143.3741500309552</v>
+      </c>
+      <c r="ACQ3" t="n">
+        <v>143.3741500309552</v>
+      </c>
+      <c r="ACR3" t="n">
+        <v>143.6545292235391</v>
+      </c>
+      <c r="ACS3" t="n">
+        <v>143.6545292235391</v>
+      </c>
+      <c r="ACT3" t="n">
+        <v>144.3339276274019</v>
+      </c>
+      <c r="ACU3" t="n">
+        <v>144.3339276274019</v>
+      </c>
+      <c r="ACV3" t="n">
+        <v>144.4253322877611</v>
+      </c>
+      <c r="ACW3" t="n">
+        <v>144.4253322877611</v>
+      </c>
+      <c r="ACX3" t="n">
+        <v>144.5075320472885</v>
+      </c>
+      <c r="ACY3" t="n">
+        <v>144.5075320472885</v>
+      </c>
+      <c r="ACZ3" t="n">
+        <v>144.4702917756611</v>
+      </c>
+      <c r="ADA3" t="n">
+        <v>144.4702917756611</v>
+      </c>
+      <c r="ADB3" t="n">
+        <v>144.8474903626736</v>
+      </c>
+      <c r="ADC3" t="n">
+        <v>144.8474903626736</v>
+      </c>
+      <c r="ADD3" t="n">
+        <v>144.8761206655746</v>
+      </c>
+      <c r="ADE3" t="n">
+        <v>144.8761206655746</v>
+      </c>
+      <c r="ADF3" t="n">
+        <v>144.9714422594311</v>
+      </c>
+      <c r="ADG3" t="n">
+        <v>144.9714422594311</v>
+      </c>
+      <c r="ADH3" t="n">
+        <v>145.2870321056982</v>
+      </c>
+      <c r="ADI3" t="n">
+        <v>145.2870321056982</v>
+      </c>
+      <c r="ADJ3" t="n">
+        <v>145.7216216508489</v>
+      </c>
+      <c r="ADK3" t="n">
+        <v>145.7216216508489</v>
+      </c>
+      <c r="ADL3" t="n">
+        <v>145.8736449289732</v>
+      </c>
+      <c r="ADM3" t="n">
+        <v>145.8736449289732</v>
+      </c>
+      <c r="ADN3" t="n">
+        <v>145.8676658670446</v>
+      </c>
+      <c r="ADO3" t="n">
+        <v>145.8676658670446</v>
+      </c>
+      <c r="ADP3" t="n">
+        <v>146.4043912153516</v>
+      </c>
+      <c r="ADQ3" t="n">
+        <v>146.4043912153516</v>
+      </c>
+      <c r="ADR3" t="n">
+        <v>146.3790496143658</v>
+      </c>
+      <c r="ADS3" t="n">
+        <v>146.3790496143658</v>
+      </c>
+      <c r="ADT3" t="n">
+        <v>146.7975189784262</v>
+      </c>
+      <c r="ADU3" t="n">
+        <v>146.7975189784262</v>
+      </c>
+      <c r="ADV3" t="n">
+        <v>146.7632207229949</v>
+      </c>
+      <c r="ADW3" t="n">
+        <v>146.7632207229949</v>
+      </c>
+      <c r="ADX3" t="n">
+        <v>147.1323059334241</v>
+      </c>
+      <c r="ADY3" t="n">
+        <v>147.1323059334241</v>
+      </c>
+      <c r="ADZ3" t="n">
+        <v>147.2531008360441</v>
+      </c>
+      <c r="AEA3" t="n">
+        <v>147.2531008360441</v>
+      </c>
+      <c r="AEB3" t="n">
+        <v>147.2010087406856</v>
+      </c>
+      <c r="AEC3" t="n">
+        <v>147.2010087406856</v>
+      </c>
+      <c r="AED3" t="n">
+        <v>147.5620652631789</v>
+      </c>
+      <c r="AEE3" t="n">
+        <v>147.5620652631789</v>
       </c>
     </row>
   </sheetData>
